--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="354">
   <si>
     <t>风险分类</t>
   </si>
@@ -1698,6 +1698,18 @@
   <si>
     <t>依据中兴多渠道下载技术提案修改打包信息表</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>排位顺序</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>前30游戏的排位顺序</t>
   </si>
 </sst>
 </file>
@@ -6675,7 +6687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -7901,7 +7913,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="T25" sqref="T24:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8130,7 +8142,7 @@
         <v>311</v>
       </c>
       <c r="I9" s="43">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43" t="s">
@@ -11855,10 +11867,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -12039,7 +12051,7 @@
     <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="42">
-        <f t="shared" ref="B8:B26" si="0">ROW()-6</f>
+        <f t="shared" ref="B8:B28" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="C8" s="42"/>
@@ -12104,7 +12116,7 @@
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
@@ -12114,13 +12126,13 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="I10" s="43">
         <v>20</v>
@@ -12133,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -12148,25 +12160,31 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="I11" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="I11" s="43">
+        <v>20</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="126"/>
+      <c r="L11" s="42">
+        <v>0</v>
+      </c>
+      <c r="M11" s="126" t="s">
+        <v>180</v>
+      </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="22.5">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -12176,29 +12194,31 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="I12" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="I12" s="43">
+        <v>20</v>
+      </c>
       <c r="J12" s="43"/>
       <c r="K12" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="L12" s="42" t="b">
+      <c r="L12" s="42">
         <v>0</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="N12" s="127"/>
       <c r="O12" s="128"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="22.5">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -12207,12 +12227,20 @@
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>296</v>
+      </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="K13" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="L13" s="42"/>
       <c r="M13" s="126"/>
       <c r="N13" s="127"/>
@@ -12227,14 +12255,26 @@
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>299</v>
+      </c>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="126"/>
+      <c r="K14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="126" t="s">
+        <v>302</v>
+      </c>
       <c r="N14" s="127"/>
       <c r="O14" s="128"/>
     </row>
@@ -12288,11 +12328,11 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="42"/>
       <c r="M17" s="126"/>
       <c r="N17" s="127"/>
@@ -12308,11 +12348,11 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
       <c r="L18" s="42"/>
       <c r="M18" s="126"/>
       <c r="N18" s="127"/>
@@ -12478,30 +12518,72 @@
       <c r="N26" s="127"/>
       <c r="O26" s="128"/>
     </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="128"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="M16:O16"/>
+  <mergeCells count="24">
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13152,7 +13234,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F10" sqref="F10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,17 +25,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库结构一览表!#REF!</definedName>
     <definedName name="createtime">版本履历!$E$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
     <definedName name="project">版本履历!$B$4:$B$5</definedName>
     <definedName name="title">版本履历!$B$4:$I$5</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="360">
   <si>
     <t>风险分类</t>
   </si>
@@ -1711,11 +1711,35 @@
   <si>
     <t>前30游戏的排位顺序</t>
   </si>
+  <si>
+    <t>WAP_URL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG_URL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点链接</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点链接</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台日志链接</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台日志链接</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -2223,25 +2247,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2271,22 +2331,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2305,48 +2386,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2385,50 +2424,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2438,9 +2465,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2456,9 +2480,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2809,7 +2833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2853,13 +2877,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -2874,22 +2898,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -2905,24 +2929,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -2935,28 +2959,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="109">
+      <c r="I5" s="55">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -2967,23 +2991,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -2994,23 +3018,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="94"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3021,23 +3045,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3050,28 +3074,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="55">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3082,23 +3106,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="88"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3109,23 +3133,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="88"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3136,23 +3160,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="89"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3163,23 +3187,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3192,28 +3216,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="55">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3224,23 +3248,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3251,23 +3275,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3278,19 +3302,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3414,3098 +3438,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="87">
+      <c r="B24" s="63">
         <v>1</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="53" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="s">
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="91"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="91"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="60" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="91"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="91"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="53" t="s">
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53" t="s">
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="88"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="60" t="s">
+      <c r="E35" s="95"/>
+      <c r="F35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="53" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53" t="s">
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="60" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="91"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="91"/>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="60" t="s">
+      <c r="E39" s="93"/>
+      <c r="F39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="53" t="s">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53" t="s">
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="91"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="92"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="88">
+      <c r="B42" s="64">
         <v>2</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="53" t="s">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="60" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="53" t="s">
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53" t="s">
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="75" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="60" t="s">
+      <c r="E49" s="95"/>
+      <c r="F49" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="53" t="s">
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="60" t="s">
+      <c r="B51" s="64"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="60" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="60" t="s">
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="60" t="s">
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="62"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="65"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="77"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="65"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="77"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="65"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="77"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="65"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="77"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="60" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="65"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="75"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="77"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="65"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="75"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="77"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="80"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="60" t="s">
+      <c r="B61" s="64"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="53" t="s">
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53" t="s">
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="69" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="60" t="s">
+      <c r="E64" s="113"/>
+      <c r="F64" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="53" t="s">
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53" t="s">
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="60" t="s">
+      <c r="B67" s="64"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="60" t="s">
+      <c r="B70" s="64"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="60" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="53"/>
-      <c r="S74" s="53"/>
-      <c r="T74" s="53"/>
-      <c r="U74" s="53"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="60" t="s">
+      <c r="B75" s="64"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="53"/>
-      <c r="U76" s="53"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="60" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="53"/>
-      <c r="T77" s="53"/>
-      <c r="U77" s="53"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="53"/>
-      <c r="T78" s="53"/>
-      <c r="U78" s="53"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="60" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="60" t="s">
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="53" t="s">
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="53"/>
-      <c r="U80" s="53"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="76"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
+      <c r="U80" s="71"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="53"/>
-      <c r="T82" s="53"/>
-      <c r="U82" s="53"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="53"/>
-      <c r="T83" s="53"/>
-      <c r="U83" s="53"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
+      <c r="U83" s="71"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="75" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="95"/>
+      <c r="F84" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="53" t="s">
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53" t="s">
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="53"/>
-      <c r="U84" s="53"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="53"/>
-      <c r="T85" s="53"/>
-      <c r="U85" s="53"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="71"/>
+      <c r="U85" s="71"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="53"/>
-      <c r="T86" s="53"/>
-      <c r="U86" s="53"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71"/>
+      <c r="U86" s="71"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
-      <c r="T87" s="53"/>
-      <c r="U87" s="53"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71"/>
+      <c r="S87" s="71"/>
+      <c r="T87" s="71"/>
+      <c r="U87" s="71"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="53"/>
-      <c r="T88" s="53"/>
-      <c r="U88" s="53"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71"/>
+      <c r="S88" s="71"/>
+      <c r="T88" s="71"/>
+      <c r="U88" s="71"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="101" t="s">
+      <c r="B89" s="64"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="102"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-      <c r="U89" s="56"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="82"/>
+      <c r="T89" s="82"/>
+      <c r="U89" s="83"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="85"/>
-      <c r="P90" s="86"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="85"/>
-      <c r="T90" s="85"/>
-      <c r="U90" s="86"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="86"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="89"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="85"/>
-      <c r="N91" s="85"/>
-      <c r="O91" s="85"/>
-      <c r="P91" s="86"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="85"/>
-      <c r="S91" s="85"/>
-      <c r="T91" s="85"/>
-      <c r="U91" s="86"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="89"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-      <c r="O92" s="85"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="85"/>
-      <c r="S92" s="85"/>
-      <c r="T92" s="85"/>
-      <c r="U92" s="86"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="87"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="89"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="85"/>
-      <c r="T93" s="85"/>
-      <c r="U93" s="86"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="88"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="89"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="58"/>
-      <c r="S94" s="58"/>
-      <c r="T94" s="58"/>
-      <c r="U94" s="59"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="86"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="84"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="86"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="87">
+      <c r="B95" s="63">
         <v>3</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="100" t="s">
+      <c r="D95" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="53" t="s">
+      <c r="E95" s="105"/>
+      <c r="F95" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53" t="s">
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53" t="s">
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
+      <c r="R95" s="71"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="71"/>
+      <c r="U95" s="71"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="71"/>
+      <c r="U96" s="71"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="71"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="71"/>
+      <c r="U97" s="71"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="53" t="s">
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="71"/>
+      <c r="U98" s="71"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="53"/>
-      <c r="T99" s="53"/>
-      <c r="U99" s="53"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
+      <c r="U99" s="71"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="71"/>
+      <c r="T100" s="71"/>
+      <c r="U100" s="71"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="53"/>
-      <c r="T101" s="53"/>
-      <c r="U101" s="53"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="71"/>
+      <c r="U101" s="71"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="53" t="s">
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="53"/>
-      <c r="T102" s="53"/>
-      <c r="U102" s="53"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="71"/>
+      <c r="T102" s="71"/>
+      <c r="U102" s="71"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="53"/>
-      <c r="O103" s="53"/>
-      <c r="P103" s="53"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="53"/>
-      <c r="T103" s="53"/>
-      <c r="U103" s="53"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="71"/>
+      <c r="T103" s="71"/>
+      <c r="U103" s="71"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="53"/>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="53"/>
-      <c r="R104" s="53"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="53"/>
-      <c r="U104" s="53"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="71"/>
+      <c r="T104" s="71"/>
+      <c r="U104" s="71"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="53" t="s">
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53" t="s">
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="53" t="s">
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="53"/>
-      <c r="S105" s="53"/>
-      <c r="T105" s="53"/>
-      <c r="U105" s="53"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="71"/>
+      <c r="T105" s="71"/>
+      <c r="U105" s="71"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="53"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="53"/>
-      <c r="T106" s="53"/>
-      <c r="U106" s="53"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+      <c r="T106" s="71"/>
+      <c r="U106" s="71"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
-      <c r="P107" s="53"/>
-      <c r="Q107" s="53"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="53"/>
-      <c r="T107" s="53"/>
-      <c r="U107" s="53"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+      <c r="T107" s="71"/>
+      <c r="U107" s="71"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="53"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="53"/>
-      <c r="T108" s="53"/>
-      <c r="U108" s="53"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="71"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="71"/>
+      <c r="S108" s="71"/>
+      <c r="T108" s="71"/>
+      <c r="U108" s="71"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="60" t="s">
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="60" t="s">
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="60" t="s">
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="61"/>
-      <c r="S109" s="61"/>
-      <c r="T109" s="61"/>
-      <c r="U109" s="62"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="74"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="63"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
-      <c r="O110" s="64"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="64"/>
-      <c r="S110" s="64"/>
-      <c r="T110" s="64"/>
-      <c r="U110" s="65"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="76"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="76"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="75"/>
+      <c r="R110" s="76"/>
+      <c r="S110" s="76"/>
+      <c r="T110" s="76"/>
+      <c r="U110" s="77"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="63"/>
-      <c r="R111" s="64"/>
-      <c r="S111" s="64"/>
-      <c r="T111" s="64"/>
-      <c r="U111" s="65"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="75"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="77"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="63"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="63"/>
-      <c r="R112" s="64"/>
-      <c r="S112" s="64"/>
-      <c r="T112" s="64"/>
-      <c r="U112" s="65"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76"/>
+      <c r="O112" s="76"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="75"/>
+      <c r="R112" s="76"/>
+      <c r="S112" s="76"/>
+      <c r="T112" s="76"/>
+      <c r="U112" s="77"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="64"/>
-      <c r="S113" s="64"/>
-      <c r="T113" s="64"/>
-      <c r="U113" s="65"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="76"/>
+      <c r="O113" s="76"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="75"/>
+      <c r="R113" s="76"/>
+      <c r="S113" s="76"/>
+      <c r="T113" s="76"/>
+      <c r="U113" s="77"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="65"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="75"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="77"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="67"/>
-      <c r="P115" s="68"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="67"/>
-      <c r="S115" s="67"/>
-      <c r="T115" s="67"/>
-      <c r="U115" s="68"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="80"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="79"/>
+      <c r="S115" s="79"/>
+      <c r="T115" s="79"/>
+      <c r="U115" s="80"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="75" t="s">
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="76"/>
-      <c r="F116" s="53" t="s">
+      <c r="E116" s="95"/>
+      <c r="F116" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="60" t="s">
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="61"/>
-      <c r="N116" s="61"/>
-      <c r="O116" s="61"/>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="60" t="s">
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="61"/>
-      <c r="S116" s="61"/>
-      <c r="T116" s="61"/>
-      <c r="U116" s="62"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="U116" s="74"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="88"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="63"/>
-      <c r="R117" s="64"/>
-      <c r="S117" s="64"/>
-      <c r="T117" s="64"/>
-      <c r="U117" s="65"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="76"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="76"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="76"/>
+      <c r="S117" s="76"/>
+      <c r="T117" s="76"/>
+      <c r="U117" s="77"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="63"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="63"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="65"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="76"/>
+      <c r="S118" s="76"/>
+      <c r="T118" s="76"/>
+      <c r="U118" s="77"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="53" t="s">
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="63"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="64"/>
-      <c r="O119" s="64"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="63"/>
-      <c r="R119" s="64"/>
-      <c r="S119" s="64"/>
-      <c r="T119" s="64"/>
-      <c r="U119" s="65"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="76"/>
+      <c r="P119" s="77"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="76"/>
+      <c r="S119" s="76"/>
+      <c r="T119" s="76"/>
+      <c r="U119" s="77"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="64"/>
-      <c r="P120" s="65"/>
-      <c r="Q120" s="63"/>
-      <c r="R120" s="64"/>
-      <c r="S120" s="64"/>
-      <c r="T120" s="64"/>
-      <c r="U120" s="65"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="76"/>
+      <c r="P120" s="77"/>
+      <c r="Q120" s="75"/>
+      <c r="R120" s="76"/>
+      <c r="S120" s="76"/>
+      <c r="T120" s="76"/>
+      <c r="U120" s="77"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="64"/>
-      <c r="O121" s="64"/>
-      <c r="P121" s="65"/>
-      <c r="Q121" s="63"/>
-      <c r="R121" s="64"/>
-      <c r="S121" s="64"/>
-      <c r="T121" s="64"/>
-      <c r="U121" s="65"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="77"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="76"/>
+      <c r="S121" s="76"/>
+      <c r="T121" s="76"/>
+      <c r="U121" s="77"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="88"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="65"/>
-      <c r="Q122" s="63"/>
-      <c r="R122" s="64"/>
-      <c r="S122" s="64"/>
-      <c r="T122" s="64"/>
-      <c r="U122" s="65"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="77"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="67"/>
-      <c r="O123" s="67"/>
-      <c r="P123" s="68"/>
-      <c r="Q123" s="66"/>
-      <c r="R123" s="67"/>
-      <c r="S123" s="67"/>
-      <c r="T123" s="67"/>
-      <c r="U123" s="68"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="79"/>
+      <c r="N123" s="79"/>
+      <c r="O123" s="79"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
+      <c r="T123" s="79"/>
+      <c r="U123" s="80"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="88"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="53" t="s">
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="60" t="s">
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="62"/>
-      <c r="Q124" s="60" t="s">
+      <c r="M124" s="73"/>
+      <c r="N124" s="73"/>
+      <c r="O124" s="73"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="61"/>
-      <c r="S124" s="61"/>
-      <c r="T124" s="61"/>
-      <c r="U124" s="62"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="U124" s="74"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="63"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="64"/>
-      <c r="O125" s="64"/>
-      <c r="P125" s="65"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="64"/>
-      <c r="S125" s="64"/>
-      <c r="T125" s="64"/>
-      <c r="U125" s="65"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="77"/>
+      <c r="Q125" s="75"/>
+      <c r="R125" s="76"/>
+      <c r="S125" s="76"/>
+      <c r="T125" s="76"/>
+      <c r="U125" s="77"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="88"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="63"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="64"/>
-      <c r="O126" s="64"/>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="63"/>
-      <c r="R126" s="64"/>
-      <c r="S126" s="64"/>
-      <c r="T126" s="64"/>
-      <c r="U126" s="65"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="76"/>
+      <c r="P126" s="77"/>
+      <c r="Q126" s="75"/>
+      <c r="R126" s="76"/>
+      <c r="S126" s="76"/>
+      <c r="T126" s="76"/>
+      <c r="U126" s="77"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="63"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="63"/>
-      <c r="R127" s="64"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
-      <c r="U127" s="65"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="76"/>
+      <c r="O127" s="76"/>
+      <c r="P127" s="77"/>
+      <c r="Q127" s="75"/>
+      <c r="R127" s="76"/>
+      <c r="S127" s="76"/>
+      <c r="T127" s="76"/>
+      <c r="U127" s="77"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="88"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="63"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="64"/>
-      <c r="O128" s="64"/>
-      <c r="P128" s="65"/>
-      <c r="Q128" s="63"/>
-      <c r="R128" s="64"/>
-      <c r="S128" s="64"/>
-      <c r="T128" s="64"/>
-      <c r="U128" s="65"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="96"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="76"/>
+      <c r="O128" s="76"/>
+      <c r="P128" s="77"/>
+      <c r="Q128" s="75"/>
+      <c r="R128" s="76"/>
+      <c r="S128" s="76"/>
+      <c r="T128" s="76"/>
+      <c r="U128" s="77"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="88"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="66"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="67"/>
-      <c r="O129" s="67"/>
-      <c r="P129" s="68"/>
-      <c r="Q129" s="66"/>
-      <c r="R129" s="67"/>
-      <c r="S129" s="67"/>
-      <c r="T129" s="67"/>
-      <c r="U129" s="68"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="78"/>
+      <c r="R129" s="79"/>
+      <c r="S129" s="79"/>
+      <c r="T129" s="79"/>
+      <c r="U129" s="80"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="88"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="53" t="s">
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="96"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="53"/>
-      <c r="H130" s="53"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="60" t="s">
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="61"/>
-      <c r="N130" s="61"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="60" t="s">
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="74"/>
+      <c r="Q130" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="61"/>
-      <c r="S130" s="61"/>
-      <c r="T130" s="61"/>
-      <c r="U130" s="62"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="U130" s="74"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="64"/>
-      <c r="O131" s="64"/>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="63"/>
-      <c r="R131" s="64"/>
-      <c r="S131" s="64"/>
-      <c r="T131" s="64"/>
-      <c r="U131" s="65"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="77"/>
+      <c r="Q131" s="75"/>
+      <c r="R131" s="76"/>
+      <c r="S131" s="76"/>
+      <c r="T131" s="76"/>
+      <c r="U131" s="77"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="64"/>
-      <c r="O132" s="64"/>
-      <c r="P132" s="65"/>
-      <c r="Q132" s="63"/>
-      <c r="R132" s="64"/>
-      <c r="S132" s="64"/>
-      <c r="T132" s="64"/>
-      <c r="U132" s="65"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="76"/>
+      <c r="O132" s="76"/>
+      <c r="P132" s="77"/>
+      <c r="Q132" s="75"/>
+      <c r="R132" s="76"/>
+      <c r="S132" s="76"/>
+      <c r="T132" s="76"/>
+      <c r="U132" s="77"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
-      <c r="O133" s="64"/>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="63"/>
-      <c r="R133" s="64"/>
-      <c r="S133" s="64"/>
-      <c r="T133" s="64"/>
-      <c r="U133" s="65"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="76"/>
+      <c r="O133" s="76"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="75"/>
+      <c r="R133" s="76"/>
+      <c r="S133" s="76"/>
+      <c r="T133" s="76"/>
+      <c r="U133" s="77"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="63"/>
-      <c r="R134" s="64"/>
-      <c r="S134" s="64"/>
-      <c r="T134" s="64"/>
-      <c r="U134" s="65"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="97"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="76"/>
+      <c r="N134" s="76"/>
+      <c r="O134" s="76"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="75"/>
+      <c r="R134" s="76"/>
+      <c r="S134" s="76"/>
+      <c r="T134" s="76"/>
+      <c r="U134" s="77"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="75" t="s">
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="76"/>
-      <c r="F135" s="60" t="s">
+      <c r="E135" s="95"/>
+      <c r="F135" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="60" t="s">
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="61"/>
-      <c r="N135" s="61"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="62"/>
-      <c r="Q135" s="60" t="s">
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="74"/>
+      <c r="Q135" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="61"/>
-      <c r="S135" s="61"/>
-      <c r="T135" s="61"/>
-      <c r="U135" s="62"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="74"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="88"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="65"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
-      <c r="O136" s="64"/>
-      <c r="P136" s="65"/>
-      <c r="Q136" s="63"/>
-      <c r="R136" s="64"/>
-      <c r="S136" s="64"/>
-      <c r="T136" s="64"/>
-      <c r="U136" s="65"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="96"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="76"/>
+      <c r="O136" s="76"/>
+      <c r="P136" s="77"/>
+      <c r="Q136" s="75"/>
+      <c r="R136" s="76"/>
+      <c r="S136" s="76"/>
+      <c r="T136" s="76"/>
+      <c r="U136" s="77"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="88"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="63"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
-      <c r="O137" s="64"/>
-      <c r="P137" s="65"/>
-      <c r="Q137" s="66"/>
-      <c r="R137" s="67"/>
-      <c r="S137" s="67"/>
-      <c r="T137" s="67"/>
-      <c r="U137" s="68"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="96"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+      <c r="J137" s="79"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="76"/>
+      <c r="N137" s="76"/>
+      <c r="O137" s="76"/>
+      <c r="P137" s="77"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="79"/>
+      <c r="S137" s="79"/>
+      <c r="T137" s="79"/>
+      <c r="U137" s="80"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="60" t="s">
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="97"/>
+      <c r="F138" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61"/>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="60" t="s">
+      <c r="G138" s="73"/>
+      <c r="H138" s="73"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="73"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="61"/>
-      <c r="N138" s="61"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="62"/>
-      <c r="Q138" s="53" t="s">
+      <c r="M138" s="73"/>
+      <c r="N138" s="73"/>
+      <c r="O138" s="73"/>
+      <c r="P138" s="74"/>
+      <c r="Q138" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="53"/>
-      <c r="S138" s="53"/>
-      <c r="T138" s="53"/>
-      <c r="U138" s="53"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="71"/>
+      <c r="T138" s="71"/>
+      <c r="U138" s="71"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="88"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="65"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="64"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="65"/>
-      <c r="Q139" s="53"/>
-      <c r="R139" s="53"/>
-      <c r="S139" s="53"/>
-      <c r="T139" s="53"/>
-      <c r="U139" s="53"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="96"/>
+      <c r="E139" s="97"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="71"/>
+      <c r="T139" s="71"/>
+      <c r="U139" s="71"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="88"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="65"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="64"/>
-      <c r="O140" s="64"/>
-      <c r="P140" s="65"/>
-      <c r="Q140" s="53"/>
-      <c r="R140" s="53"/>
-      <c r="S140" s="53"/>
-      <c r="T140" s="53"/>
-      <c r="U140" s="53"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="96"/>
+      <c r="E140" s="97"/>
+      <c r="F140" s="75"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="76"/>
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="71"/>
+      <c r="S140" s="71"/>
+      <c r="T140" s="71"/>
+      <c r="U140" s="71"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="88"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
-      <c r="L141" s="63"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="64"/>
-      <c r="O141" s="64"/>
-      <c r="P141" s="65"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="96"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="75"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="76"/>
+      <c r="N141" s="76"/>
+      <c r="O141" s="76"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="71"/>
+      <c r="T141" s="71"/>
+      <c r="U141" s="71"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="88"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="63"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="64"/>
-      <c r="O142" s="64"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="53"/>
-      <c r="R142" s="53"/>
-      <c r="S142" s="53"/>
-      <c r="T142" s="53"/>
-      <c r="U142" s="53"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="76"/>
+      <c r="O142" s="76"/>
+      <c r="P142" s="77"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="71"/>
+      <c r="S142" s="71"/>
+      <c r="T142" s="71"/>
+      <c r="U142" s="71"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="65"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="64"/>
-      <c r="O143" s="64"/>
-      <c r="P143" s="65"/>
-      <c r="Q143" s="53"/>
-      <c r="R143" s="53"/>
-      <c r="S143" s="53"/>
-      <c r="T143" s="53"/>
-      <c r="U143" s="53"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="97"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="76"/>
+      <c r="N143" s="76"/>
+      <c r="O143" s="76"/>
+      <c r="P143" s="77"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="71"/>
+      <c r="T143" s="71"/>
+      <c r="U143" s="71"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="88"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="66"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="67"/>
-      <c r="O144" s="67"/>
-      <c r="P144" s="68"/>
-      <c r="Q144" s="53"/>
-      <c r="R144" s="53"/>
-      <c r="S144" s="53"/>
-      <c r="T144" s="53"/>
-      <c r="U144" s="53"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="78"/>
+      <c r="M144" s="79"/>
+      <c r="N144" s="79"/>
+      <c r="O144" s="79"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="71"/>
+      <c r="S144" s="71"/>
+      <c r="T144" s="71"/>
+      <c r="U144" s="71"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="82" t="s">
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="53" t="s">
+      <c r="E145" s="118"/>
+      <c r="F145" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="53"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="53" t="s">
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="53"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
-      <c r="P145" s="53"/>
-      <c r="Q145" s="53" t="s">
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="53"/>
-      <c r="S145" s="53"/>
-      <c r="T145" s="53"/>
-      <c r="U145" s="53"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="71"/>
+      <c r="T145" s="71"/>
+      <c r="U145" s="71"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="81"/>
-      <c r="M146" s="81"/>
-      <c r="N146" s="81"/>
-      <c r="O146" s="81"/>
-      <c r="P146" s="81"/>
-      <c r="Q146" s="81"/>
-      <c r="R146" s="81"/>
-      <c r="S146" s="81"/>
-      <c r="T146" s="81"/>
-      <c r="U146" s="81"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="118"/>
+      <c r="E146" s="118"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="93"/>
+      <c r="M146" s="93"/>
+      <c r="N146" s="93"/>
+      <c r="O146" s="93"/>
+      <c r="P146" s="93"/>
+      <c r="Q146" s="93"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="93"/>
+      <c r="T146" s="93"/>
+      <c r="U146" s="93"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="81"/>
-      <c r="M147" s="81"/>
-      <c r="N147" s="81"/>
-      <c r="O147" s="81"/>
-      <c r="P147" s="81"/>
-      <c r="Q147" s="81"/>
-      <c r="R147" s="81"/>
-      <c r="S147" s="81"/>
-      <c r="T147" s="81"/>
-      <c r="U147" s="81"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="118"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="93"/>
+      <c r="N147" s="93"/>
+      <c r="O147" s="93"/>
+      <c r="P147" s="93"/>
+      <c r="Q147" s="93"/>
+      <c r="R147" s="93"/>
+      <c r="S147" s="93"/>
+      <c r="T147" s="93"/>
+      <c r="U147" s="93"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="81"/>
-      <c r="M148" s="81"/>
-      <c r="N148" s="81"/>
-      <c r="O148" s="81"/>
-      <c r="P148" s="81"/>
-      <c r="Q148" s="81"/>
-      <c r="R148" s="81"/>
-      <c r="S148" s="81"/>
-      <c r="T148" s="81"/>
-      <c r="U148" s="81"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="93"/>
+      <c r="M148" s="93"/>
+      <c r="N148" s="93"/>
+      <c r="O148" s="93"/>
+      <c r="P148" s="93"/>
+      <c r="Q148" s="93"/>
+      <c r="R148" s="93"/>
+      <c r="S148" s="93"/>
+      <c r="T148" s="93"/>
+      <c r="U148" s="93"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6559,34 +6583,70 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="D64:E83"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="D42:E48"/>
+    <mergeCell ref="D49:E63"/>
+    <mergeCell ref="D145:E148"/>
+    <mergeCell ref="D116:E134"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="F91:K92"/>
+    <mergeCell ref="F70:K71"/>
+    <mergeCell ref="F79:K83"/>
+    <mergeCell ref="F84:K88"/>
+    <mergeCell ref="F61:K63"/>
+    <mergeCell ref="F58:K60"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="F42:K45"/>
+    <mergeCell ref="F46:K48"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="F35:K36"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="F119:K123"/>
+    <mergeCell ref="F28:K32"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
     <mergeCell ref="Q105:U108"/>
     <mergeCell ref="L116:P123"/>
     <mergeCell ref="Q116:U123"/>
@@ -6611,70 +6671,34 @@
     <mergeCell ref="Q28:U34"/>
     <mergeCell ref="L42:P45"/>
     <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="D64:E83"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="D42:E48"/>
-    <mergeCell ref="D49:E63"/>
-    <mergeCell ref="D145:E148"/>
-    <mergeCell ref="D116:E134"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="F91:K92"/>
-    <mergeCell ref="F70:K71"/>
-    <mergeCell ref="F79:K83"/>
-    <mergeCell ref="F84:K88"/>
-    <mergeCell ref="F61:K63"/>
-    <mergeCell ref="F58:K60"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="F42:K45"/>
-    <mergeCell ref="F46:K48"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="F35:K36"/>
-    <mergeCell ref="F37:K38"/>
-    <mergeCell ref="F119:K123"/>
-    <mergeCell ref="F28:K32"/>
-    <mergeCell ref="F33:K34"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6684,11 +6708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6869,7 +6893,7 @@
     <row r="8" spans="1:15" ht="22.5">
       <c r="A8" s="2"/>
       <c r="B8" s="42">
-        <f t="shared" ref="B8:B25" si="0">ROW()-6</f>
+        <f t="shared" ref="B8:B27" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="C8" s="42"/>
@@ -6900,71 +6924,59 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2"/>
-      <c r="B9" s="42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
-        <v>285</v>
-      </c>
+      <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I9" s="43">
-        <v>20</v>
+        <v>1024</v>
       </c>
       <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="42">
-        <v>70</v>
-      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="126" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
     </row>
     <row r="10" spans="1:15" ht="22.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>263</v>
+        <v>359</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="I10" s="43"/>
+        <v>167</v>
+      </c>
+      <c r="I10" s="43">
+        <v>1024</v>
+      </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="43" t="s">
-        <v>154</v>
-      </c>
+      <c r="K10" s="43"/>
       <c r="L10" s="42"/>
       <c r="M10" s="126" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -6972,29 +6984,35 @@
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>285</v>
+      </c>
       <c r="F11" s="43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="I11" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="I11" s="43">
+        <v>20</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="42"/>
+        <v>158</v>
+      </c>
+      <c r="L11" s="42">
+        <v>70</v>
+      </c>
       <c r="M11" s="126" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="22.5">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -7003,18 +7021,28 @@
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>307</v>
+      </c>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="K12" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="L12" s="42"/>
-      <c r="M12" s="126"/>
+      <c r="M12" s="126" t="s">
+        <v>200</v>
+      </c>
       <c r="N12" s="127"/>
       <c r="O12" s="128"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="22.5">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -7023,14 +7051,24 @@
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>307</v>
+      </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="K13" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="L13" s="42"/>
-      <c r="M13" s="126"/>
+      <c r="M13" s="126" t="s">
+        <v>202</v>
+      </c>
       <c r="N13" s="127"/>
       <c r="O13" s="128"/>
     </row>
@@ -7084,11 +7122,11 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="42"/>
       <c r="M16" s="126"/>
       <c r="N16" s="127"/>
@@ -7104,11 +7142,11 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="42"/>
       <c r="M17" s="126"/>
       <c r="N17" s="127"/>
@@ -7274,29 +7312,71 @@
       <c r="N25" s="127"/>
       <c r="O25" s="128"/>
     </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="128"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="M15:O15"/>
+  <mergeCells count="23">
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7304,7 +7384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7880,6 +7960,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7892,16 +7982,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7909,7 +7989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8517,6 +8597,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8529,16 +8619,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8546,7 +8626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9280,6 +9360,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -9292,16 +9382,6 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9309,7 +9389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9885,6 +9965,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -9897,16 +9987,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9914,7 +9994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9982,12 +10062,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10002,12 +10082,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -10022,12 +10102,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -10036,10 +10116,10 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -10048,10 +10128,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -10060,10 +10140,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -10072,10 +10152,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -10084,10 +10164,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -10096,10 +10176,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -10108,10 +10188,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -10120,10 +10200,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -10132,10 +10212,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -10144,10 +10224,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -10156,10 +10236,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -10168,10 +10248,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -10180,10 +10260,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -10192,10 +10272,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -10204,10 +10284,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -10216,10 +10296,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -10228,10 +10308,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -10240,34 +10320,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10280,7 +10360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10319,222 +10399,212 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="123" t="s">
         <v>295</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="123" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="123" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="123" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="18"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
       <c r="B23" s="18"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
@@ -10545,6 +10615,16 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C23">
@@ -10578,7 +10658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11194,6 +11274,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11206,16 +11296,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11223,7 +11303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11837,6 +11917,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11849,16 +11939,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11866,10 +11946,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -12560,6 +12640,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12574,16 +12664,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12591,7 +12671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13201,6 +13281,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13213,16 +13303,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13230,7 +13310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13844,6 +13924,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13856,16 +13946,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13873,11 +13953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14106,7 +14186,7 @@
         <v>189</v>
       </c>
       <c r="I9" s="43">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
@@ -14469,6 +14549,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14481,16 +14571,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库结构一览表!#REF!</definedName>
     <definedName name="createtime">版本履历!$E$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="project">版本履历!$B$4:$B$5</definedName>
     <definedName name="title">版本履历!$B$4:$I$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1622,30 +1622,14 @@
     <t>前30游戏的排位顺序</t>
   </si>
   <si>
-    <t>WAP_URL</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOG_URL</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>站点链接</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>站点链接</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>后台日志链接</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>后台日志链接</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>首页流量</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1692,12 +1676,24 @@
   <si>
     <t>LATEST</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAP_TOKEN</t>
+  </si>
+  <si>
+    <t>LOG_TOKEN</t>
+  </si>
+  <si>
+    <t>站点链接TOKEN</t>
+  </si>
+  <si>
+    <t>后台日志链接TOKEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -2205,25 +2201,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2253,22 +2285,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,48 +2340,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2367,50 +2378,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2420,9 +2419,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2438,9 +2434,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2791,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2835,13 +2831,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -2856,22 +2852,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -2887,24 +2883,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -2917,28 +2913,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="109">
+      <c r="I5" s="55">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -2949,23 +2945,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -2976,23 +2972,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="94"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3003,23 +2999,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3032,28 +3028,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="55">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3064,23 +3060,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="88"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3091,23 +3087,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="88"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3118,23 +3114,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="89"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3145,23 +3141,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3174,28 +3170,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="55">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3206,23 +3202,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3233,23 +3229,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3260,19 +3256,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3396,3098 +3392,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="87">
+      <c r="B24" s="63">
         <v>1</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="53" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="s">
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="91"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="91"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="60" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="91"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="91"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="53" t="s">
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53" t="s">
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="88"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="60" t="s">
+      <c r="E35" s="95"/>
+      <c r="F35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="53" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53" t="s">
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="60" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="91"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="91"/>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="60" t="s">
+      <c r="E39" s="93"/>
+      <c r="F39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="53" t="s">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53" t="s">
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="91"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="92"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="88">
+      <c r="B42" s="64">
         <v>2</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="53" t="s">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="60" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="53" t="s">
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53" t="s">
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="75" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="60" t="s">
+      <c r="E49" s="95"/>
+      <c r="F49" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="53" t="s">
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="60" t="s">
+      <c r="B51" s="64"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="60" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="60" t="s">
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="60" t="s">
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="62"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="65"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="77"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="65"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="77"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="65"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="77"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="65"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="77"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="60" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="65"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="75"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="77"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="65"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="75"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="77"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="80"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="60" t="s">
+      <c r="B61" s="64"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="53" t="s">
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53" t="s">
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="69" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="60" t="s">
+      <c r="E64" s="113"/>
+      <c r="F64" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="53" t="s">
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53" t="s">
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="60" t="s">
+      <c r="B67" s="64"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="60" t="s">
+      <c r="B70" s="64"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="60" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="53"/>
-      <c r="S74" s="53"/>
-      <c r="T74" s="53"/>
-      <c r="U74" s="53"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="60" t="s">
+      <c r="B75" s="64"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="53"/>
-      <c r="U76" s="53"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="60" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="53"/>
-      <c r="T77" s="53"/>
-      <c r="U77" s="53"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="53"/>
-      <c r="T78" s="53"/>
-      <c r="U78" s="53"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="60" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="60" t="s">
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="53" t="s">
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="53"/>
-      <c r="U80" s="53"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="76"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
+      <c r="U80" s="71"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="53"/>
-      <c r="T82" s="53"/>
-      <c r="U82" s="53"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="53"/>
-      <c r="T83" s="53"/>
-      <c r="U83" s="53"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
+      <c r="U83" s="71"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="75" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="95"/>
+      <c r="F84" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="53" t="s">
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53" t="s">
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="53"/>
-      <c r="U84" s="53"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="53"/>
-      <c r="T85" s="53"/>
-      <c r="U85" s="53"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="71"/>
+      <c r="U85" s="71"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="53"/>
-      <c r="T86" s="53"/>
-      <c r="U86" s="53"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71"/>
+      <c r="U86" s="71"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
-      <c r="T87" s="53"/>
-      <c r="U87" s="53"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71"/>
+      <c r="S87" s="71"/>
+      <c r="T87" s="71"/>
+      <c r="U87" s="71"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="53"/>
-      <c r="T88" s="53"/>
-      <c r="U88" s="53"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71"/>
+      <c r="S88" s="71"/>
+      <c r="T88" s="71"/>
+      <c r="U88" s="71"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="101" t="s">
+      <c r="B89" s="64"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="102"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-      <c r="U89" s="56"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="82"/>
+      <c r="T89" s="82"/>
+      <c r="U89" s="83"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="85"/>
-      <c r="P90" s="86"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="85"/>
-      <c r="T90" s="85"/>
-      <c r="U90" s="86"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="86"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="89"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="85"/>
-      <c r="N91" s="85"/>
-      <c r="O91" s="85"/>
-      <c r="P91" s="86"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="85"/>
-      <c r="S91" s="85"/>
-      <c r="T91" s="85"/>
-      <c r="U91" s="86"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="89"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-      <c r="O92" s="85"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="85"/>
-      <c r="S92" s="85"/>
-      <c r="T92" s="85"/>
-      <c r="U92" s="86"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="87"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="89"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="85"/>
-      <c r="T93" s="85"/>
-      <c r="U93" s="86"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="88"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="89"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="58"/>
-      <c r="S94" s="58"/>
-      <c r="T94" s="58"/>
-      <c r="U94" s="59"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="86"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="84"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="86"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="87">
+      <c r="B95" s="63">
         <v>3</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="100" t="s">
+      <c r="D95" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="53" t="s">
+      <c r="E95" s="105"/>
+      <c r="F95" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53" t="s">
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53" t="s">
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
+      <c r="R95" s="71"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="71"/>
+      <c r="U95" s="71"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="71"/>
+      <c r="U96" s="71"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="71"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="71"/>
+      <c r="U97" s="71"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="53" t="s">
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="71"/>
+      <c r="U98" s="71"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="53"/>
-      <c r="T99" s="53"/>
-      <c r="U99" s="53"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
+      <c r="U99" s="71"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="71"/>
+      <c r="T100" s="71"/>
+      <c r="U100" s="71"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="53"/>
-      <c r="T101" s="53"/>
-      <c r="U101" s="53"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="71"/>
+      <c r="U101" s="71"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="53" t="s">
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="53"/>
-      <c r="T102" s="53"/>
-      <c r="U102" s="53"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="71"/>
+      <c r="T102" s="71"/>
+      <c r="U102" s="71"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="53"/>
-      <c r="O103" s="53"/>
-      <c r="P103" s="53"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="53"/>
-      <c r="T103" s="53"/>
-      <c r="U103" s="53"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="71"/>
+      <c r="T103" s="71"/>
+      <c r="U103" s="71"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="53"/>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="53"/>
-      <c r="R104" s="53"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="53"/>
-      <c r="U104" s="53"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="71"/>
+      <c r="T104" s="71"/>
+      <c r="U104" s="71"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="53" t="s">
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53" t="s">
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="53" t="s">
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="53"/>
-      <c r="S105" s="53"/>
-      <c r="T105" s="53"/>
-      <c r="U105" s="53"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="71"/>
+      <c r="T105" s="71"/>
+      <c r="U105" s="71"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="53"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="53"/>
-      <c r="T106" s="53"/>
-      <c r="U106" s="53"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+      <c r="T106" s="71"/>
+      <c r="U106" s="71"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
-      <c r="P107" s="53"/>
-      <c r="Q107" s="53"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="53"/>
-      <c r="T107" s="53"/>
-      <c r="U107" s="53"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+      <c r="T107" s="71"/>
+      <c r="U107" s="71"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="53"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="53"/>
-      <c r="T108" s="53"/>
-      <c r="U108" s="53"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="71"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="71"/>
+      <c r="S108" s="71"/>
+      <c r="T108" s="71"/>
+      <c r="U108" s="71"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="60" t="s">
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="60" t="s">
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="60" t="s">
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="61"/>
-      <c r="S109" s="61"/>
-      <c r="T109" s="61"/>
-      <c r="U109" s="62"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="74"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="63"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
-      <c r="O110" s="64"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="64"/>
-      <c r="S110" s="64"/>
-      <c r="T110" s="64"/>
-      <c r="U110" s="65"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="76"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="76"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="75"/>
+      <c r="R110" s="76"/>
+      <c r="S110" s="76"/>
+      <c r="T110" s="76"/>
+      <c r="U110" s="77"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="63"/>
-      <c r="R111" s="64"/>
-      <c r="S111" s="64"/>
-      <c r="T111" s="64"/>
-      <c r="U111" s="65"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="75"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="77"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="63"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="63"/>
-      <c r="R112" s="64"/>
-      <c r="S112" s="64"/>
-      <c r="T112" s="64"/>
-      <c r="U112" s="65"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76"/>
+      <c r="O112" s="76"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="75"/>
+      <c r="R112" s="76"/>
+      <c r="S112" s="76"/>
+      <c r="T112" s="76"/>
+      <c r="U112" s="77"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="64"/>
-      <c r="S113" s="64"/>
-      <c r="T113" s="64"/>
-      <c r="U113" s="65"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="76"/>
+      <c r="O113" s="76"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="75"/>
+      <c r="R113" s="76"/>
+      <c r="S113" s="76"/>
+      <c r="T113" s="76"/>
+      <c r="U113" s="77"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="65"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="75"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="77"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="67"/>
-      <c r="P115" s="68"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="67"/>
-      <c r="S115" s="67"/>
-      <c r="T115" s="67"/>
-      <c r="U115" s="68"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="80"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="79"/>
+      <c r="S115" s="79"/>
+      <c r="T115" s="79"/>
+      <c r="U115" s="80"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="75" t="s">
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="76"/>
-      <c r="F116" s="53" t="s">
+      <c r="E116" s="95"/>
+      <c r="F116" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="60" t="s">
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="61"/>
-      <c r="N116" s="61"/>
-      <c r="O116" s="61"/>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="60" t="s">
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="61"/>
-      <c r="S116" s="61"/>
-      <c r="T116" s="61"/>
-      <c r="U116" s="62"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="U116" s="74"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="88"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="63"/>
-      <c r="R117" s="64"/>
-      <c r="S117" s="64"/>
-      <c r="T117" s="64"/>
-      <c r="U117" s="65"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="76"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="76"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="76"/>
+      <c r="S117" s="76"/>
+      <c r="T117" s="76"/>
+      <c r="U117" s="77"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="63"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="63"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="65"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="76"/>
+      <c r="S118" s="76"/>
+      <c r="T118" s="76"/>
+      <c r="U118" s="77"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="53" t="s">
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="63"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="64"/>
-      <c r="O119" s="64"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="63"/>
-      <c r="R119" s="64"/>
-      <c r="S119" s="64"/>
-      <c r="T119" s="64"/>
-      <c r="U119" s="65"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="76"/>
+      <c r="P119" s="77"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="76"/>
+      <c r="S119" s="76"/>
+      <c r="T119" s="76"/>
+      <c r="U119" s="77"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="64"/>
-      <c r="P120" s="65"/>
-      <c r="Q120" s="63"/>
-      <c r="R120" s="64"/>
-      <c r="S120" s="64"/>
-      <c r="T120" s="64"/>
-      <c r="U120" s="65"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="76"/>
+      <c r="P120" s="77"/>
+      <c r="Q120" s="75"/>
+      <c r="R120" s="76"/>
+      <c r="S120" s="76"/>
+      <c r="T120" s="76"/>
+      <c r="U120" s="77"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="64"/>
-      <c r="O121" s="64"/>
-      <c r="P121" s="65"/>
-      <c r="Q121" s="63"/>
-      <c r="R121" s="64"/>
-      <c r="S121" s="64"/>
-      <c r="T121" s="64"/>
-      <c r="U121" s="65"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="77"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="76"/>
+      <c r="S121" s="76"/>
+      <c r="T121" s="76"/>
+      <c r="U121" s="77"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="88"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="65"/>
-      <c r="Q122" s="63"/>
-      <c r="R122" s="64"/>
-      <c r="S122" s="64"/>
-      <c r="T122" s="64"/>
-      <c r="U122" s="65"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="77"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="67"/>
-      <c r="O123" s="67"/>
-      <c r="P123" s="68"/>
-      <c r="Q123" s="66"/>
-      <c r="R123" s="67"/>
-      <c r="S123" s="67"/>
-      <c r="T123" s="67"/>
-      <c r="U123" s="68"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="79"/>
+      <c r="N123" s="79"/>
+      <c r="O123" s="79"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
+      <c r="T123" s="79"/>
+      <c r="U123" s="80"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="88"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="53" t="s">
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="60" t="s">
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="62"/>
-      <c r="Q124" s="60" t="s">
+      <c r="M124" s="73"/>
+      <c r="N124" s="73"/>
+      <c r="O124" s="73"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="61"/>
-      <c r="S124" s="61"/>
-      <c r="T124" s="61"/>
-      <c r="U124" s="62"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="U124" s="74"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="63"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="64"/>
-      <c r="O125" s="64"/>
-      <c r="P125" s="65"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="64"/>
-      <c r="S125" s="64"/>
-      <c r="T125" s="64"/>
-      <c r="U125" s="65"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="77"/>
+      <c r="Q125" s="75"/>
+      <c r="R125" s="76"/>
+      <c r="S125" s="76"/>
+      <c r="T125" s="76"/>
+      <c r="U125" s="77"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="88"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="63"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="64"/>
-      <c r="O126" s="64"/>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="63"/>
-      <c r="R126" s="64"/>
-      <c r="S126" s="64"/>
-      <c r="T126" s="64"/>
-      <c r="U126" s="65"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="76"/>
+      <c r="P126" s="77"/>
+      <c r="Q126" s="75"/>
+      <c r="R126" s="76"/>
+      <c r="S126" s="76"/>
+      <c r="T126" s="76"/>
+      <c r="U126" s="77"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="63"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="63"/>
-      <c r="R127" s="64"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
-      <c r="U127" s="65"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="76"/>
+      <c r="O127" s="76"/>
+      <c r="P127" s="77"/>
+      <c r="Q127" s="75"/>
+      <c r="R127" s="76"/>
+      <c r="S127" s="76"/>
+      <c r="T127" s="76"/>
+      <c r="U127" s="77"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="88"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="63"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="64"/>
-      <c r="O128" s="64"/>
-      <c r="P128" s="65"/>
-      <c r="Q128" s="63"/>
-      <c r="R128" s="64"/>
-      <c r="S128" s="64"/>
-      <c r="T128" s="64"/>
-      <c r="U128" s="65"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="96"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="76"/>
+      <c r="O128" s="76"/>
+      <c r="P128" s="77"/>
+      <c r="Q128" s="75"/>
+      <c r="R128" s="76"/>
+      <c r="S128" s="76"/>
+      <c r="T128" s="76"/>
+      <c r="U128" s="77"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="88"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="66"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="67"/>
-      <c r="O129" s="67"/>
-      <c r="P129" s="68"/>
-      <c r="Q129" s="66"/>
-      <c r="R129" s="67"/>
-      <c r="S129" s="67"/>
-      <c r="T129" s="67"/>
-      <c r="U129" s="68"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="78"/>
+      <c r="R129" s="79"/>
+      <c r="S129" s="79"/>
+      <c r="T129" s="79"/>
+      <c r="U129" s="80"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="88"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="53" t="s">
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="96"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="53"/>
-      <c r="H130" s="53"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="60" t="s">
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="61"/>
-      <c r="N130" s="61"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="60" t="s">
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="74"/>
+      <c r="Q130" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="61"/>
-      <c r="S130" s="61"/>
-      <c r="T130" s="61"/>
-      <c r="U130" s="62"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="U130" s="74"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="64"/>
-      <c r="O131" s="64"/>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="63"/>
-      <c r="R131" s="64"/>
-      <c r="S131" s="64"/>
-      <c r="T131" s="64"/>
-      <c r="U131" s="65"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="77"/>
+      <c r="Q131" s="75"/>
+      <c r="R131" s="76"/>
+      <c r="S131" s="76"/>
+      <c r="T131" s="76"/>
+      <c r="U131" s="77"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="64"/>
-      <c r="O132" s="64"/>
-      <c r="P132" s="65"/>
-      <c r="Q132" s="63"/>
-      <c r="R132" s="64"/>
-      <c r="S132" s="64"/>
-      <c r="T132" s="64"/>
-      <c r="U132" s="65"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="76"/>
+      <c r="O132" s="76"/>
+      <c r="P132" s="77"/>
+      <c r="Q132" s="75"/>
+      <c r="R132" s="76"/>
+      <c r="S132" s="76"/>
+      <c r="T132" s="76"/>
+      <c r="U132" s="77"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
-      <c r="O133" s="64"/>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="63"/>
-      <c r="R133" s="64"/>
-      <c r="S133" s="64"/>
-      <c r="T133" s="64"/>
-      <c r="U133" s="65"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="76"/>
+      <c r="O133" s="76"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="75"/>
+      <c r="R133" s="76"/>
+      <c r="S133" s="76"/>
+      <c r="T133" s="76"/>
+      <c r="U133" s="77"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="63"/>
-      <c r="R134" s="64"/>
-      <c r="S134" s="64"/>
-      <c r="T134" s="64"/>
-      <c r="U134" s="65"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="97"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="76"/>
+      <c r="N134" s="76"/>
+      <c r="O134" s="76"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="75"/>
+      <c r="R134" s="76"/>
+      <c r="S134" s="76"/>
+      <c r="T134" s="76"/>
+      <c r="U134" s="77"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="75" t="s">
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="76"/>
-      <c r="F135" s="60" t="s">
+      <c r="E135" s="95"/>
+      <c r="F135" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="60" t="s">
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="61"/>
-      <c r="N135" s="61"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="62"/>
-      <c r="Q135" s="60" t="s">
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="74"/>
+      <c r="Q135" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="61"/>
-      <c r="S135" s="61"/>
-      <c r="T135" s="61"/>
-      <c r="U135" s="62"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="74"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="88"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="65"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
-      <c r="O136" s="64"/>
-      <c r="P136" s="65"/>
-      <c r="Q136" s="63"/>
-      <c r="R136" s="64"/>
-      <c r="S136" s="64"/>
-      <c r="T136" s="64"/>
-      <c r="U136" s="65"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="96"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="76"/>
+      <c r="O136" s="76"/>
+      <c r="P136" s="77"/>
+      <c r="Q136" s="75"/>
+      <c r="R136" s="76"/>
+      <c r="S136" s="76"/>
+      <c r="T136" s="76"/>
+      <c r="U136" s="77"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="88"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="63"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
-      <c r="O137" s="64"/>
-      <c r="P137" s="65"/>
-      <c r="Q137" s="66"/>
-      <c r="R137" s="67"/>
-      <c r="S137" s="67"/>
-      <c r="T137" s="67"/>
-      <c r="U137" s="68"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="96"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+      <c r="J137" s="79"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="76"/>
+      <c r="N137" s="76"/>
+      <c r="O137" s="76"/>
+      <c r="P137" s="77"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="79"/>
+      <c r="S137" s="79"/>
+      <c r="T137" s="79"/>
+      <c r="U137" s="80"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="60" t="s">
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="97"/>
+      <c r="F138" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61"/>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="60" t="s">
+      <c r="G138" s="73"/>
+      <c r="H138" s="73"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="73"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="61"/>
-      <c r="N138" s="61"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="62"/>
-      <c r="Q138" s="53" t="s">
+      <c r="M138" s="73"/>
+      <c r="N138" s="73"/>
+      <c r="O138" s="73"/>
+      <c r="P138" s="74"/>
+      <c r="Q138" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="53"/>
-      <c r="S138" s="53"/>
-      <c r="T138" s="53"/>
-      <c r="U138" s="53"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="71"/>
+      <c r="T138" s="71"/>
+      <c r="U138" s="71"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="88"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="65"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="64"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="65"/>
-      <c r="Q139" s="53"/>
-      <c r="R139" s="53"/>
-      <c r="S139" s="53"/>
-      <c r="T139" s="53"/>
-      <c r="U139" s="53"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="96"/>
+      <c r="E139" s="97"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="71"/>
+      <c r="T139" s="71"/>
+      <c r="U139" s="71"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="88"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="65"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="64"/>
-      <c r="O140" s="64"/>
-      <c r="P140" s="65"/>
-      <c r="Q140" s="53"/>
-      <c r="R140" s="53"/>
-      <c r="S140" s="53"/>
-      <c r="T140" s="53"/>
-      <c r="U140" s="53"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="96"/>
+      <c r="E140" s="97"/>
+      <c r="F140" s="75"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="76"/>
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="71"/>
+      <c r="S140" s="71"/>
+      <c r="T140" s="71"/>
+      <c r="U140" s="71"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="88"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
-      <c r="L141" s="63"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="64"/>
-      <c r="O141" s="64"/>
-      <c r="P141" s="65"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="96"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="75"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="76"/>
+      <c r="N141" s="76"/>
+      <c r="O141" s="76"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="71"/>
+      <c r="T141" s="71"/>
+      <c r="U141" s="71"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="88"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="63"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="64"/>
-      <c r="O142" s="64"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="53"/>
-      <c r="R142" s="53"/>
-      <c r="S142" s="53"/>
-      <c r="T142" s="53"/>
-      <c r="U142" s="53"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="76"/>
+      <c r="O142" s="76"/>
+      <c r="P142" s="77"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="71"/>
+      <c r="S142" s="71"/>
+      <c r="T142" s="71"/>
+      <c r="U142" s="71"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="65"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="64"/>
-      <c r="O143" s="64"/>
-      <c r="P143" s="65"/>
-      <c r="Q143" s="53"/>
-      <c r="R143" s="53"/>
-      <c r="S143" s="53"/>
-      <c r="T143" s="53"/>
-      <c r="U143" s="53"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="97"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="76"/>
+      <c r="N143" s="76"/>
+      <c r="O143" s="76"/>
+      <c r="P143" s="77"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="71"/>
+      <c r="T143" s="71"/>
+      <c r="U143" s="71"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="88"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="66"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="67"/>
-      <c r="O144" s="67"/>
-      <c r="P144" s="68"/>
-      <c r="Q144" s="53"/>
-      <c r="R144" s="53"/>
-      <c r="S144" s="53"/>
-      <c r="T144" s="53"/>
-      <c r="U144" s="53"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="78"/>
+      <c r="M144" s="79"/>
+      <c r="N144" s="79"/>
+      <c r="O144" s="79"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="71"/>
+      <c r="S144" s="71"/>
+      <c r="T144" s="71"/>
+      <c r="U144" s="71"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="82" t="s">
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="53" t="s">
+      <c r="E145" s="118"/>
+      <c r="F145" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="53"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="53" t="s">
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="53"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
-      <c r="P145" s="53"/>
-      <c r="Q145" s="53" t="s">
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="53"/>
-      <c r="S145" s="53"/>
-      <c r="T145" s="53"/>
-      <c r="U145" s="53"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="71"/>
+      <c r="T145" s="71"/>
+      <c r="U145" s="71"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="81"/>
-      <c r="M146" s="81"/>
-      <c r="N146" s="81"/>
-      <c r="O146" s="81"/>
-      <c r="P146" s="81"/>
-      <c r="Q146" s="81"/>
-      <c r="R146" s="81"/>
-      <c r="S146" s="81"/>
-      <c r="T146" s="81"/>
-      <c r="U146" s="81"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="118"/>
+      <c r="E146" s="118"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="93"/>
+      <c r="M146" s="93"/>
+      <c r="N146" s="93"/>
+      <c r="O146" s="93"/>
+      <c r="P146" s="93"/>
+      <c r="Q146" s="93"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="93"/>
+      <c r="T146" s="93"/>
+      <c r="U146" s="93"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="81"/>
-      <c r="M147" s="81"/>
-      <c r="N147" s="81"/>
-      <c r="O147" s="81"/>
-      <c r="P147" s="81"/>
-      <c r="Q147" s="81"/>
-      <c r="R147" s="81"/>
-      <c r="S147" s="81"/>
-      <c r="T147" s="81"/>
-      <c r="U147" s="81"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="118"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="93"/>
+      <c r="N147" s="93"/>
+      <c r="O147" s="93"/>
+      <c r="P147" s="93"/>
+      <c r="Q147" s="93"/>
+      <c r="R147" s="93"/>
+      <c r="S147" s="93"/>
+      <c r="T147" s="93"/>
+      <c r="U147" s="93"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="81"/>
-      <c r="M148" s="81"/>
-      <c r="N148" s="81"/>
-      <c r="O148" s="81"/>
-      <c r="P148" s="81"/>
-      <c r="Q148" s="81"/>
-      <c r="R148" s="81"/>
-      <c r="S148" s="81"/>
-      <c r="T148" s="81"/>
-      <c r="U148" s="81"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="93"/>
+      <c r="M148" s="93"/>
+      <c r="N148" s="93"/>
+      <c r="O148" s="93"/>
+      <c r="P148" s="93"/>
+      <c r="Q148" s="93"/>
+      <c r="R148" s="93"/>
+      <c r="S148" s="93"/>
+      <c r="T148" s="93"/>
+      <c r="U148" s="93"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6541,34 +6537,70 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="D64:E83"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="D42:E48"/>
+    <mergeCell ref="D49:E63"/>
+    <mergeCell ref="D145:E148"/>
+    <mergeCell ref="D116:E134"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="F91:K92"/>
+    <mergeCell ref="F70:K71"/>
+    <mergeCell ref="F79:K83"/>
+    <mergeCell ref="F84:K88"/>
+    <mergeCell ref="F61:K63"/>
+    <mergeCell ref="F58:K60"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="F42:K45"/>
+    <mergeCell ref="F46:K48"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="F35:K36"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="F119:K123"/>
+    <mergeCell ref="F28:K32"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
     <mergeCell ref="Q105:U108"/>
     <mergeCell ref="L116:P123"/>
     <mergeCell ref="Q116:U123"/>
@@ -6593,70 +6625,34 @@
     <mergeCell ref="Q28:U34"/>
     <mergeCell ref="L42:P45"/>
     <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="D64:E83"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="D42:E48"/>
-    <mergeCell ref="D49:E63"/>
-    <mergeCell ref="D145:E148"/>
-    <mergeCell ref="D116:E134"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="F91:K92"/>
-    <mergeCell ref="F70:K71"/>
-    <mergeCell ref="F79:K83"/>
-    <mergeCell ref="F84:K88"/>
-    <mergeCell ref="F61:K63"/>
-    <mergeCell ref="F58:K60"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="F42:K45"/>
-    <mergeCell ref="F46:K48"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="F35:K36"/>
-    <mergeCell ref="F37:K38"/>
-    <mergeCell ref="F119:K123"/>
-    <mergeCell ref="F28:K32"/>
-    <mergeCell ref="F33:K34"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6666,11 +6662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6887,22 +6883,22 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>165</v>
       </c>
       <c r="I9" s="43">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
       <c r="L9" s="42"/>
       <c r="M9" s="126" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
@@ -6914,22 +6910,22 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>165</v>
       </c>
       <c r="I10" s="43">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
       <c r="L10" s="42"/>
       <c r="M10" s="126" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -7312,6 +7308,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7325,16 +7331,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7342,7 +7338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7918,6 +7914,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7930,16 +7936,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7947,7 +7943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8555,6 +8551,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8567,16 +8573,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8584,7 +8580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9318,6 +9314,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -9330,16 +9336,6 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9347,7 +9343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9415,12 +9411,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -9435,12 +9431,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -9455,12 +9451,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -9469,10 +9465,10 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -9481,10 +9477,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -9493,10 +9489,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -9505,10 +9501,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -9517,10 +9513,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -9529,10 +9525,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -9541,10 +9537,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -9553,10 +9549,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -9565,10 +9561,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -9577,10 +9573,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -9589,10 +9585,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -9601,10 +9597,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -9613,10 +9609,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -9625,10 +9621,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -9637,10 +9633,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -9649,10 +9645,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -9661,10 +9657,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -9673,34 +9669,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -9713,7 +9709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9752,210 +9748,200 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="123" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="18"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
@@ -9965,6 +9951,16 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C22">
@@ -9997,7 +9993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10613,6 +10609,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10625,16 +10631,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10642,10 +10638,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
@@ -10868,10 +10864,10 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>145</v>
@@ -10887,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="126" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
@@ -10902,10 +10898,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>142</v>
@@ -10921,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -10936,10 +10932,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>142</v>
@@ -10955,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="126" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
@@ -10970,10 +10966,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>142</v>
@@ -10989,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N12" s="127"/>
       <c r="O12" s="128"/>
@@ -11324,6 +11320,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11338,16 +11344,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11356,7 +11352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12050,6 +12046,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12064,16 +12070,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12081,7 +12077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12691,6 +12687,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12703,16 +12709,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12720,7 +12716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13334,6 +13330,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13346,16 +13352,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13363,7 +13359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13959,6 +13955,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13971,16 +13977,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="357">
   <si>
     <t>风险分类</t>
   </si>
@@ -1246,10 +1246,6 @@
   </si>
   <si>
     <t>REFERENCE</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -2180,25 +2176,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2228,22 +2260,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2262,48 +2315,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2342,50 +2353,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2395,9 +2394,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2810,13 +2806,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -2831,22 +2827,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -2862,24 +2858,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -2892,28 +2888,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="109">
+      <c r="I5" s="55">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -2924,23 +2920,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="109"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -2951,23 +2947,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="94"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -2978,23 +2974,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3007,28 +3003,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="55">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3039,23 +3035,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="88"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3066,23 +3062,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="88"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3093,23 +3089,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="89"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3120,23 +3116,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3149,28 +3145,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="55">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="116"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3181,23 +3177,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="116"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3208,23 +3204,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="117"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3235,19 +3231,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="119"/>
-      <c r="U17" s="119"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3371,3098 +3367,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="87">
+      <c r="B24" s="63">
         <v>1</v>
       </c>
       <c r="C24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="53" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="s">
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="91"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="91"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="60" t="s">
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="91"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="91"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="53" t="s">
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53" t="s">
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="88"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="60" t="s">
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="60" t="s">
+      <c r="E35" s="95"/>
+      <c r="F35" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="53" t="s">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53" t="s">
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="60" t="s">
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="91"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="91"/>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="60" t="s">
+      <c r="E39" s="93"/>
+      <c r="F39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="53" t="s">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53" t="s">
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="91"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="92"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
+      <c r="U41" s="71"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="88">
+      <c r="B42" s="64">
         <v>2</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="53" t="s">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="71"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="60" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="53" t="s">
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53" t="s">
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="75" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="60" t="s">
+      <c r="E49" s="95"/>
+      <c r="F49" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="53" t="s">
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53" t="s">
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="60" t="s">
+      <c r="B51" s="64"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="60" t="s">
+      <c r="B53" s="64"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="60" t="s">
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="60" t="s">
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="62"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="74"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="65"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="77"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="64"/>
-      <c r="U55" s="65"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="77"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="65"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="77"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="63"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="65"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="77"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="60" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="65"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="75"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="77"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="65"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="75"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="77"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="80"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="60" t="s">
+      <c r="B61" s="64"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="53" t="s">
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53" t="s">
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="69" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="60" t="s">
+      <c r="E64" s="113"/>
+      <c r="F64" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="53" t="s">
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53" t="s">
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="60" t="s">
+      <c r="B67" s="64"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="64"/>
-      <c r="J68" s="64"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="93"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="60" t="s">
+      <c r="B70" s="64"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="60" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="53"/>
-      <c r="S74" s="53"/>
-      <c r="T74" s="53"/>
-      <c r="U74" s="53"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="60" t="s">
+      <c r="B75" s="64"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="53"/>
-      <c r="U76" s="53"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="60" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="53"/>
-      <c r="T77" s="53"/>
-      <c r="U77" s="53"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="53"/>
-      <c r="T78" s="53"/>
-      <c r="U78" s="53"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="60" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="60" t="s">
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="53" t="s">
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="64"/>
-      <c r="N80" s="64"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="53"/>
-      <c r="U80" s="53"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="76"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
+      <c r="U80" s="71"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
-      <c r="O81" s="64"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="53"/>
-      <c r="S81" s="53"/>
-      <c r="T81" s="53"/>
-      <c r="U81" s="53"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="53"/>
-      <c r="S82" s="53"/>
-      <c r="T82" s="53"/>
-      <c r="U82" s="53"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="76"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="53"/>
-      <c r="S83" s="53"/>
-      <c r="T83" s="53"/>
-      <c r="U83" s="53"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="79"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
+      <c r="U83" s="71"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="75" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="95"/>
+      <c r="F84" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="53" t="s">
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-      <c r="Q84" s="53" t="s">
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="53"/>
-      <c r="S84" s="53"/>
-      <c r="T84" s="53"/>
-      <c r="U84" s="53"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="53"/>
-      <c r="T85" s="53"/>
-      <c r="U85" s="53"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="71"/>
+      <c r="U85" s="71"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="53"/>
-      <c r="S86" s="53"/>
-      <c r="T86" s="53"/>
-      <c r="U86" s="53"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71"/>
+      <c r="U86" s="71"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
-      <c r="T87" s="53"/>
-      <c r="U87" s="53"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71"/>
+      <c r="S87" s="71"/>
+      <c r="T87" s="71"/>
+      <c r="U87" s="71"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="79"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="53"/>
-      <c r="T88" s="53"/>
-      <c r="U88" s="53"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71"/>
+      <c r="S88" s="71"/>
+      <c r="T88" s="71"/>
+      <c r="U88" s="71"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="101" t="s">
+      <c r="B89" s="64"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="102"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="54"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-      <c r="U89" s="56"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="82"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="83"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="83"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="82"/>
+      <c r="T89" s="82"/>
+      <c r="U89" s="83"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="104"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="84"/>
-      <c r="M90" s="85"/>
-      <c r="N90" s="85"/>
-      <c r="O90" s="85"/>
-      <c r="P90" s="86"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="85"/>
-      <c r="S90" s="85"/>
-      <c r="T90" s="85"/>
-      <c r="U90" s="86"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="86"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="88"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="87"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="89"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="104"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="85"/>
-      <c r="N91" s="85"/>
-      <c r="O91" s="85"/>
-      <c r="P91" s="86"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="85"/>
-      <c r="S91" s="85"/>
-      <c r="T91" s="85"/>
-      <c r="U91" s="86"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="88"/>
+      <c r="N91" s="88"/>
+      <c r="O91" s="88"/>
+      <c r="P91" s="89"/>
+      <c r="Q91" s="87"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="T91" s="88"/>
+      <c r="U91" s="89"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="104"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-      <c r="O92" s="85"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="85"/>
-      <c r="S92" s="85"/>
-      <c r="T92" s="85"/>
-      <c r="U92" s="86"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="O92" s="88"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="87"/>
+      <c r="R92" s="88"/>
+      <c r="S92" s="88"/>
+      <c r="T92" s="88"/>
+      <c r="U92" s="89"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="85"/>
-      <c r="S93" s="85"/>
-      <c r="T93" s="85"/>
-      <c r="U93" s="86"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="83"/>
+      <c r="L93" s="87"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="87"/>
+      <c r="R93" s="88"/>
+      <c r="S93" s="88"/>
+      <c r="T93" s="88"/>
+      <c r="U93" s="89"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="58"/>
-      <c r="S94" s="58"/>
-      <c r="T94" s="58"/>
-      <c r="U94" s="59"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="86"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="84"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="86"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="87">
+      <c r="B95" s="63">
         <v>3</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="100" t="s">
+      <c r="D95" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="53" t="s">
+      <c r="E95" s="105"/>
+      <c r="F95" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53" t="s">
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53" t="s">
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
+      <c r="R95" s="71"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="71"/>
+      <c r="U95" s="71"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="71"/>
+      <c r="U96" s="71"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="53"/>
-      <c r="S97" s="53"/>
-      <c r="T97" s="53"/>
-      <c r="U97" s="53"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="71"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="71"/>
+      <c r="U97" s="71"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="53" t="s">
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="53"/>
-      <c r="S98" s="53"/>
-      <c r="T98" s="53"/>
-      <c r="U98" s="53"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="71"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="71"/>
+      <c r="U98" s="71"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="88"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
-      <c r="P99" s="53"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="53"/>
-      <c r="S99" s="53"/>
-      <c r="T99" s="53"/>
-      <c r="U99" s="53"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="71"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
+      <c r="U99" s="71"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="88"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="71"/>
+      <c r="T100" s="71"/>
+      <c r="U100" s="71"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="53"/>
-      <c r="S101" s="53"/>
-      <c r="T101" s="53"/>
-      <c r="U101" s="53"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="71"/>
+      <c r="M101" s="71"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="71"/>
+      <c r="U101" s="71"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="53" t="s">
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="53"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="53"/>
-      <c r="S102" s="53"/>
-      <c r="T102" s="53"/>
-      <c r="U102" s="53"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="71"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="71"/>
+      <c r="T102" s="71"/>
+      <c r="U102" s="71"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="53"/>
-      <c r="O103" s="53"/>
-      <c r="P103" s="53"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="53"/>
-      <c r="S103" s="53"/>
-      <c r="T103" s="53"/>
-      <c r="U103" s="53"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="71"/>
+      <c r="T103" s="71"/>
+      <c r="U103" s="71"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="88"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="53"/>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="53"/>
-      <c r="R104" s="53"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="53"/>
-      <c r="U104" s="53"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="71"/>
+      <c r="T104" s="71"/>
+      <c r="U104" s="71"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="53" t="s">
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53" t="s">
+      <c r="G105" s="71"/>
+      <c r="H105" s="71"/>
+      <c r="I105" s="71"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="53" t="s">
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="53"/>
-      <c r="S105" s="53"/>
-      <c r="T105" s="53"/>
-      <c r="U105" s="53"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="71"/>
+      <c r="T105" s="71"/>
+      <c r="U105" s="71"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="88"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="53"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="53"/>
-      <c r="T106" s="53"/>
-      <c r="U106" s="53"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+      <c r="T106" s="71"/>
+      <c r="U106" s="71"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
-      <c r="P107" s="53"/>
-      <c r="Q107" s="53"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="53"/>
-      <c r="T107" s="53"/>
-      <c r="U107" s="53"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="71"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="71"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="71"/>
+      <c r="T107" s="71"/>
+      <c r="U107" s="71"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="88"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="53"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="53"/>
-      <c r="T108" s="53"/>
-      <c r="U108" s="53"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="71"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="71"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="71"/>
+      <c r="S108" s="71"/>
+      <c r="T108" s="71"/>
+      <c r="U108" s="71"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="60" t="s">
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="62"/>
-      <c r="L109" s="60" t="s">
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="60" t="s">
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="61"/>
-      <c r="S109" s="61"/>
-      <c r="T109" s="61"/>
-      <c r="U109" s="62"/>
+      <c r="R109" s="73"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="U109" s="74"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="88"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="63"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
-      <c r="O110" s="64"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="64"/>
-      <c r="S110" s="64"/>
-      <c r="T110" s="64"/>
-      <c r="U110" s="65"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="76"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="76"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="75"/>
+      <c r="R110" s="76"/>
+      <c r="S110" s="76"/>
+      <c r="T110" s="76"/>
+      <c r="U110" s="77"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="63"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
-      <c r="O111" s="64"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="63"/>
-      <c r="R111" s="64"/>
-      <c r="S111" s="64"/>
-      <c r="T111" s="64"/>
-      <c r="U111" s="65"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="76"/>
+      <c r="N111" s="76"/>
+      <c r="O111" s="76"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="75"/>
+      <c r="R111" s="76"/>
+      <c r="S111" s="76"/>
+      <c r="T111" s="76"/>
+      <c r="U111" s="77"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="63"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="63"/>
-      <c r="R112" s="64"/>
-      <c r="S112" s="64"/>
-      <c r="T112" s="64"/>
-      <c r="U112" s="65"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76"/>
+      <c r="O112" s="76"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="75"/>
+      <c r="R112" s="76"/>
+      <c r="S112" s="76"/>
+      <c r="T112" s="76"/>
+      <c r="U112" s="77"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="64"/>
-      <c r="S113" s="64"/>
-      <c r="T113" s="64"/>
-      <c r="U113" s="65"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="75"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="76"/>
+      <c r="N113" s="76"/>
+      <c r="O113" s="76"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="75"/>
+      <c r="R113" s="76"/>
+      <c r="S113" s="76"/>
+      <c r="T113" s="76"/>
+      <c r="U113" s="77"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="88"/>
-      <c r="C114" s="88"/>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="65"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="75"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="77"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="88"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="67"/>
-      <c r="P115" s="68"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="67"/>
-      <c r="S115" s="67"/>
-      <c r="T115" s="67"/>
-      <c r="U115" s="68"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="80"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="79"/>
+      <c r="S115" s="79"/>
+      <c r="T115" s="79"/>
+      <c r="U115" s="80"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="88"/>
-      <c r="D116" s="75" t="s">
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="76"/>
-      <c r="F116" s="53" t="s">
+      <c r="E116" s="95"/>
+      <c r="F116" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="53"/>
-      <c r="H116" s="53"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="53"/>
-      <c r="L116" s="60" t="s">
+      <c r="G116" s="71"/>
+      <c r="H116" s="71"/>
+      <c r="I116" s="71"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="61"/>
-      <c r="N116" s="61"/>
-      <c r="O116" s="61"/>
-      <c r="P116" s="62"/>
-      <c r="Q116" s="60" t="s">
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="61"/>
-      <c r="S116" s="61"/>
-      <c r="T116" s="61"/>
-      <c r="U116" s="62"/>
+      <c r="R116" s="73"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="U116" s="74"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="88"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="53"/>
-      <c r="H117" s="53"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="53"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="63"/>
-      <c r="R117" s="64"/>
-      <c r="S117" s="64"/>
-      <c r="T117" s="64"/>
-      <c r="U117" s="65"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="71"/>
+      <c r="I117" s="71"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="75"/>
+      <c r="M117" s="76"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="76"/>
+      <c r="P117" s="77"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="76"/>
+      <c r="S117" s="76"/>
+      <c r="T117" s="76"/>
+      <c r="U117" s="77"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="88"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="63"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="63"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="65"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="76"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="76"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="76"/>
+      <c r="S118" s="76"/>
+      <c r="T118" s="76"/>
+      <c r="U118" s="77"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="53" t="s">
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-      <c r="L119" s="63"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="64"/>
-      <c r="O119" s="64"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="63"/>
-      <c r="R119" s="64"/>
-      <c r="S119" s="64"/>
-      <c r="T119" s="64"/>
-      <c r="U119" s="65"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="76"/>
+      <c r="P119" s="77"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="76"/>
+      <c r="S119" s="76"/>
+      <c r="T119" s="76"/>
+      <c r="U119" s="77"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="88"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="64"/>
-      <c r="P120" s="65"/>
-      <c r="Q120" s="63"/>
-      <c r="R120" s="64"/>
-      <c r="S120" s="64"/>
-      <c r="T120" s="64"/>
-      <c r="U120" s="65"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="71"/>
+      <c r="I120" s="71"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="75"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="76"/>
+      <c r="P120" s="77"/>
+      <c r="Q120" s="75"/>
+      <c r="R120" s="76"/>
+      <c r="S120" s="76"/>
+      <c r="T120" s="76"/>
+      <c r="U120" s="77"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="64"/>
-      <c r="O121" s="64"/>
-      <c r="P121" s="65"/>
-      <c r="Q121" s="63"/>
-      <c r="R121" s="64"/>
-      <c r="S121" s="64"/>
-      <c r="T121" s="64"/>
-      <c r="U121" s="65"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="71"/>
+      <c r="I121" s="71"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="77"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="76"/>
+      <c r="S121" s="76"/>
+      <c r="T121" s="76"/>
+      <c r="U121" s="77"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="88"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53"/>
-      <c r="L122" s="63"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
-      <c r="O122" s="64"/>
-      <c r="P122" s="65"/>
-      <c r="Q122" s="63"/>
-      <c r="R122" s="64"/>
-      <c r="S122" s="64"/>
-      <c r="T122" s="64"/>
-      <c r="U122" s="65"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="71"/>
+      <c r="I122" s="71"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="75"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="77"/>
+      <c r="Q122" s="75"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="77"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53"/>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="67"/>
-      <c r="O123" s="67"/>
-      <c r="P123" s="68"/>
-      <c r="Q123" s="66"/>
-      <c r="R123" s="67"/>
-      <c r="S123" s="67"/>
-      <c r="T123" s="67"/>
-      <c r="U123" s="68"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="71"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="79"/>
+      <c r="N123" s="79"/>
+      <c r="O123" s="79"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="79"/>
+      <c r="S123" s="79"/>
+      <c r="T123" s="79"/>
+      <c r="U123" s="80"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="88"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="53" t="s">
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="53"/>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="60" t="s">
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="71"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="62"/>
-      <c r="Q124" s="60" t="s">
+      <c r="M124" s="73"/>
+      <c r="N124" s="73"/>
+      <c r="O124" s="73"/>
+      <c r="P124" s="74"/>
+      <c r="Q124" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="61"/>
-      <c r="S124" s="61"/>
-      <c r="T124" s="61"/>
-      <c r="U124" s="62"/>
+      <c r="R124" s="73"/>
+      <c r="S124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="U124" s="74"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="63"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="64"/>
-      <c r="O125" s="64"/>
-      <c r="P125" s="65"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="64"/>
-      <c r="S125" s="64"/>
-      <c r="T125" s="64"/>
-      <c r="U125" s="65"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="71"/>
+      <c r="I125" s="71"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="77"/>
+      <c r="Q125" s="75"/>
+      <c r="R125" s="76"/>
+      <c r="S125" s="76"/>
+      <c r="T125" s="76"/>
+      <c r="U125" s="77"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="88"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="63"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="64"/>
-      <c r="O126" s="64"/>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="63"/>
-      <c r="R126" s="64"/>
-      <c r="S126" s="64"/>
-      <c r="T126" s="64"/>
-      <c r="U126" s="65"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="71"/>
+      <c r="I126" s="71"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="76"/>
+      <c r="P126" s="77"/>
+      <c r="Q126" s="75"/>
+      <c r="R126" s="76"/>
+      <c r="S126" s="76"/>
+      <c r="T126" s="76"/>
+      <c r="U126" s="77"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="63"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="63"/>
-      <c r="R127" s="64"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
-      <c r="U127" s="65"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="96"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="71"/>
+      <c r="I127" s="71"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="75"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="76"/>
+      <c r="O127" s="76"/>
+      <c r="P127" s="77"/>
+      <c r="Q127" s="75"/>
+      <c r="R127" s="76"/>
+      <c r="S127" s="76"/>
+      <c r="T127" s="76"/>
+      <c r="U127" s="77"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="88"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="63"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="64"/>
-      <c r="O128" s="64"/>
-      <c r="P128" s="65"/>
-      <c r="Q128" s="63"/>
-      <c r="R128" s="64"/>
-      <c r="S128" s="64"/>
-      <c r="T128" s="64"/>
-      <c r="U128" s="65"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="96"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="71"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="75"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="76"/>
+      <c r="O128" s="76"/>
+      <c r="P128" s="77"/>
+      <c r="Q128" s="75"/>
+      <c r="R128" s="76"/>
+      <c r="S128" s="76"/>
+      <c r="T128" s="76"/>
+      <c r="U128" s="77"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="88"/>
-      <c r="C129" s="88"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="66"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="67"/>
-      <c r="O129" s="67"/>
-      <c r="P129" s="68"/>
-      <c r="Q129" s="66"/>
-      <c r="R129" s="67"/>
-      <c r="S129" s="67"/>
-      <c r="T129" s="67"/>
-      <c r="U129" s="68"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="71"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="79"/>
+      <c r="N129" s="79"/>
+      <c r="O129" s="79"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="78"/>
+      <c r="R129" s="79"/>
+      <c r="S129" s="79"/>
+      <c r="T129" s="79"/>
+      <c r="U129" s="80"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="88"/>
-      <c r="C130" s="88"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="53" t="s">
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="96"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="53"/>
-      <c r="H130" s="53"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="53"/>
-      <c r="L130" s="60" t="s">
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="61"/>
-      <c r="N130" s="61"/>
-      <c r="O130" s="61"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="60" t="s">
+      <c r="M130" s="73"/>
+      <c r="N130" s="73"/>
+      <c r="O130" s="73"/>
+      <c r="P130" s="74"/>
+      <c r="Q130" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="61"/>
-      <c r="S130" s="61"/>
-      <c r="T130" s="61"/>
-      <c r="U130" s="62"/>
+      <c r="R130" s="73"/>
+      <c r="S130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="U130" s="74"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="64"/>
-      <c r="O131" s="64"/>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="63"/>
-      <c r="R131" s="64"/>
-      <c r="S131" s="64"/>
-      <c r="T131" s="64"/>
-      <c r="U131" s="65"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="76"/>
+      <c r="N131" s="76"/>
+      <c r="O131" s="76"/>
+      <c r="P131" s="77"/>
+      <c r="Q131" s="75"/>
+      <c r="R131" s="76"/>
+      <c r="S131" s="76"/>
+      <c r="T131" s="76"/>
+      <c r="U131" s="77"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="88"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="63"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="64"/>
-      <c r="O132" s="64"/>
-      <c r="P132" s="65"/>
-      <c r="Q132" s="63"/>
-      <c r="R132" s="64"/>
-      <c r="S132" s="64"/>
-      <c r="T132" s="64"/>
-      <c r="U132" s="65"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="76"/>
+      <c r="O132" s="76"/>
+      <c r="P132" s="77"/>
+      <c r="Q132" s="75"/>
+      <c r="R132" s="76"/>
+      <c r="S132" s="76"/>
+      <c r="T132" s="76"/>
+      <c r="U132" s="77"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="53"/>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53"/>
-      <c r="L133" s="63"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
-      <c r="O133" s="64"/>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="63"/>
-      <c r="R133" s="64"/>
-      <c r="S133" s="64"/>
-      <c r="T133" s="64"/>
-      <c r="U133" s="65"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="76"/>
+      <c r="O133" s="76"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="75"/>
+      <c r="R133" s="76"/>
+      <c r="S133" s="76"/>
+      <c r="T133" s="76"/>
+      <c r="U133" s="77"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="88"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53"/>
-      <c r="L134" s="63"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="63"/>
-      <c r="R134" s="64"/>
-      <c r="S134" s="64"/>
-      <c r="T134" s="64"/>
-      <c r="U134" s="65"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="97"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="76"/>
+      <c r="N134" s="76"/>
+      <c r="O134" s="76"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="75"/>
+      <c r="R134" s="76"/>
+      <c r="S134" s="76"/>
+      <c r="T134" s="76"/>
+      <c r="U134" s="77"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="75" t="s">
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="76"/>
-      <c r="F135" s="60" t="s">
+      <c r="E135" s="95"/>
+      <c r="F135" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="60" t="s">
+      <c r="G135" s="73"/>
+      <c r="H135" s="73"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="73"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="61"/>
-      <c r="N135" s="61"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="62"/>
-      <c r="Q135" s="60" t="s">
+      <c r="M135" s="73"/>
+      <c r="N135" s="73"/>
+      <c r="O135" s="73"/>
+      <c r="P135" s="74"/>
+      <c r="Q135" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="61"/>
-      <c r="S135" s="61"/>
-      <c r="T135" s="61"/>
-      <c r="U135" s="62"/>
+      <c r="R135" s="73"/>
+      <c r="S135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="U135" s="74"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="88"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="63"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="65"/>
-      <c r="L136" s="63"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
-      <c r="O136" s="64"/>
-      <c r="P136" s="65"/>
-      <c r="Q136" s="63"/>
-      <c r="R136" s="64"/>
-      <c r="S136" s="64"/>
-      <c r="T136" s="64"/>
-      <c r="U136" s="65"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="96"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="75"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="76"/>
+      <c r="J136" s="76"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="75"/>
+      <c r="M136" s="76"/>
+      <c r="N136" s="76"/>
+      <c r="O136" s="76"/>
+      <c r="P136" s="77"/>
+      <c r="Q136" s="75"/>
+      <c r="R136" s="76"/>
+      <c r="S136" s="76"/>
+      <c r="T136" s="76"/>
+      <c r="U136" s="77"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="88"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="67"/>
-      <c r="J137" s="67"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="63"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
-      <c r="O137" s="64"/>
-      <c r="P137" s="65"/>
-      <c r="Q137" s="66"/>
-      <c r="R137" s="67"/>
-      <c r="S137" s="67"/>
-      <c r="T137" s="67"/>
-      <c r="U137" s="68"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="96"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+      <c r="J137" s="79"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="76"/>
+      <c r="N137" s="76"/>
+      <c r="O137" s="76"/>
+      <c r="P137" s="77"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="79"/>
+      <c r="S137" s="79"/>
+      <c r="T137" s="79"/>
+      <c r="U137" s="80"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="60" t="s">
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="97"/>
+      <c r="F138" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61"/>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="60" t="s">
+      <c r="G138" s="73"/>
+      <c r="H138" s="73"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="73"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="61"/>
-      <c r="N138" s="61"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="62"/>
-      <c r="Q138" s="53" t="s">
+      <c r="M138" s="73"/>
+      <c r="N138" s="73"/>
+      <c r="O138" s="73"/>
+      <c r="P138" s="74"/>
+      <c r="Q138" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="53"/>
-      <c r="S138" s="53"/>
-      <c r="T138" s="53"/>
-      <c r="U138" s="53"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="71"/>
+      <c r="T138" s="71"/>
+      <c r="U138" s="71"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="88"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="65"/>
-      <c r="L139" s="63"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="64"/>
-      <c r="O139" s="64"/>
-      <c r="P139" s="65"/>
-      <c r="Q139" s="53"/>
-      <c r="R139" s="53"/>
-      <c r="S139" s="53"/>
-      <c r="T139" s="53"/>
-      <c r="U139" s="53"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="96"/>
+      <c r="E139" s="97"/>
+      <c r="F139" s="75"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="75"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="77"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="71"/>
+      <c r="T139" s="71"/>
+      <c r="U139" s="71"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="88"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="65"/>
-      <c r="L140" s="63"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="64"/>
-      <c r="O140" s="64"/>
-      <c r="P140" s="65"/>
-      <c r="Q140" s="53"/>
-      <c r="R140" s="53"/>
-      <c r="S140" s="53"/>
-      <c r="T140" s="53"/>
-      <c r="U140" s="53"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="96"/>
+      <c r="E140" s="97"/>
+      <c r="F140" s="75"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
+      <c r="I140" s="76"/>
+      <c r="J140" s="76"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="75"/>
+      <c r="M140" s="76"/>
+      <c r="N140" s="76"/>
+      <c r="O140" s="76"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="71"/>
+      <c r="S140" s="71"/>
+      <c r="T140" s="71"/>
+      <c r="U140" s="71"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="88"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="65"/>
-      <c r="L141" s="63"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="64"/>
-      <c r="O141" s="64"/>
-      <c r="P141" s="65"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="96"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="75"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="75"/>
+      <c r="M141" s="76"/>
+      <c r="N141" s="76"/>
+      <c r="O141" s="76"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="71"/>
+      <c r="T141" s="71"/>
+      <c r="U141" s="71"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="88"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="65"/>
-      <c r="L142" s="63"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="64"/>
-      <c r="O142" s="64"/>
-      <c r="P142" s="65"/>
-      <c r="Q142" s="53"/>
-      <c r="R142" s="53"/>
-      <c r="S142" s="53"/>
-      <c r="T142" s="53"/>
-      <c r="U142" s="53"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="96"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
+      <c r="I142" s="76"/>
+      <c r="J142" s="76"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="75"/>
+      <c r="M142" s="76"/>
+      <c r="N142" s="76"/>
+      <c r="O142" s="76"/>
+      <c r="P142" s="77"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="71"/>
+      <c r="S142" s="71"/>
+      <c r="T142" s="71"/>
+      <c r="U142" s="71"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="65"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="64"/>
-      <c r="O143" s="64"/>
-      <c r="P143" s="65"/>
-      <c r="Q143" s="53"/>
-      <c r="R143" s="53"/>
-      <c r="S143" s="53"/>
-      <c r="T143" s="53"/>
-      <c r="U143" s="53"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="96"/>
+      <c r="E143" s="97"/>
+      <c r="F143" s="75"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="75"/>
+      <c r="M143" s="76"/>
+      <c r="N143" s="76"/>
+      <c r="O143" s="76"/>
+      <c r="P143" s="77"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="71"/>
+      <c r="T143" s="71"/>
+      <c r="U143" s="71"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="88"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
-      <c r="I144" s="67"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="66"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="67"/>
-      <c r="O144" s="67"/>
-      <c r="P144" s="68"/>
-      <c r="Q144" s="53"/>
-      <c r="R144" s="53"/>
-      <c r="S144" s="53"/>
-      <c r="T144" s="53"/>
-      <c r="U144" s="53"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="78"/>
+      <c r="M144" s="79"/>
+      <c r="N144" s="79"/>
+      <c r="O144" s="79"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="71"/>
+      <c r="S144" s="71"/>
+      <c r="T144" s="71"/>
+      <c r="U144" s="71"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="82" t="s">
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="53" t="s">
+      <c r="E145" s="118"/>
+      <c r="F145" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="53"/>
-      <c r="H145" s="53"/>
-      <c r="I145" s="53"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="53"/>
-      <c r="L145" s="53" t="s">
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="53"/>
-      <c r="N145" s="53"/>
-      <c r="O145" s="53"/>
-      <c r="P145" s="53"/>
-      <c r="Q145" s="53" t="s">
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="53"/>
-      <c r="S145" s="53"/>
-      <c r="T145" s="53"/>
-      <c r="U145" s="53"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="71"/>
+      <c r="T145" s="71"/>
+      <c r="U145" s="71"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="82"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="53"/>
-      <c r="L146" s="81"/>
-      <c r="M146" s="81"/>
-      <c r="N146" s="81"/>
-      <c r="O146" s="81"/>
-      <c r="P146" s="81"/>
-      <c r="Q146" s="81"/>
-      <c r="R146" s="81"/>
-      <c r="S146" s="81"/>
-      <c r="T146" s="81"/>
-      <c r="U146" s="81"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="118"/>
+      <c r="E146" s="118"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="93"/>
+      <c r="M146" s="93"/>
+      <c r="N146" s="93"/>
+      <c r="O146" s="93"/>
+      <c r="P146" s="93"/>
+      <c r="Q146" s="93"/>
+      <c r="R146" s="93"/>
+      <c r="S146" s="93"/>
+      <c r="T146" s="93"/>
+      <c r="U146" s="93"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="82"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="81"/>
-      <c r="M147" s="81"/>
-      <c r="N147" s="81"/>
-      <c r="O147" s="81"/>
-      <c r="P147" s="81"/>
-      <c r="Q147" s="81"/>
-      <c r="R147" s="81"/>
-      <c r="S147" s="81"/>
-      <c r="T147" s="81"/>
-      <c r="U147" s="81"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="118"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="93"/>
+      <c r="N147" s="93"/>
+      <c r="O147" s="93"/>
+      <c r="P147" s="93"/>
+      <c r="Q147" s="93"/>
+      <c r="R147" s="93"/>
+      <c r="S147" s="93"/>
+      <c r="T147" s="93"/>
+      <c r="U147" s="93"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="89"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="53"/>
-      <c r="L148" s="81"/>
-      <c r="M148" s="81"/>
-      <c r="N148" s="81"/>
-      <c r="O148" s="81"/>
-      <c r="P148" s="81"/>
-      <c r="Q148" s="81"/>
-      <c r="R148" s="81"/>
-      <c r="S148" s="81"/>
-      <c r="T148" s="81"/>
-      <c r="U148" s="81"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="93"/>
+      <c r="M148" s="93"/>
+      <c r="N148" s="93"/>
+      <c r="O148" s="93"/>
+      <c r="P148" s="93"/>
+      <c r="Q148" s="93"/>
+      <c r="R148" s="93"/>
+      <c r="S148" s="93"/>
+      <c r="T148" s="93"/>
+      <c r="U148" s="93"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6516,34 +6512,70 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="D64:E83"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="D42:E48"/>
+    <mergeCell ref="D49:E63"/>
+    <mergeCell ref="D145:E148"/>
+    <mergeCell ref="D116:E134"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="F91:K92"/>
+    <mergeCell ref="F70:K71"/>
+    <mergeCell ref="F79:K83"/>
+    <mergeCell ref="F84:K88"/>
+    <mergeCell ref="F61:K63"/>
+    <mergeCell ref="F58:K60"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="F42:K45"/>
+    <mergeCell ref="F46:K48"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="F35:K36"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="F119:K123"/>
+    <mergeCell ref="F28:K32"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
     <mergeCell ref="Q105:U108"/>
     <mergeCell ref="L116:P123"/>
     <mergeCell ref="Q116:U123"/>
@@ -6568,70 +6600,34 @@
     <mergeCell ref="Q28:U34"/>
     <mergeCell ref="L42:P45"/>
     <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="D64:E83"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="D42:E48"/>
-    <mergeCell ref="D49:E63"/>
-    <mergeCell ref="D145:E148"/>
-    <mergeCell ref="D116:E134"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="F91:K92"/>
-    <mergeCell ref="F70:K71"/>
-    <mergeCell ref="F79:K83"/>
-    <mergeCell ref="F84:K88"/>
-    <mergeCell ref="F61:K63"/>
-    <mergeCell ref="F58:K60"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="F42:K45"/>
-    <mergeCell ref="F46:K48"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="F35:K36"/>
-    <mergeCell ref="F37:K38"/>
-    <mergeCell ref="F119:K123"/>
-    <mergeCell ref="F28:K32"/>
-    <mergeCell ref="F33:K34"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6644,8 +6640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6698,7 +6694,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6719,7 +6715,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6760,7 +6756,7 @@
         <v>131</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>132</v>
@@ -6794,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>263</v>
@@ -6830,13 +6826,13 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>356</v>
-      </c>
       <c r="H8" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -6847,7 +6843,7 @@
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N8" s="127"/>
       <c r="O8" s="128"/>
@@ -6859,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -6870,7 +6866,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I9" s="43">
         <v>200</v>
@@ -6896,10 +6892,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>183</v>
@@ -6911,7 +6907,7 @@
       <c r="K10" s="43"/>
       <c r="L10" s="42"/>
       <c r="M10" s="126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -6926,10 +6922,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>165</v>
@@ -6941,7 +6937,7 @@
       <c r="K11" s="43"/>
       <c r="L11" s="42"/>
       <c r="M11" s="126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
@@ -6956,10 +6952,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>165</v>
@@ -6971,7 +6967,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="42"/>
       <c r="M12" s="126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N12" s="127"/>
       <c r="O12" s="128"/>
@@ -6984,17 +6980,15 @@
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
-        <v>264</v>
-      </c>
+      <c r="E13" s="42"/>
       <c r="F13" s="43" t="s">
         <v>195</v>
       </c>
       <c r="G13" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>350</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>351</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -7005,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N13" s="127"/>
       <c r="O13" s="128"/>
@@ -7026,7 +7020,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
@@ -7056,7 +7050,7 @@
         <v>173</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
@@ -7352,6 +7346,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7367,16 +7371,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7441,7 +7435,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7462,7 +7456,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7614,7 +7608,7 @@
         <v>206</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" s="43">
         <v>128</v>
@@ -7646,7 +7640,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -7673,10 +7667,10 @@
         <v>210</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -7992,6 +7986,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8004,16 +8008,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8024,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -8078,7 +8072,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8099,7 +8093,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8187,7 +8181,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" s="43">
         <v>40</v>
@@ -8217,13 +8211,13 @@
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -8249,13 +8243,13 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" s="43">
         <v>40</v>
@@ -8277,10 +8271,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>165</v>
@@ -8305,13 +8299,13 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G11" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>289</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>290</v>
       </c>
       <c r="I11" s="43">
         <v>4</v>
@@ -8320,7 +8314,7 @@
       <c r="K11" s="43"/>
       <c r="L11" s="42"/>
       <c r="M11" s="126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
@@ -8335,13 +8329,13 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G12" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="I12" s="43">
         <v>40</v>
@@ -8363,13 +8357,13 @@
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I13" s="43">
         <v>14</v>
@@ -8391,13 +8385,13 @@
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I14" s="43">
         <v>512</v>
@@ -8419,13 +8413,13 @@
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I15" s="43">
         <v>512</v>
@@ -8447,13 +8441,13 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I16" s="43">
         <v>14</v>
@@ -8475,13 +8469,13 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" s="43">
         <v>8</v>
@@ -8490,7 +8484,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N17" s="127"/>
       <c r="O17" s="128"/>
@@ -8505,13 +8499,13 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
       <c r="F18" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I18" s="43">
         <v>200</v>
@@ -8533,13 +8527,13 @@
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" s="43">
         <v>200</v>
@@ -8561,13 +8555,13 @@
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="43">
         <v>200</v>
@@ -8589,10 +8583,10 @@
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H21" s="43"/>
       <c r="I21" s="43">
@@ -8615,13 +8609,13 @@
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22" s="43">
         <v>200</v>
@@ -8649,7 +8643,7 @@
         <v>208</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
@@ -8679,7 +8673,7 @@
         <v>211</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
@@ -8755,6 +8749,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8767,16 +8771,6 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8852,12 +8846,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -8872,12 +8866,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -8892,12 +8886,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
+      <c r="F9" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -8906,10 +8900,10 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -8918,10 +8912,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -8930,10 +8924,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -8942,10 +8936,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -8954,10 +8948,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -8966,10 +8960,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -8978,10 +8972,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -8990,10 +8984,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -9002,10 +8996,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -9014,10 +9008,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -9026,10 +9020,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -9038,10 +9032,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -9050,10 +9044,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -9062,10 +9056,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -9074,10 +9068,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -9086,10 +9080,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -9098,10 +9092,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -9110,34 +9104,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -9189,198 +9183,188 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
+      <c r="C7" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -9389,6 +9373,16 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C21">
@@ -9477,7 +9471,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9498,7 +9492,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9720,7 +9714,7 @@
         <v>257</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -9728,7 +9722,7 @@
         <v>136</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M11" s="126"/>
       <c r="N11" s="127"/>
@@ -10036,6 +10030,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10048,16 +10052,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10122,7 +10116,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10143,7 +10137,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10291,10 +10285,10 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>145</v>
@@ -10310,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
@@ -10325,10 +10319,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>142</v>
@@ -10344,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -10359,10 +10353,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>142</v>
@@ -10378,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="126" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="128"/>
@@ -10393,10 +10387,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>142</v>
@@ -10412,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N12" s="127"/>
       <c r="O12" s="128"/>
@@ -10433,7 +10427,7 @@
         <v>257</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -10747,6 +10741,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10761,16 +10765,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10794,7 +10788,7 @@
     <row r="1" spans="1:15" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -10830,13 +10824,13 @@
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10851,13 +10845,13 @@
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -11039,13 +11033,13 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="H10" s="43" t="s">
         <v>323</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>324</v>
       </c>
       <c r="I10" s="43">
         <v>20</v>
@@ -11058,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -11147,7 +11141,7 @@
         <v>257</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -11169,13 +11163,13 @@
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
@@ -11186,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="126" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N14" s="127"/>
       <c r="O14" s="128"/>
@@ -11473,6 +11467,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11487,16 +11491,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11561,7 +11555,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11582,7 +11576,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -11702,7 +11696,7 @@
         <v>164</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I8" s="43">
         <v>512</v>
@@ -11768,7 +11762,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -11798,7 +11792,7 @@
         <v>173</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -12114,6 +12108,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12126,16 +12130,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12200,7 +12194,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -12221,7 +12215,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -12377,7 +12371,7 @@
         <v>161</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I9" s="43">
         <v>40</v>
@@ -12443,7 +12437,7 @@
         <v>208</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -12757,6 +12751,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12769,16 +12773,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12843,7 +12837,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -12864,7 +12858,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -12952,7 +12946,7 @@
         <v>161</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I7" s="43">
         <v>40</v>
@@ -13010,7 +13004,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="43" t="s">
         <v>185</v>
@@ -13025,7 +13019,7 @@
       <c r="K9" s="43"/>
       <c r="L9" s="42"/>
       <c r="M9" s="126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N9" s="127"/>
       <c r="O9" s="128"/>
@@ -13046,7 +13040,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -13382,6 +13376,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13394,16 +13398,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="383">
   <si>
     <t>风险分类</t>
   </si>
@@ -2290,61 +2290,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2374,43 +2338,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,6 +2372,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2467,47 +2452,62 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2536,23 +2536,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3009,13 +2993,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -3030,22 +3014,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -3061,24 +3045,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3091,28 +3075,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="110">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3123,23 +3107,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3150,23 +3134,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="63"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3177,23 +3161,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3206,28 +3190,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="110">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3238,23 +3222,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3265,23 +3249,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3292,23 +3276,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3319,23 +3303,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="116" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3348,28 +3332,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="110">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3380,23 +3364,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3407,23 +3391,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="69"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3434,19 +3418,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3570,3098 +3554,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60" t="s">
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60" t="s">
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="64">
+      <c r="B24" s="88">
         <v>1</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="72" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72" t="s">
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="92"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="92"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="73" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="92"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="92"/>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="73" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="72" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72" t="s">
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="65"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="65"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="73" t="s">
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="92"/>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="77"/>
+      <c r="F35" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="72" t="s">
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72" t="s">
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="65"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="65"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="73" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="73" t="s">
+      <c r="E39" s="82"/>
+      <c r="F39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="72" t="s">
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72" t="s">
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="65"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="92"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="65"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="65">
+      <c r="B42" s="89">
         <v>2</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="72" t="s">
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72" t="s">
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="73" t="s">
+      <c r="B46" s="89"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="72" t="s">
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72" t="s">
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="95" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="73" t="s">
+      <c r="E49" s="77"/>
+      <c r="F49" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="72" t="s">
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72" t="s">
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="73" t="s">
+      <c r="B51" s="89"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="73" t="s">
+      <c r="B53" s="89"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="73" t="s">
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="73" t="s">
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="75"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="63"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="78"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="66"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="78"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="66"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="78"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="66"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="77"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="78"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="66"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="73" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="78"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="66"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="77"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="78"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="66"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="81"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="73" t="s">
+      <c r="B61" s="89"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="72" t="s">
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72" t="s">
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="113" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="73" t="s">
+      <c r="E64" s="71"/>
+      <c r="F64" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="72" t="s">
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72" t="s">
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="72"/>
-      <c r="Q66" s="72"/>
-      <c r="R66" s="72"/>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="72"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="73" t="s">
+      <c r="B67" s="89"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="72"/>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="73" t="s">
+      <c r="B70" s="89"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="73" t="s">
+      <c r="B72" s="89"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72"/>
-      <c r="P72" s="72"/>
-      <c r="Q72" s="72"/>
-      <c r="R72" s="72"/>
-      <c r="S72" s="72"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="73" t="s">
+      <c r="B75" s="89"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="72"/>
-      <c r="P76" s="72"/>
-      <c r="Q76" s="72"/>
-      <c r="R76" s="72"/>
-      <c r="S76" s="72"/>
-      <c r="T76" s="72"/>
-      <c r="U76" s="72"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="73" t="s">
+      <c r="B77" s="89"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="72"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="73" t="s">
+      <c r="B79" s="89"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="73" t="s">
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="72" t="s">
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="72"/>
-      <c r="S79" s="72"/>
-      <c r="T79" s="72"/>
-      <c r="U79" s="72"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="54"/>
+      <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="72"/>
-      <c r="R80" s="72"/>
-      <c r="S80" s="72"/>
-      <c r="T80" s="72"/>
-      <c r="U80" s="72"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="54"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="72"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="54"/>
+      <c r="T81" s="54"/>
+      <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="54"/>
+      <c r="S82" s="54"/>
+      <c r="T82" s="54"/>
+      <c r="U82" s="54"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="54"/>
+      <c r="S83" s="54"/>
+      <c r="T83" s="54"/>
+      <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="95" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="73" t="s">
+      <c r="E84" s="77"/>
+      <c r="F84" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="72" t="s">
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="72"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="72"/>
-      <c r="P84" s="72"/>
-      <c r="Q84" s="72" t="s">
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="54"/>
+      <c r="Q84" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
+      <c r="R84" s="54"/>
+      <c r="S84" s="54"/>
+      <c r="T84" s="54"/>
+      <c r="U84" s="54"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54"/>
+      <c r="S85" s="54"/>
+      <c r="T85" s="54"/>
+      <c r="U85" s="54"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="72"/>
-      <c r="R86" s="72"/>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="54"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="54"/>
+      <c r="U86" s="54"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="107" t="s">
+      <c r="B89" s="89"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
-      <c r="U89" s="84"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="57"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="57"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="89"/>
-      <c r="P90" s="90"/>
-      <c r="Q90" s="88"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="90"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="86"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="86"/>
+      <c r="S90" s="86"/>
+      <c r="T90" s="86"/>
+      <c r="U90" s="87"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="88"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="89"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="90"/>
-      <c r="Q91" s="88"/>
-      <c r="R91" s="89"/>
-      <c r="S91" s="89"/>
-      <c r="T91" s="89"/>
-      <c r="U91" s="90"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="86"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="86"/>
+      <c r="U91" s="87"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="87"/>
-      <c r="L92" s="88"/>
-      <c r="M92" s="89"/>
-      <c r="N92" s="89"/>
-      <c r="O92" s="89"/>
-      <c r="P92" s="90"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="89"/>
-      <c r="S92" s="89"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="90"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="85"/>
+      <c r="R92" s="86"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
+      <c r="U92" s="87"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="110"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="90"/>
-      <c r="Q93" s="88"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="90"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="86"/>
+      <c r="N93" s="86"/>
+      <c r="O93" s="86"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="86"/>
+      <c r="S93" s="86"/>
+      <c r="T93" s="86"/>
+      <c r="U93" s="87"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86"/>
-      <c r="J94" s="86"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="86"/>
-      <c r="O94" s="86"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="85"/>
-      <c r="R94" s="86"/>
-      <c r="S94" s="86"/>
-      <c r="T94" s="86"/>
-      <c r="U94" s="87"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="60"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="64">
+      <c r="B95" s="88">
         <v>3</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="106" t="s">
+      <c r="D95" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="72" t="s">
+      <c r="E95" s="101"/>
+      <c r="F95" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72" t="s">
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
-      <c r="Q95" s="72" t="s">
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="72"/>
+      <c r="R95" s="54"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="72"/>
-      <c r="N96" s="72"/>
-      <c r="O96" s="72"/>
-      <c r="P96" s="72"/>
-      <c r="Q96" s="72"/>
-      <c r="R96" s="72"/>
-      <c r="S96" s="72"/>
-      <c r="T96" s="72"/>
-      <c r="U96" s="72"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="54"/>
+      <c r="R96" s="54"/>
+      <c r="S96" s="54"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="54"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="72"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
-      <c r="N97" s="72"/>
-      <c r="O97" s="72"/>
-      <c r="P97" s="72"/>
-      <c r="Q97" s="72"/>
-      <c r="R97" s="72"/>
-      <c r="S97" s="72"/>
-      <c r="T97" s="72"/>
-      <c r="U97" s="72"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="54"/>
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="72" t="s">
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
-      <c r="N98" s="72"/>
-      <c r="O98" s="72"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="72"/>
-      <c r="R98" s="72"/>
-      <c r="S98" s="72"/>
-      <c r="T98" s="72"/>
-      <c r="U98" s="72"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="54"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="54"/>
+      <c r="Q98" s="54"/>
+      <c r="R98" s="54"/>
+      <c r="S98" s="54"/>
+      <c r="T98" s="54"/>
+      <c r="U98" s="54"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="72"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
+      <c r="U99" s="54"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="54"/>
+      <c r="O100" s="54"/>
+      <c r="P100" s="54"/>
+      <c r="Q100" s="54"/>
+      <c r="R100" s="54"/>
+      <c r="S100" s="54"/>
+      <c r="T100" s="54"/>
+      <c r="U100" s="54"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="54"/>
+      <c r="R101" s="54"/>
+      <c r="S101" s="54"/>
+      <c r="T101" s="54"/>
+      <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="72" t="s">
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="54"/>
+      <c r="R102" s="54"/>
+      <c r="S102" s="54"/>
+      <c r="T102" s="54"/>
+      <c r="U102" s="54"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="O103" s="72"/>
-      <c r="P103" s="72"/>
-      <c r="Q103" s="72"/>
-      <c r="R103" s="72"/>
-      <c r="S103" s="72"/>
-      <c r="T103" s="72"/>
-      <c r="U103" s="72"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="72"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="72"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="72"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="54"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="54"/>
+      <c r="Q104" s="54"/>
+      <c r="R104" s="54"/>
+      <c r="S104" s="54"/>
+      <c r="T104" s="54"/>
+      <c r="U104" s="54"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="72" t="s">
+      <c r="B105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72" t="s">
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="72"/>
-      <c r="N105" s="72"/>
-      <c r="O105" s="72"/>
-      <c r="P105" s="72"/>
-      <c r="Q105" s="72" t="s">
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="72"/>
-      <c r="S105" s="72"/>
-      <c r="T105" s="72"/>
-      <c r="U105" s="72"/>
+      <c r="R105" s="54"/>
+      <c r="S105" s="54"/>
+      <c r="T105" s="54"/>
+      <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-      <c r="N106" s="72"/>
-      <c r="O106" s="72"/>
-      <c r="P106" s="72"/>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="72"/>
-      <c r="T106" s="72"/>
-      <c r="U106" s="72"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
+      <c r="P106" s="54"/>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="54"/>
+      <c r="T106" s="54"/>
+      <c r="U106" s="54"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="72"/>
-      <c r="R107" s="72"/>
-      <c r="S107" s="72"/>
-      <c r="T107" s="72"/>
-      <c r="U107" s="72"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
+      <c r="P107" s="54"/>
+      <c r="Q107" s="54"/>
+      <c r="R107" s="54"/>
+      <c r="S107" s="54"/>
+      <c r="T107" s="54"/>
+      <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="72"/>
-      <c r="N108" s="72"/>
-      <c r="O108" s="72"/>
-      <c r="P108" s="72"/>
-      <c r="Q108" s="72"/>
-      <c r="R108" s="72"/>
-      <c r="S108" s="72"/>
-      <c r="T108" s="72"/>
-      <c r="U108" s="72"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="54"/>
+      <c r="P108" s="54"/>
+      <c r="Q108" s="54"/>
+      <c r="R108" s="54"/>
+      <c r="S108" s="54"/>
+      <c r="T108" s="54"/>
+      <c r="U108" s="54"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="73" t="s">
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="73" t="s">
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="73" t="s">
+      <c r="M109" s="62"/>
+      <c r="N109" s="62"/>
+      <c r="O109" s="62"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="75"/>
+      <c r="R109" s="62"/>
+      <c r="S109" s="62"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="63"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="78"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="78"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="77"/>
-      <c r="S110" s="77"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="78"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="65"/>
+      <c r="N110" s="65"/>
+      <c r="O110" s="65"/>
+      <c r="P110" s="66"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="65"/>
+      <c r="S110" s="65"/>
+      <c r="T110" s="65"/>
+      <c r="U110" s="66"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="78"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="64"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="65"/>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="66"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="77"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="77"/>
-      <c r="S112" s="77"/>
-      <c r="T112" s="77"/>
-      <c r="U112" s="78"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="65"/>
+      <c r="N112" s="65"/>
+      <c r="O112" s="65"/>
+      <c r="P112" s="66"/>
+      <c r="Q112" s="64"/>
+      <c r="R112" s="65"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="66"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="106"/>
-      <c r="E113" s="106"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="78"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="78"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="77"/>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="78"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="66"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="106"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="78"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="77"/>
-      <c r="T114" s="77"/>
-      <c r="U114" s="78"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="101"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="65"/>
+      <c r="N114" s="65"/>
+      <c r="O114" s="65"/>
+      <c r="P114" s="66"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="65"/>
+      <c r="S114" s="65"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="66"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="80"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="80"/>
-      <c r="N115" s="80"/>
-      <c r="O115" s="80"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="80"/>
-      <c r="S115" s="80"/>
-      <c r="T115" s="80"/>
-      <c r="U115" s="81"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="69"/>
+      <c r="Q115" s="67"/>
+      <c r="R115" s="68"/>
+      <c r="S115" s="68"/>
+      <c r="T115" s="68"/>
+      <c r="U115" s="69"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="95" t="s">
+      <c r="B116" s="89"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="72" t="s">
+      <c r="E116" s="77"/>
+      <c r="F116" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73" t="s">
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="74"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="73" t="s">
+      <c r="M116" s="62"/>
+      <c r="N116" s="62"/>
+      <c r="O116" s="62"/>
+      <c r="P116" s="63"/>
+      <c r="Q116" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="74"/>
-      <c r="S116" s="74"/>
-      <c r="T116" s="74"/>
-      <c r="U116" s="75"/>
+      <c r="R116" s="62"/>
+      <c r="S116" s="62"/>
+      <c r="T116" s="62"/>
+      <c r="U116" s="63"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="78"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="77"/>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="78"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="65"/>
+      <c r="N117" s="65"/>
+      <c r="O117" s="65"/>
+      <c r="P117" s="66"/>
+      <c r="Q117" s="64"/>
+      <c r="R117" s="65"/>
+      <c r="S117" s="65"/>
+      <c r="T117" s="65"/>
+      <c r="U117" s="66"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="78"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="77"/>
-      <c r="S118" s="77"/>
-      <c r="T118" s="77"/>
-      <c r="U118" s="78"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="64"/>
+      <c r="M118" s="65"/>
+      <c r="N118" s="65"/>
+      <c r="O118" s="65"/>
+      <c r="P118" s="66"/>
+      <c r="Q118" s="64"/>
+      <c r="R118" s="65"/>
+      <c r="S118" s="65"/>
+      <c r="T118" s="65"/>
+      <c r="U118" s="66"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="72" t="s">
+      <c r="B119" s="89"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="78"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="78"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="64"/>
+      <c r="M119" s="65"/>
+      <c r="N119" s="65"/>
+      <c r="O119" s="65"/>
+      <c r="P119" s="66"/>
+      <c r="Q119" s="64"/>
+      <c r="R119" s="65"/>
+      <c r="S119" s="65"/>
+      <c r="T119" s="65"/>
+      <c r="U119" s="66"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="76"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="77"/>
-      <c r="P120" s="78"/>
-      <c r="Q120" s="76"/>
-      <c r="R120" s="77"/>
-      <c r="S120" s="77"/>
-      <c r="T120" s="77"/>
-      <c r="U120" s="78"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="64"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="65"/>
+      <c r="P120" s="66"/>
+      <c r="Q120" s="64"/>
+      <c r="R120" s="65"/>
+      <c r="S120" s="65"/>
+      <c r="T120" s="65"/>
+      <c r="U120" s="66"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="72"/>
-      <c r="K121" s="72"/>
-      <c r="L121" s="76"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="76"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="78"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="65"/>
+      <c r="N121" s="65"/>
+      <c r="O121" s="65"/>
+      <c r="P121" s="66"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="65"/>
+      <c r="S121" s="65"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="66"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="78"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="78"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="65"/>
+      <c r="N122" s="65"/>
+      <c r="O122" s="65"/>
+      <c r="P122" s="66"/>
+      <c r="Q122" s="64"/>
+      <c r="R122" s="65"/>
+      <c r="S122" s="65"/>
+      <c r="T122" s="65"/>
+      <c r="U122" s="66"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81"/>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="81"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="68"/>
+      <c r="N123" s="68"/>
+      <c r="O123" s="68"/>
+      <c r="P123" s="69"/>
+      <c r="Q123" s="67"/>
+      <c r="R123" s="68"/>
+      <c r="S123" s="68"/>
+      <c r="T123" s="68"/>
+      <c r="U123" s="69"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="72" t="s">
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="73" t="s">
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="75"/>
-      <c r="Q124" s="73" t="s">
+      <c r="M124" s="62"/>
+      <c r="N124" s="62"/>
+      <c r="O124" s="62"/>
+      <c r="P124" s="63"/>
+      <c r="Q124" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="74"/>
-      <c r="S124" s="74"/>
-      <c r="T124" s="74"/>
-      <c r="U124" s="75"/>
+      <c r="R124" s="62"/>
+      <c r="S124" s="62"/>
+      <c r="T124" s="62"/>
+      <c r="U124" s="63"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="98"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="76"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="76"/>
-      <c r="R125" s="77"/>
-      <c r="S125" s="77"/>
-      <c r="T125" s="77"/>
-      <c r="U125" s="78"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="64"/>
+      <c r="M125" s="65"/>
+      <c r="N125" s="65"/>
+      <c r="O125" s="65"/>
+      <c r="P125" s="66"/>
+      <c r="Q125" s="64"/>
+      <c r="R125" s="65"/>
+      <c r="S125" s="65"/>
+      <c r="T125" s="65"/>
+      <c r="U125" s="66"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="98"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="76"/>
-      <c r="M126" s="77"/>
-      <c r="N126" s="77"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="78"/>
-      <c r="Q126" s="76"/>
-      <c r="R126" s="77"/>
-      <c r="S126" s="77"/>
-      <c r="T126" s="77"/>
-      <c r="U126" s="78"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="64"/>
+      <c r="M126" s="65"/>
+      <c r="N126" s="65"/>
+      <c r="O126" s="65"/>
+      <c r="P126" s="66"/>
+      <c r="Q126" s="64"/>
+      <c r="R126" s="65"/>
+      <c r="S126" s="65"/>
+      <c r="T126" s="65"/>
+      <c r="U126" s="66"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="76"/>
-      <c r="M127" s="77"/>
-      <c r="N127" s="77"/>
-      <c r="O127" s="77"/>
-      <c r="P127" s="78"/>
-      <c r="Q127" s="76"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="77"/>
-      <c r="T127" s="77"/>
-      <c r="U127" s="78"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="64"/>
+      <c r="M127" s="65"/>
+      <c r="N127" s="65"/>
+      <c r="O127" s="65"/>
+      <c r="P127" s="66"/>
+      <c r="Q127" s="64"/>
+      <c r="R127" s="65"/>
+      <c r="S127" s="65"/>
+      <c r="T127" s="65"/>
+      <c r="U127" s="66"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="76"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="78"/>
-      <c r="Q128" s="76"/>
-      <c r="R128" s="77"/>
-      <c r="S128" s="77"/>
-      <c r="T128" s="77"/>
-      <c r="U128" s="78"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="64"/>
+      <c r="M128" s="65"/>
+      <c r="N128" s="65"/>
+      <c r="O128" s="65"/>
+      <c r="P128" s="66"/>
+      <c r="Q128" s="64"/>
+      <c r="R128" s="65"/>
+      <c r="S128" s="65"/>
+      <c r="T128" s="65"/>
+      <c r="U128" s="66"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="98"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="81"/>
-      <c r="Q129" s="79"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="81"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="68"/>
+      <c r="O129" s="68"/>
+      <c r="P129" s="69"/>
+      <c r="Q129" s="67"/>
+      <c r="R129" s="68"/>
+      <c r="S129" s="68"/>
+      <c r="T129" s="68"/>
+      <c r="U129" s="69"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="72" t="s">
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="73" t="s">
+      <c r="G130" s="54"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="74"/>
-      <c r="N130" s="74"/>
-      <c r="O130" s="74"/>
-      <c r="P130" s="75"/>
-      <c r="Q130" s="73" t="s">
+      <c r="M130" s="62"/>
+      <c r="N130" s="62"/>
+      <c r="O130" s="62"/>
+      <c r="P130" s="63"/>
+      <c r="Q130" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="74"/>
-      <c r="S130" s="74"/>
-      <c r="T130" s="74"/>
-      <c r="U130" s="75"/>
+      <c r="R130" s="62"/>
+      <c r="S130" s="62"/>
+      <c r="T130" s="62"/>
+      <c r="U130" s="63"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="76"/>
-      <c r="M131" s="77"/>
-      <c r="N131" s="77"/>
-      <c r="O131" s="77"/>
-      <c r="P131" s="78"/>
-      <c r="Q131" s="76"/>
-      <c r="R131" s="77"/>
-      <c r="S131" s="77"/>
-      <c r="T131" s="77"/>
-      <c r="U131" s="78"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="65"/>
+      <c r="N131" s="65"/>
+      <c r="O131" s="65"/>
+      <c r="P131" s="66"/>
+      <c r="Q131" s="64"/>
+      <c r="R131" s="65"/>
+      <c r="S131" s="65"/>
+      <c r="T131" s="65"/>
+      <c r="U131" s="66"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="76"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="77"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="78"/>
-      <c r="Q132" s="76"/>
-      <c r="R132" s="77"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="77"/>
-      <c r="U132" s="78"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="64"/>
+      <c r="M132" s="65"/>
+      <c r="N132" s="65"/>
+      <c r="O132" s="65"/>
+      <c r="P132" s="66"/>
+      <c r="Q132" s="64"/>
+      <c r="R132" s="65"/>
+      <c r="S132" s="65"/>
+      <c r="T132" s="65"/>
+      <c r="U132" s="66"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="77"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="78"/>
-      <c r="Q133" s="76"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="78"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="64"/>
+      <c r="M133" s="65"/>
+      <c r="N133" s="65"/>
+      <c r="O133" s="65"/>
+      <c r="P133" s="66"/>
+      <c r="Q133" s="64"/>
+      <c r="R133" s="65"/>
+      <c r="S133" s="65"/>
+      <c r="T133" s="65"/>
+      <c r="U133" s="66"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="98"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="72"/>
-      <c r="L134" s="76"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="78"/>
-      <c r="Q134" s="76"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="78"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="65"/>
+      <c r="N134" s="65"/>
+      <c r="O134" s="65"/>
+      <c r="P134" s="66"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
+      <c r="S134" s="65"/>
+      <c r="T134" s="65"/>
+      <c r="U134" s="66"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="95" t="s">
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="73" t="s">
+      <c r="E135" s="77"/>
+      <c r="F135" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="73" t="s">
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="74"/>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="75"/>
-      <c r="Q135" s="73" t="s">
+      <c r="M135" s="62"/>
+      <c r="N135" s="62"/>
+      <c r="O135" s="62"/>
+      <c r="P135" s="63"/>
+      <c r="Q135" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="74"/>
-      <c r="S135" s="74"/>
-      <c r="T135" s="74"/>
-      <c r="U135" s="75"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
+      <c r="U135" s="63"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="78"/>
-      <c r="L136" s="76"/>
-      <c r="M136" s="77"/>
-      <c r="N136" s="77"/>
-      <c r="O136" s="77"/>
-      <c r="P136" s="78"/>
-      <c r="Q136" s="76"/>
-      <c r="R136" s="77"/>
-      <c r="S136" s="77"/>
-      <c r="T136" s="77"/>
-      <c r="U136" s="78"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="64"/>
+      <c r="M136" s="65"/>
+      <c r="N136" s="65"/>
+      <c r="O136" s="65"/>
+      <c r="P136" s="66"/>
+      <c r="Q136" s="64"/>
+      <c r="R136" s="65"/>
+      <c r="S136" s="65"/>
+      <c r="T136" s="65"/>
+      <c r="U136" s="66"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="97"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="80"/>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="80"/>
-      <c r="K137" s="81"/>
-      <c r="L137" s="76"/>
-      <c r="M137" s="77"/>
-      <c r="N137" s="77"/>
-      <c r="O137" s="77"/>
-      <c r="P137" s="78"/>
-      <c r="Q137" s="79"/>
-      <c r="R137" s="80"/>
-      <c r="S137" s="80"/>
-      <c r="T137" s="80"/>
-      <c r="U137" s="81"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="64"/>
+      <c r="M137" s="65"/>
+      <c r="N137" s="65"/>
+      <c r="O137" s="65"/>
+      <c r="P137" s="66"/>
+      <c r="Q137" s="67"/>
+      <c r="R137" s="68"/>
+      <c r="S137" s="68"/>
+      <c r="T137" s="68"/>
+      <c r="U137" s="69"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="98"/>
-      <c r="F138" s="73" t="s">
+      <c r="B138" s="89"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="74"/>
-      <c r="K138" s="75"/>
-      <c r="L138" s="73" t="s">
+      <c r="G138" s="62"/>
+      <c r="H138" s="62"/>
+      <c r="I138" s="62"/>
+      <c r="J138" s="62"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="74"/>
-      <c r="N138" s="74"/>
-      <c r="O138" s="74"/>
-      <c r="P138" s="75"/>
-      <c r="Q138" s="72" t="s">
+      <c r="M138" s="62"/>
+      <c r="N138" s="62"/>
+      <c r="O138" s="62"/>
+      <c r="P138" s="63"/>
+      <c r="Q138" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="72"/>
-      <c r="S138" s="72"/>
-      <c r="T138" s="72"/>
-      <c r="U138" s="72"/>
+      <c r="R138" s="54"/>
+      <c r="S138" s="54"/>
+      <c r="T138" s="54"/>
+      <c r="U138" s="54"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="98"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="78"/>
-      <c r="L139" s="76"/>
-      <c r="M139" s="77"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="77"/>
-      <c r="P139" s="78"/>
-      <c r="Q139" s="72"/>
-      <c r="R139" s="72"/>
-      <c r="S139" s="72"/>
-      <c r="T139" s="72"/>
-      <c r="U139" s="72"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="64"/>
+      <c r="M139" s="65"/>
+      <c r="N139" s="65"/>
+      <c r="O139" s="65"/>
+      <c r="P139" s="66"/>
+      <c r="Q139" s="54"/>
+      <c r="R139" s="54"/>
+      <c r="S139" s="54"/>
+      <c r="T139" s="54"/>
+      <c r="U139" s="54"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="97"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="78"/>
-      <c r="L140" s="76"/>
-      <c r="M140" s="77"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="78"/>
-      <c r="Q140" s="72"/>
-      <c r="R140" s="72"/>
-      <c r="S140" s="72"/>
-      <c r="T140" s="72"/>
-      <c r="U140" s="72"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="66"/>
+      <c r="L140" s="64"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="65"/>
+      <c r="O140" s="65"/>
+      <c r="P140" s="66"/>
+      <c r="Q140" s="54"/>
+      <c r="R140" s="54"/>
+      <c r="S140" s="54"/>
+      <c r="T140" s="54"/>
+      <c r="U140" s="54"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="78"/>
-      <c r="L141" s="76"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="77"/>
-      <c r="P141" s="78"/>
-      <c r="Q141" s="72"/>
-      <c r="R141" s="72"/>
-      <c r="S141" s="72"/>
-      <c r="T141" s="72"/>
-      <c r="U141" s="72"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="64"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="66"/>
+      <c r="L141" s="64"/>
+      <c r="M141" s="65"/>
+      <c r="N141" s="65"/>
+      <c r="O141" s="65"/>
+      <c r="P141" s="66"/>
+      <c r="Q141" s="54"/>
+      <c r="R141" s="54"/>
+      <c r="S141" s="54"/>
+      <c r="T141" s="54"/>
+      <c r="U141" s="54"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="78"/>
-      <c r="L142" s="76"/>
-      <c r="M142" s="77"/>
-      <c r="N142" s="77"/>
-      <c r="O142" s="77"/>
-      <c r="P142" s="78"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="66"/>
+      <c r="L142" s="64"/>
+      <c r="M142" s="65"/>
+      <c r="N142" s="65"/>
+      <c r="O142" s="65"/>
+      <c r="P142" s="66"/>
+      <c r="Q142" s="54"/>
+      <c r="R142" s="54"/>
+      <c r="S142" s="54"/>
+      <c r="T142" s="54"/>
+      <c r="U142" s="54"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="78"/>
-      <c r="L143" s="76"/>
-      <c r="M143" s="77"/>
-      <c r="N143" s="77"/>
-      <c r="O143" s="77"/>
-      <c r="P143" s="78"/>
-      <c r="Q143" s="72"/>
-      <c r="R143" s="72"/>
-      <c r="S143" s="72"/>
-      <c r="T143" s="72"/>
-      <c r="U143" s="72"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="64"/>
+      <c r="M143" s="65"/>
+      <c r="N143" s="65"/>
+      <c r="O143" s="65"/>
+      <c r="P143" s="66"/>
+      <c r="Q143" s="54"/>
+      <c r="R143" s="54"/>
+      <c r="S143" s="54"/>
+      <c r="T143" s="54"/>
+      <c r="U143" s="54"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="99"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="81"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="80"/>
-      <c r="N144" s="80"/>
-      <c r="O144" s="80"/>
-      <c r="P144" s="81"/>
-      <c r="Q144" s="72"/>
-      <c r="R144" s="72"/>
-      <c r="S144" s="72"/>
-      <c r="T144" s="72"/>
-      <c r="U144" s="72"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="67"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="68"/>
+      <c r="O144" s="68"/>
+      <c r="P144" s="69"/>
+      <c r="Q144" s="54"/>
+      <c r="R144" s="54"/>
+      <c r="S144" s="54"/>
+      <c r="T144" s="54"/>
+      <c r="U144" s="54"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="119" t="s">
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="119"/>
-      <c r="F145" s="72" t="s">
+      <c r="E145" s="83"/>
+      <c r="F145" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72" t="s">
+      <c r="G145" s="54"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72" t="s">
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="54"/>
+      <c r="Q145" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="72"/>
-      <c r="S145" s="72"/>
-      <c r="T145" s="72"/>
-      <c r="U145" s="72"/>
+      <c r="R145" s="54"/>
+      <c r="S145" s="54"/>
+      <c r="T145" s="54"/>
+      <c r="U145" s="54"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="94"/>
-      <c r="M146" s="94"/>
-      <c r="N146" s="94"/>
-      <c r="O146" s="94"/>
-      <c r="P146" s="94"/>
-      <c r="Q146" s="94"/>
-      <c r="R146" s="94"/>
-      <c r="S146" s="94"/>
-      <c r="T146" s="94"/>
-      <c r="U146" s="94"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="82"/>
+      <c r="M146" s="82"/>
+      <c r="N146" s="82"/>
+      <c r="O146" s="82"/>
+      <c r="P146" s="82"/>
+      <c r="Q146" s="82"/>
+      <c r="R146" s="82"/>
+      <c r="S146" s="82"/>
+      <c r="T146" s="82"/>
+      <c r="U146" s="82"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="119"/>
-      <c r="E147" s="119"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
-      <c r="H147" s="72"/>
-      <c r="I147" s="72"/>
-      <c r="J147" s="72"/>
-      <c r="K147" s="72"/>
-      <c r="L147" s="94"/>
-      <c r="M147" s="94"/>
-      <c r="N147" s="94"/>
-      <c r="O147" s="94"/>
-      <c r="P147" s="94"/>
-      <c r="Q147" s="94"/>
-      <c r="R147" s="94"/>
-      <c r="S147" s="94"/>
-      <c r="T147" s="94"/>
-      <c r="U147" s="94"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="82"/>
+      <c r="M147" s="82"/>
+      <c r="N147" s="82"/>
+      <c r="O147" s="82"/>
+      <c r="P147" s="82"/>
+      <c r="Q147" s="82"/>
+      <c r="R147" s="82"/>
+      <c r="S147" s="82"/>
+      <c r="T147" s="82"/>
+      <c r="U147" s="82"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="119"/>
-      <c r="E148" s="119"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
-      <c r="L148" s="94"/>
-      <c r="M148" s="94"/>
-      <c r="N148" s="94"/>
-      <c r="O148" s="94"/>
-      <c r="P148" s="94"/>
-      <c r="Q148" s="94"/>
-      <c r="R148" s="94"/>
-      <c r="S148" s="94"/>
-      <c r="T148" s="94"/>
-      <c r="U148" s="94"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="82"/>
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="82"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6715,18 +6699,86 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q105:U108"/>
+    <mergeCell ref="L116:P123"/>
+    <mergeCell ref="Q116:U123"/>
+    <mergeCell ref="L64:P78"/>
+    <mergeCell ref="Q64:U78"/>
+    <mergeCell ref="L89:P94"/>
+    <mergeCell ref="Q89:U94"/>
+    <mergeCell ref="B24:B41"/>
+    <mergeCell ref="B42:B94"/>
+    <mergeCell ref="B95:B148"/>
+    <mergeCell ref="C24:C41"/>
+    <mergeCell ref="C42:C94"/>
+    <mergeCell ref="C95:C148"/>
+    <mergeCell ref="D39:E41"/>
+    <mergeCell ref="D35:E38"/>
+    <mergeCell ref="D24:E27"/>
+    <mergeCell ref="D135:E144"/>
+    <mergeCell ref="D95:E115"/>
+    <mergeCell ref="D89:E94"/>
+    <mergeCell ref="D84:E88"/>
+    <mergeCell ref="L28:P34"/>
+    <mergeCell ref="Q28:U34"/>
+    <mergeCell ref="L42:P45"/>
+    <mergeCell ref="Q42:U45"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
     <mergeCell ref="D64:E83"/>
     <mergeCell ref="D28:E34"/>
     <mergeCell ref="D42:E48"/>
@@ -6751,86 +6803,18 @@
     <mergeCell ref="F28:K32"/>
     <mergeCell ref="F33:K34"/>
     <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q105:U108"/>
-    <mergeCell ref="L116:P123"/>
-    <mergeCell ref="Q116:U123"/>
-    <mergeCell ref="L64:P78"/>
-    <mergeCell ref="Q64:U78"/>
-    <mergeCell ref="L89:P94"/>
-    <mergeCell ref="Q89:U94"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="B42:B94"/>
-    <mergeCell ref="B95:B148"/>
-    <mergeCell ref="C24:C41"/>
-    <mergeCell ref="C42:C94"/>
-    <mergeCell ref="C95:C148"/>
-    <mergeCell ref="D39:E41"/>
-    <mergeCell ref="D35:E38"/>
-    <mergeCell ref="D24:E27"/>
-    <mergeCell ref="D135:E144"/>
-    <mergeCell ref="D95:E115"/>
-    <mergeCell ref="D89:E94"/>
-    <mergeCell ref="D84:E88"/>
-    <mergeCell ref="L28:P34"/>
-    <mergeCell ref="Q28:U34"/>
-    <mergeCell ref="L42:P45"/>
-    <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6844,7 +6828,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E8" sqref="E8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
@@ -7454,16 +7438,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7476,6 +7450,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8091,16 +8075,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8113,6 +8087,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8854,16 +8838,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8876,6 +8850,16 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9545,6 +9529,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
@@ -9561,14 +9553,6 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10188,6 +10172,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
@@ -10198,18 +10194,6 @@
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10285,12 +10269,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10305,12 +10289,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -10325,12 +10309,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -10345,12 +10329,12 @@
       <c r="E10" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="121" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -10359,10 +10343,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -10371,10 +10355,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -10383,10 +10367,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -10395,10 +10379,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -10407,10 +10391,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -10419,10 +10403,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -10431,10 +10415,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -10443,10 +10427,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -10455,10 +10439,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -10467,10 +10451,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -10479,10 +10463,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -10491,10 +10475,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -10503,10 +10487,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -10515,10 +10499,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -10527,10 +10511,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -10539,10 +10523,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -10551,34 +10535,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10597,7 +10581,7 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -10630,145 +10614,145 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="123" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="123" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="123" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="123" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="123" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="123" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
@@ -10788,38 +10772,48 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -10828,16 +10822,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C6 B8:C9 B7 B10:B12 B13:C21">
@@ -11612,16 +11596,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11637,6 +11611,16 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12240,16 +12224,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12262,6 +12236,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12884,16 +12868,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12906,6 +12880,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13595,16 +13579,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13619,6 +13593,16 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14303,16 +14287,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14327,6 +14301,16 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14337,8 +14321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14642,7 +14626,7 @@
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="22.5">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -14650,15 +14634,29 @@
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="E12" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="43">
+        <v>20</v>
+      </c>
       <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="K12" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="L12" s="42"/>
-      <c r="M12" s="127"/>
+      <c r="M12" s="127" t="s">
+        <v>244</v>
+      </c>
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
@@ -14944,16 +14942,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14966,6 +14954,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="386">
   <si>
     <t>风险分类</t>
   </si>
@@ -1773,6 +1773,18 @@
   </si>
   <si>
     <t>三方交互日志和广告位</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包状态 20表示成功，其他表示失败</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴提取包同步状态  0 表示成功，10表示 同步中  null 表示未同步 其他表示失败</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态 0表示成功，其他表示失败</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2290,25 +2302,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2338,22 +2386,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,48 +2441,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2452,50 +2479,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2505,9 +2520,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2993,13 +3005,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -3014,22 +3026,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -3045,24 +3057,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3075,28 +3087,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="56">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="94"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3107,23 +3119,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="94"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3134,23 +3146,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3161,23 +3173,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3190,28 +3202,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="56">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="89"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3222,23 +3234,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="89"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3249,23 +3261,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="89"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3276,23 +3288,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3303,23 +3315,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="67" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3332,28 +3344,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="56">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="117"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3364,23 +3376,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="117"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3391,23 +3403,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="118"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3418,19 +3430,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3554,3098 +3566,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114" t="s">
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="88">
+      <c r="B24" s="64">
         <v>1</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="101"/>
+      <c r="F24" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="54" t="s">
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54" t="s">
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="89"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="92"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="92"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="61" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="89"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="92"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="89"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="92"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="61" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="54" t="s">
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54" t="s">
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="89"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="89"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="89"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="89"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="89"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="61" t="s">
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="89"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="89"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="92"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="61" t="s">
+      <c r="E35" s="96"/>
+      <c r="F35" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="54" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54" t="s">
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="89"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="89"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="61" t="s">
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="89"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="89"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="61" t="s">
+      <c r="E39" s="94"/>
+      <c r="F39" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="54" t="s">
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54" t="s">
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="89"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="92"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="89"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="89">
+      <c r="B42" s="65">
         <v>2</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="61" t="s">
+      <c r="E42" s="94"/>
+      <c r="F42" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="54" t="s">
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54" t="s">
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="61" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="54" t="s">
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54" t="s">
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="76" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="77"/>
-      <c r="F49" s="61" t="s">
+      <c r="E49" s="96"/>
+      <c r="F49" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="54" t="s">
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54" t="s">
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="61" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="61" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="61" t="s">
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="61" t="s">
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="63"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="75"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="66"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="78"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="78"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="66"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="78"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="66"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="78"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="61" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="66"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="78"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="66"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="78"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="69"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="81"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="61" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="54" t="s">
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54" t="s">
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="72"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="72"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="70" t="s">
+      <c r="B64" s="65"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="71"/>
-      <c r="F64" s="61" t="s">
+      <c r="E64" s="114"/>
+      <c r="F64" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="54" t="s">
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54" t="s">
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="72"/>
+      <c r="U66" s="72"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="61" t="s">
+      <c r="B67" s="65"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="72"/>
+      <c r="O69" s="72"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="61" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="61" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="61" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="61" t="s">
+      <c r="B77" s="65"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="72"/>
+      <c r="U78" s="72"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="61" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="61" t="s">
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="54" t="s">
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="72"/>
+      <c r="S80" s="72"/>
+      <c r="T80" s="72"/>
+      <c r="U80" s="72"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="72"/>
+      <c r="U81" s="72"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="69"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
+      <c r="U83" s="72"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="76" t="s">
+      <c r="B84" s="65"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="77"/>
-      <c r="F84" s="61" t="s">
+      <c r="E84" s="96"/>
+      <c r="F84" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="54" t="s">
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="54" t="s">
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+      <c r="O84" s="72"/>
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="54"/>
-      <c r="S84" s="54"/>
-      <c r="T84" s="54"/>
-      <c r="U84" s="54"/>
+      <c r="R84" s="72"/>
+      <c r="S84" s="72"/>
+      <c r="T84" s="72"/>
+      <c r="U84" s="72"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="54"/>
-      <c r="T85" s="54"/>
-      <c r="U85" s="54"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="72"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
+      <c r="U85" s="72"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="54"/>
-      <c r="U86" s="54"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+      <c r="O86" s="72"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="72"/>
+      <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
+      <c r="U86" s="72"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="54"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="102" t="s">
+      <c r="B89" s="65"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="57"/>
-      <c r="Q89" s="55"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="57"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="82"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="82"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
+      <c r="U89" s="84"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="86"/>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="85"/>
-      <c r="R90" s="86"/>
-      <c r="S90" s="86"/>
-      <c r="T90" s="86"/>
-      <c r="U90" s="87"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="86"/>
+      <c r="J90" s="86"/>
+      <c r="K90" s="87"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="89"/>
+      <c r="N90" s="89"/>
+      <c r="O90" s="89"/>
+      <c r="P90" s="90"/>
+      <c r="Q90" s="88"/>
+      <c r="R90" s="89"/>
+      <c r="S90" s="89"/>
+      <c r="T90" s="89"/>
+      <c r="U90" s="90"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="86"/>
-      <c r="N91" s="86"/>
-      <c r="O91" s="86"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="85"/>
-      <c r="R91" s="86"/>
-      <c r="S91" s="86"/>
-      <c r="T91" s="86"/>
-      <c r="U91" s="87"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="84"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="89"/>
+      <c r="N91" s="89"/>
+      <c r="O91" s="89"/>
+      <c r="P91" s="90"/>
+      <c r="Q91" s="88"/>
+      <c r="R91" s="89"/>
+      <c r="S91" s="89"/>
+      <c r="T91" s="89"/>
+      <c r="U91" s="90"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="86"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="85"/>
-      <c r="R92" s="86"/>
-      <c r="S92" s="86"/>
-      <c r="T92" s="86"/>
-      <c r="U92" s="87"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="87"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="89"/>
+      <c r="N92" s="89"/>
+      <c r="O92" s="89"/>
+      <c r="P92" s="90"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="89"/>
+      <c r="S92" s="89"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="90"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86"/>
-      <c r="O93" s="86"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="85"/>
-      <c r="R93" s="86"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86"/>
-      <c r="U93" s="87"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="90"/>
+      <c r="Q93" s="88"/>
+      <c r="R93" s="89"/>
+      <c r="S93" s="89"/>
+      <c r="T93" s="89"/>
+      <c r="U93" s="90"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="107"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="58"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="59"/>
-      <c r="T94" s="59"/>
-      <c r="U94" s="60"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
+      <c r="I94" s="86"/>
+      <c r="J94" s="86"/>
+      <c r="K94" s="87"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="86"/>
+      <c r="O94" s="86"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="86"/>
+      <c r="S94" s="86"/>
+      <c r="T94" s="86"/>
+      <c r="U94" s="87"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="88">
+      <c r="B95" s="64">
         <v>3</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="101" t="s">
+      <c r="D95" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="101"/>
-      <c r="F95" s="54" t="s">
+      <c r="E95" s="106"/>
+      <c r="F95" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54" t="s">
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54" t="s">
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="54"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="54"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="72"/>
+      <c r="N96" s="72"/>
+      <c r="O96" s="72"/>
+      <c r="P96" s="72"/>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="54"/>
-      <c r="S97" s="54"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="54"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="72"/>
+      <c r="S97" s="72"/>
+      <c r="T97" s="72"/>
+      <c r="U97" s="72"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="54" t="s">
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="72"/>
+      <c r="N98" s="72"/>
+      <c r="O98" s="72"/>
+      <c r="P98" s="72"/>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="72"/>
+      <c r="S98" s="72"/>
+      <c r="T98" s="72"/>
+      <c r="U98" s="72"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="72"/>
+      <c r="O100" s="72"/>
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="54"/>
-      <c r="S101" s="54"/>
-      <c r="T101" s="54"/>
-      <c r="U101" s="54"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="54" t="s">
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="54"/>
-      <c r="S102" s="54"/>
-      <c r="T102" s="54"/>
-      <c r="U102" s="54"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="72"/>
+      <c r="O102" s="72"/>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="72"/>
+      <c r="O103" s="72"/>
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="72"/>
+      <c r="S103" s="72"/>
+      <c r="T103" s="72"/>
+      <c r="U103" s="72"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="54"/>
-      <c r="T104" s="54"/>
-      <c r="U104" s="54"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+      <c r="O104" s="72"/>
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="72"/>
+      <c r="S104" s="72"/>
+      <c r="T104" s="72"/>
+      <c r="U104" s="72"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="54" t="s">
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54" t="s">
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54" t="s">
+      <c r="M105" s="72"/>
+      <c r="N105" s="72"/>
+      <c r="O105" s="72"/>
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="54"/>
-      <c r="S105" s="54"/>
-      <c r="T105" s="54"/>
-      <c r="U105" s="54"/>
+      <c r="R105" s="72"/>
+      <c r="S105" s="72"/>
+      <c r="T105" s="72"/>
+      <c r="U105" s="72"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="54"/>
-      <c r="T106" s="54"/>
-      <c r="U106" s="54"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="72"/>
+      <c r="O106" s="72"/>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="72"/>
+      <c r="S106" s="72"/>
+      <c r="T106" s="72"/>
+      <c r="U106" s="72"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="54"/>
-      <c r="U107" s="54"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="72"/>
+      <c r="S107" s="72"/>
+      <c r="T107" s="72"/>
+      <c r="U107" s="72"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="54"/>
-      <c r="T108" s="54"/>
-      <c r="U108" s="54"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="72"/>
+      <c r="N108" s="72"/>
+      <c r="O108" s="72"/>
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
+      <c r="R108" s="72"/>
+      <c r="S108" s="72"/>
+      <c r="T108" s="72"/>
+      <c r="U108" s="72"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="61" t="s">
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="63"/>
-      <c r="L109" s="61" t="s">
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="62"/>
-      <c r="P109" s="63"/>
-      <c r="Q109" s="61" t="s">
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="62"/>
-      <c r="S109" s="62"/>
-      <c r="T109" s="62"/>
-      <c r="U109" s="63"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
+      <c r="T109" s="74"/>
+      <c r="U109" s="75"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="66"/>
-      <c r="L110" s="64"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="65"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="64"/>
-      <c r="R110" s="65"/>
-      <c r="S110" s="65"/>
-      <c r="T110" s="65"/>
-      <c r="U110" s="66"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="76"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="78"/>
+      <c r="Q110" s="76"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="78"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="64"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="64"/>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="U111" s="66"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="78"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="78"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="65"/>
-      <c r="N112" s="65"/>
-      <c r="O112" s="65"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="65"/>
-      <c r="S112" s="65"/>
-      <c r="T112" s="65"/>
-      <c r="U112" s="66"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="78"/>
+      <c r="Q112" s="76"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="78"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="66"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="76"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="78"/>
+      <c r="Q113" s="76"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="78"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65"/>
-      <c r="J114" s="65"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="65"/>
-      <c r="N114" s="65"/>
-      <c r="O114" s="65"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="65"/>
-      <c r="S114" s="65"/>
-      <c r="T114" s="65"/>
-      <c r="U114" s="66"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="78"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="78"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
-      <c r="I115" s="68"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="67"/>
-      <c r="M115" s="68"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="68"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="67"/>
-      <c r="R115" s="68"/>
-      <c r="S115" s="68"/>
-      <c r="T115" s="68"/>
-      <c r="U115" s="69"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="80"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="80"/>
+      <c r="N115" s="80"/>
+      <c r="O115" s="80"/>
+      <c r="P115" s="81"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="80"/>
+      <c r="S115" s="80"/>
+      <c r="T115" s="80"/>
+      <c r="U115" s="81"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="76" t="s">
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="77"/>
-      <c r="F116" s="54" t="s">
+      <c r="E116" s="96"/>
+      <c r="F116" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="61" t="s">
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="62"/>
-      <c r="N116" s="62"/>
-      <c r="O116" s="62"/>
-      <c r="P116" s="63"/>
-      <c r="Q116" s="61" t="s">
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="75"/>
+      <c r="Q116" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="62"/>
-      <c r="S116" s="62"/>
-      <c r="T116" s="62"/>
-      <c r="U116" s="63"/>
+      <c r="R116" s="74"/>
+      <c r="S116" s="74"/>
+      <c r="T116" s="74"/>
+      <c r="U116" s="75"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="65"/>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="U117" s="66"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="76"/>
+      <c r="R117" s="77"/>
+      <c r="S117" s="77"/>
+      <c r="T117" s="77"/>
+      <c r="U117" s="78"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="65"/>
-      <c r="P118" s="66"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="65"/>
-      <c r="S118" s="65"/>
-      <c r="T118" s="65"/>
-      <c r="U118" s="66"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="76"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="76"/>
+      <c r="R118" s="77"/>
+      <c r="S118" s="77"/>
+      <c r="T118" s="77"/>
+      <c r="U118" s="78"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="78"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="54" t="s">
+      <c r="B119" s="65"/>
+      <c r="C119" s="65"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="64"/>
-      <c r="M119" s="65"/>
-      <c r="N119" s="65"/>
-      <c r="O119" s="65"/>
-      <c r="P119" s="66"/>
-      <c r="Q119" s="64"/>
-      <c r="R119" s="65"/>
-      <c r="S119" s="65"/>
-      <c r="T119" s="65"/>
-      <c r="U119" s="66"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="76"/>
+      <c r="M119" s="77"/>
+      <c r="N119" s="77"/>
+      <c r="O119" s="77"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="76"/>
+      <c r="R119" s="77"/>
+      <c r="S119" s="77"/>
+      <c r="T119" s="77"/>
+      <c r="U119" s="78"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="78"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="65"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="65"/>
-      <c r="P120" s="66"/>
-      <c r="Q120" s="64"/>
-      <c r="R120" s="65"/>
-      <c r="S120" s="65"/>
-      <c r="T120" s="65"/>
-      <c r="U120" s="66"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="77"/>
+      <c r="N120" s="77"/>
+      <c r="O120" s="77"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="76"/>
+      <c r="R120" s="77"/>
+      <c r="S120" s="77"/>
+      <c r="T120" s="77"/>
+      <c r="U120" s="78"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="64"/>
-      <c r="M121" s="65"/>
-      <c r="N121" s="65"/>
-      <c r="O121" s="65"/>
-      <c r="P121" s="66"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="65"/>
-      <c r="S121" s="65"/>
-      <c r="T121" s="65"/>
-      <c r="U121" s="66"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="72"/>
+      <c r="L121" s="76"/>
+      <c r="M121" s="77"/>
+      <c r="N121" s="77"/>
+      <c r="O121" s="77"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="76"/>
+      <c r="R121" s="77"/>
+      <c r="S121" s="77"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="78"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="65"/>
-      <c r="N122" s="65"/>
-      <c r="O122" s="65"/>
-      <c r="P122" s="66"/>
-      <c r="Q122" s="64"/>
-      <c r="R122" s="65"/>
-      <c r="S122" s="65"/>
-      <c r="T122" s="65"/>
-      <c r="U122" s="66"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="77"/>
+      <c r="N122" s="77"/>
+      <c r="O122" s="77"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="77"/>
+      <c r="T122" s="77"/>
+      <c r="U122" s="78"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="67"/>
-      <c r="M123" s="68"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="68"/>
-      <c r="P123" s="69"/>
-      <c r="Q123" s="67"/>
-      <c r="R123" s="68"/>
-      <c r="S123" s="68"/>
-      <c r="T123" s="68"/>
-      <c r="U123" s="69"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81"/>
+      <c r="Q123" s="79"/>
+      <c r="R123" s="80"/>
+      <c r="S123" s="80"/>
+      <c r="T123" s="80"/>
+      <c r="U123" s="81"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="89"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="54" t="s">
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="61" t="s">
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="62"/>
-      <c r="P124" s="63"/>
-      <c r="Q124" s="61" t="s">
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="75"/>
+      <c r="Q124" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="62"/>
-      <c r="S124" s="62"/>
-      <c r="T124" s="62"/>
-      <c r="U124" s="63"/>
+      <c r="R124" s="74"/>
+      <c r="S124" s="74"/>
+      <c r="T124" s="74"/>
+      <c r="U124" s="75"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="65"/>
-      <c r="N125" s="65"/>
-      <c r="O125" s="65"/>
-      <c r="P125" s="66"/>
-      <c r="Q125" s="64"/>
-      <c r="R125" s="65"/>
-      <c r="S125" s="65"/>
-      <c r="T125" s="65"/>
-      <c r="U125" s="66"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="77"/>
+      <c r="N125" s="77"/>
+      <c r="O125" s="77"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="77"/>
+      <c r="S125" s="77"/>
+      <c r="T125" s="77"/>
+      <c r="U125" s="78"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="65"/>
-      <c r="N126" s="65"/>
-      <c r="O126" s="65"/>
-      <c r="P126" s="66"/>
-      <c r="Q126" s="64"/>
-      <c r="R126" s="65"/>
-      <c r="S126" s="65"/>
-      <c r="T126" s="65"/>
-      <c r="U126" s="66"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="77"/>
+      <c r="N126" s="77"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="78"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="77"/>
+      <c r="S126" s="77"/>
+      <c r="T126" s="77"/>
+      <c r="U126" s="78"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="64"/>
-      <c r="M127" s="65"/>
-      <c r="N127" s="65"/>
-      <c r="O127" s="65"/>
-      <c r="P127" s="66"/>
-      <c r="Q127" s="64"/>
-      <c r="R127" s="65"/>
-      <c r="S127" s="65"/>
-      <c r="T127" s="65"/>
-      <c r="U127" s="66"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="76"/>
+      <c r="M127" s="77"/>
+      <c r="N127" s="77"/>
+      <c r="O127" s="77"/>
+      <c r="P127" s="78"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="77"/>
+      <c r="S127" s="77"/>
+      <c r="T127" s="77"/>
+      <c r="U127" s="78"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="65"/>
-      <c r="N128" s="65"/>
-      <c r="O128" s="65"/>
-      <c r="P128" s="66"/>
-      <c r="Q128" s="64"/>
-      <c r="R128" s="65"/>
-      <c r="S128" s="65"/>
-      <c r="T128" s="65"/>
-      <c r="U128" s="66"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="76"/>
+      <c r="M128" s="77"/>
+      <c r="N128" s="77"/>
+      <c r="O128" s="77"/>
+      <c r="P128" s="78"/>
+      <c r="Q128" s="76"/>
+      <c r="R128" s="77"/>
+      <c r="S128" s="77"/>
+      <c r="T128" s="77"/>
+      <c r="U128" s="78"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="67"/>
-      <c r="M129" s="68"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="68"/>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="67"/>
-      <c r="R129" s="68"/>
-      <c r="S129" s="68"/>
-      <c r="T129" s="68"/>
-      <c r="U129" s="69"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="81"/>
+      <c r="Q129" s="79"/>
+      <c r="R129" s="80"/>
+      <c r="S129" s="80"/>
+      <c r="T129" s="80"/>
+      <c r="U129" s="81"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="54" t="s">
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="61" t="s">
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="62"/>
-      <c r="P130" s="63"/>
-      <c r="Q130" s="61" t="s">
+      <c r="M130" s="74"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="74"/>
+      <c r="P130" s="75"/>
+      <c r="Q130" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="62"/>
-      <c r="S130" s="62"/>
-      <c r="T130" s="62"/>
-      <c r="U130" s="63"/>
+      <c r="R130" s="74"/>
+      <c r="S130" s="74"/>
+      <c r="T130" s="74"/>
+      <c r="U130" s="75"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="65"/>
-      <c r="N131" s="65"/>
-      <c r="O131" s="65"/>
-      <c r="P131" s="66"/>
-      <c r="Q131" s="64"/>
-      <c r="R131" s="65"/>
-      <c r="S131" s="65"/>
-      <c r="T131" s="65"/>
-      <c r="U131" s="66"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="77"/>
+      <c r="N131" s="77"/>
+      <c r="O131" s="77"/>
+      <c r="P131" s="78"/>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="77"/>
+      <c r="S131" s="77"/>
+      <c r="T131" s="77"/>
+      <c r="U131" s="78"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="89"/>
-      <c r="D132" s="78"/>
-      <c r="E132" s="79"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="65"/>
-      <c r="N132" s="65"/>
-      <c r="O132" s="65"/>
-      <c r="P132" s="66"/>
-      <c r="Q132" s="64"/>
-      <c r="R132" s="65"/>
-      <c r="S132" s="65"/>
-      <c r="T132" s="65"/>
-      <c r="U132" s="66"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="76"/>
+      <c r="M132" s="77"/>
+      <c r="N132" s="77"/>
+      <c r="O132" s="77"/>
+      <c r="P132" s="78"/>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="77"/>
+      <c r="S132" s="77"/>
+      <c r="T132" s="77"/>
+      <c r="U132" s="78"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="78"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="64"/>
-      <c r="M133" s="65"/>
-      <c r="N133" s="65"/>
-      <c r="O133" s="65"/>
-      <c r="P133" s="66"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="65"/>
-      <c r="S133" s="65"/>
-      <c r="T133" s="65"/>
-      <c r="U133" s="66"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="76"/>
+      <c r="M133" s="77"/>
+      <c r="N133" s="77"/>
+      <c r="O133" s="77"/>
+      <c r="P133" s="78"/>
+      <c r="Q133" s="76"/>
+      <c r="R133" s="77"/>
+      <c r="S133" s="77"/>
+      <c r="T133" s="77"/>
+      <c r="U133" s="78"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="65"/>
-      <c r="N134" s="65"/>
-      <c r="O134" s="65"/>
-      <c r="P134" s="66"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
-      <c r="S134" s="65"/>
-      <c r="T134" s="65"/>
-      <c r="U134" s="66"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="97"/>
+      <c r="E134" s="98"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="76"/>
+      <c r="M134" s="77"/>
+      <c r="N134" s="77"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="78"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="77"/>
+      <c r="S134" s="77"/>
+      <c r="T134" s="77"/>
+      <c r="U134" s="78"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="76" t="s">
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="77"/>
-      <c r="F135" s="61" t="s">
+      <c r="E135" s="96"/>
+      <c r="F135" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="62"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="62"/>
-      <c r="J135" s="62"/>
-      <c r="K135" s="63"/>
-      <c r="L135" s="61" t="s">
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="62"/>
-      <c r="N135" s="62"/>
-      <c r="O135" s="62"/>
-      <c r="P135" s="63"/>
-      <c r="Q135" s="61" t="s">
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="75"/>
+      <c r="Q135" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
-      <c r="U135" s="63"/>
+      <c r="R135" s="74"/>
+      <c r="S135" s="74"/>
+      <c r="T135" s="74"/>
+      <c r="U135" s="75"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="65"/>
-      <c r="J136" s="65"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="65"/>
-      <c r="N136" s="65"/>
-      <c r="O136" s="65"/>
-      <c r="P136" s="66"/>
-      <c r="Q136" s="64"/>
-      <c r="R136" s="65"/>
-      <c r="S136" s="65"/>
-      <c r="T136" s="65"/>
-      <c r="U136" s="66"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="78"/>
+      <c r="L136" s="76"/>
+      <c r="M136" s="77"/>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="78"/>
+      <c r="Q136" s="76"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+      <c r="T136" s="77"/>
+      <c r="U136" s="78"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="69"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="65"/>
-      <c r="N137" s="65"/>
-      <c r="O137" s="65"/>
-      <c r="P137" s="66"/>
-      <c r="Q137" s="67"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="68"/>
-      <c r="T137" s="68"/>
-      <c r="U137" s="69"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
+      <c r="J137" s="80"/>
+      <c r="K137" s="81"/>
+      <c r="L137" s="76"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="78"/>
+      <c r="Q137" s="79"/>
+      <c r="R137" s="80"/>
+      <c r="S137" s="80"/>
+      <c r="T137" s="80"/>
+      <c r="U137" s="81"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="61" t="s">
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="97"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="62"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="63"/>
-      <c r="L138" s="61" t="s">
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="62"/>
-      <c r="N138" s="62"/>
-      <c r="O138" s="62"/>
-      <c r="P138" s="63"/>
-      <c r="Q138" s="54" t="s">
+      <c r="M138" s="74"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="74"/>
+      <c r="P138" s="75"/>
+      <c r="Q138" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="54"/>
-      <c r="S138" s="54"/>
-      <c r="T138" s="54"/>
-      <c r="U138" s="54"/>
+      <c r="R138" s="72"/>
+      <c r="S138" s="72"/>
+      <c r="T138" s="72"/>
+      <c r="U138" s="72"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="66"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="65"/>
-      <c r="N139" s="65"/>
-      <c r="O139" s="65"/>
-      <c r="P139" s="66"/>
-      <c r="Q139" s="54"/>
-      <c r="R139" s="54"/>
-      <c r="S139" s="54"/>
-      <c r="T139" s="54"/>
-      <c r="U139" s="54"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="97"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="77"/>
+      <c r="J139" s="77"/>
+      <c r="K139" s="78"/>
+      <c r="L139" s="76"/>
+      <c r="M139" s="77"/>
+      <c r="N139" s="77"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="78"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="72"/>
+      <c r="S139" s="72"/>
+      <c r="T139" s="72"/>
+      <c r="U139" s="72"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="78"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="66"/>
-      <c r="L140" s="64"/>
-      <c r="M140" s="65"/>
-      <c r="N140" s="65"/>
-      <c r="O140" s="65"/>
-      <c r="P140" s="66"/>
-      <c r="Q140" s="54"/>
-      <c r="R140" s="54"/>
-      <c r="S140" s="54"/>
-      <c r="T140" s="54"/>
-      <c r="U140" s="54"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="97"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="78"/>
+      <c r="L140" s="76"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="78"/>
+      <c r="Q140" s="72"/>
+      <c r="R140" s="72"/>
+      <c r="S140" s="72"/>
+      <c r="T140" s="72"/>
+      <c r="U140" s="72"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="65"/>
-      <c r="N141" s="65"/>
-      <c r="O141" s="65"/>
-      <c r="P141" s="66"/>
-      <c r="Q141" s="54"/>
-      <c r="R141" s="54"/>
-      <c r="S141" s="54"/>
-      <c r="T141" s="54"/>
-      <c r="U141" s="54"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="78"/>
+      <c r="L141" s="76"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="77"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="78"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="89"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="65"/>
-      <c r="N142" s="65"/>
-      <c r="O142" s="65"/>
-      <c r="P142" s="66"/>
-      <c r="Q142" s="54"/>
-      <c r="R142" s="54"/>
-      <c r="S142" s="54"/>
-      <c r="T142" s="54"/>
-      <c r="U142" s="54"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="97"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="78"/>
+      <c r="L142" s="76"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="78"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
-      <c r="J143" s="65"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="65"/>
-      <c r="N143" s="65"/>
-      <c r="O143" s="65"/>
-      <c r="P143" s="66"/>
-      <c r="Q143" s="54"/>
-      <c r="R143" s="54"/>
-      <c r="S143" s="54"/>
-      <c r="T143" s="54"/>
-      <c r="U143" s="54"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="97"/>
+      <c r="E143" s="98"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="78"/>
+      <c r="L143" s="76"/>
+      <c r="M143" s="77"/>
+      <c r="N143" s="77"/>
+      <c r="O143" s="77"/>
+      <c r="P143" s="78"/>
+      <c r="Q143" s="72"/>
+      <c r="R143" s="72"/>
+      <c r="S143" s="72"/>
+      <c r="T143" s="72"/>
+      <c r="U143" s="72"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="80"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="69"/>
-      <c r="L144" s="67"/>
-      <c r="M144" s="68"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="68"/>
-      <c r="P144" s="69"/>
-      <c r="Q144" s="54"/>
-      <c r="R144" s="54"/>
-      <c r="S144" s="54"/>
-      <c r="T144" s="54"/>
-      <c r="U144" s="54"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="100"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="81"/>
+      <c r="L144" s="79"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="81"/>
+      <c r="Q144" s="72"/>
+      <c r="R144" s="72"/>
+      <c r="S144" s="72"/>
+      <c r="T144" s="72"/>
+      <c r="U144" s="72"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="83" t="s">
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="83"/>
-      <c r="F145" s="54" t="s">
+      <c r="E145" s="119"/>
+      <c r="F145" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54" t="s">
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-      <c r="O145" s="54"/>
-      <c r="P145" s="54"/>
-      <c r="Q145" s="54" t="s">
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="54"/>
-      <c r="S145" s="54"/>
-      <c r="T145" s="54"/>
-      <c r="U145" s="54"/>
+      <c r="R145" s="72"/>
+      <c r="S145" s="72"/>
+      <c r="T145" s="72"/>
+      <c r="U145" s="72"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="82"/>
-      <c r="M146" s="82"/>
-      <c r="N146" s="82"/>
-      <c r="O146" s="82"/>
-      <c r="P146" s="82"/>
-      <c r="Q146" s="82"/>
-      <c r="R146" s="82"/>
-      <c r="S146" s="82"/>
-      <c r="T146" s="82"/>
-      <c r="U146" s="82"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="94"/>
+      <c r="M146" s="94"/>
+      <c r="N146" s="94"/>
+      <c r="O146" s="94"/>
+      <c r="P146" s="94"/>
+      <c r="Q146" s="94"/>
+      <c r="R146" s="94"/>
+      <c r="S146" s="94"/>
+      <c r="T146" s="94"/>
+      <c r="U146" s="94"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="82"/>
-      <c r="M147" s="82"/>
-      <c r="N147" s="82"/>
-      <c r="O147" s="82"/>
-      <c r="P147" s="82"/>
-      <c r="Q147" s="82"/>
-      <c r="R147" s="82"/>
-      <c r="S147" s="82"/>
-      <c r="T147" s="82"/>
-      <c r="U147" s="82"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="94"/>
+      <c r="M147" s="94"/>
+      <c r="N147" s="94"/>
+      <c r="O147" s="94"/>
+      <c r="P147" s="94"/>
+      <c r="Q147" s="94"/>
+      <c r="R147" s="94"/>
+      <c r="S147" s="94"/>
+      <c r="T147" s="94"/>
+      <c r="U147" s="94"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="90"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="82"/>
-      <c r="M148" s="82"/>
-      <c r="N148" s="82"/>
-      <c r="O148" s="82"/>
-      <c r="P148" s="82"/>
-      <c r="Q148" s="82"/>
-      <c r="R148" s="82"/>
-      <c r="S148" s="82"/>
-      <c r="T148" s="82"/>
-      <c r="U148" s="82"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="119"/>
+      <c r="E148" s="119"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="94"/>
+      <c r="M148" s="94"/>
+      <c r="N148" s="94"/>
+      <c r="O148" s="94"/>
+      <c r="P148" s="94"/>
+      <c r="Q148" s="94"/>
+      <c r="R148" s="94"/>
+      <c r="S148" s="94"/>
+      <c r="T148" s="94"/>
+      <c r="U148" s="94"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6699,34 +6711,70 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="D64:E83"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="D42:E48"/>
+    <mergeCell ref="D49:E63"/>
+    <mergeCell ref="D145:E148"/>
+    <mergeCell ref="D116:E134"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="F91:K92"/>
+    <mergeCell ref="F70:K71"/>
+    <mergeCell ref="F79:K83"/>
+    <mergeCell ref="F84:K88"/>
+    <mergeCell ref="F61:K63"/>
+    <mergeCell ref="F58:K60"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="F42:K45"/>
+    <mergeCell ref="F46:K48"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="F35:K36"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="F119:K123"/>
+    <mergeCell ref="F28:K32"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
     <mergeCell ref="Q105:U108"/>
     <mergeCell ref="L116:P123"/>
     <mergeCell ref="Q116:U123"/>
@@ -6751,70 +6799,34 @@
     <mergeCell ref="Q28:U34"/>
     <mergeCell ref="L42:P45"/>
     <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="D64:E83"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="D42:E48"/>
-    <mergeCell ref="D49:E63"/>
-    <mergeCell ref="D145:E148"/>
-    <mergeCell ref="D116:E134"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="F91:K92"/>
-    <mergeCell ref="F70:K71"/>
-    <mergeCell ref="F79:K83"/>
-    <mergeCell ref="F84:K88"/>
-    <mergeCell ref="F61:K63"/>
-    <mergeCell ref="F58:K60"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="F42:K45"/>
-    <mergeCell ref="F46:K48"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="F35:K36"/>
-    <mergeCell ref="F37:K38"/>
-    <mergeCell ref="F119:K123"/>
-    <mergeCell ref="F28:K32"/>
-    <mergeCell ref="F33:K34"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7438,6 +7450,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7450,16 +7472,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8075,6 +8087,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8087,16 +8109,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8838,6 +8850,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8850,16 +8872,6 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8871,7 +8883,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
@@ -9165,11 +9177,13 @@
         <v>152</v>
       </c>
       <c r="L11" s="42"/>
-      <c r="M11" s="131"/>
+      <c r="M11" s="131" t="s">
+        <v>383</v>
+      </c>
       <c r="N11" s="132"/>
       <c r="O11" s="133"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5">
+    <row r="12" spans="1:15" ht="36" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -9191,11 +9205,11 @@
         <v>8</v>
       </c>
       <c r="J12" s="43"/>
-      <c r="K12" s="43" t="s">
-        <v>152</v>
-      </c>
+      <c r="K12" s="43"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="127"/>
+      <c r="M12" s="127" t="s">
+        <v>384</v>
+      </c>
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
@@ -9529,14 +9543,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
@@ -9553,6 +9559,14 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9563,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
@@ -9858,7 +9872,9 @@
         <v>152</v>
       </c>
       <c r="L11" s="42"/>
-      <c r="M11" s="127"/>
+      <c r="M11" s="127" t="s">
+        <v>385</v>
+      </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
@@ -10172,6 +10188,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10184,16 +10210,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10269,12 +10285,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10289,12 +10305,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -10309,12 +10325,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -10329,12 +10345,12 @@
       <c r="E10" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="122" t="s">
         <v>382</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -10343,10 +10359,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -10355,10 +10371,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -10367,10 +10383,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -10379,10 +10395,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -10391,10 +10407,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -10403,10 +10419,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -10415,10 +10431,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -10427,10 +10443,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -10439,10 +10455,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -10451,10 +10467,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -10463,10 +10479,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -10475,10 +10491,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -10487,10 +10503,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -10499,10 +10515,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -10511,10 +10527,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -10523,10 +10539,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -10535,34 +10551,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10614,206 +10630,196 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="124" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="124" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="124" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="124" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -10822,6 +10828,16 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C6 B8:C9 B7 B10:B12 B13:C21">
@@ -11596,6 +11612,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11611,16 +11637,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12224,6 +12240,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12236,16 +12262,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12868,6 +12884,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12880,16 +12906,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13579,6 +13595,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13593,16 +13619,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14287,6 +14303,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14301,16 +14327,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14321,7 +14337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -14942,6 +14958,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14954,16 +14980,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,17 +25,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库结构一览表!#REF!</definedName>
     <definedName name="createtime">版本履历!$E$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="project">版本履历!$B$4:$B$5</definedName>
     <definedName name="title">版本履历!$B$4:$I$5</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="388">
   <si>
     <t>风险分类</t>
   </si>
@@ -1199,10 +1199,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>APP_ID</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1787,11 +1783,20 @@
     <t>处理状态 0表示成功，其他表示失败</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>渠道代码</t>
+  </si>
+  <si>
+    <t>CHANNEL_CODE</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -2302,61 +2307,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,43 +2355,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2441,6 +2389,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,38 +2469,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2520,6 +2522,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2544,9 +2549,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2961,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3005,13 +3010,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -3026,22 +3031,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -3057,24 +3062,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3087,28 +3092,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="110">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3119,23 +3124,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3146,23 +3151,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="63"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3173,23 +3178,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3202,28 +3207,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="110">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3234,23 +3239,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3261,23 +3266,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3288,23 +3293,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3315,23 +3320,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="116" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3344,28 +3349,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="110">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3376,23 +3381,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3403,23 +3408,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="69"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3430,19 +3435,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3566,3098 +3571,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60" t="s">
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60" t="s">
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="64">
+      <c r="B24" s="88">
         <v>1</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="72" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72" t="s">
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="65"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="92"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="65"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="92"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="73" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="92"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="92"/>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="73" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="72" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72" t="s">
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="65"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="65"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="65"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="73" t="s">
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="65"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="92"/>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="77"/>
+      <c r="F35" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="72" t="s">
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72" t="s">
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="65"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="65"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="73" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="73" t="s">
+      <c r="E39" s="82"/>
+      <c r="F39" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="72" t="s">
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72" t="s">
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="65"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="92"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="65"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="65">
+      <c r="B42" s="89">
         <v>2</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="72" t="s">
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72" t="s">
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="73" t="s">
+      <c r="B46" s="89"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="72" t="s">
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72" t="s">
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="95" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="73" t="s">
+      <c r="E49" s="77"/>
+      <c r="F49" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="72" t="s">
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72" t="s">
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="73" t="s">
+      <c r="B51" s="89"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="73" t="s">
+      <c r="B53" s="89"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="73" t="s">
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="73" t="s">
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="75"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="63"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="78"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="66"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="78"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="66"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="78"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="66"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="77"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="78"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="66"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="73" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="78"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="66"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="77"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="78"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="65"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="66"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="81"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="73" t="s">
+      <c r="B61" s="89"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="72" t="s">
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72" t="s">
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="113" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="73" t="s">
+      <c r="E64" s="71"/>
+      <c r="F64" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="72" t="s">
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72" t="s">
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="72"/>
-      <c r="Q66" s="72"/>
-      <c r="R66" s="72"/>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="72"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="73" t="s">
+      <c r="B67" s="89"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="72"/>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="73" t="s">
+      <c r="B70" s="89"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="73" t="s">
+      <c r="B72" s="89"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72"/>
-      <c r="P72" s="72"/>
-      <c r="Q72" s="72"/>
-      <c r="R72" s="72"/>
-      <c r="S72" s="72"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="73" t="s">
+      <c r="B75" s="89"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="72"/>
-      <c r="P76" s="72"/>
-      <c r="Q76" s="72"/>
-      <c r="R76" s="72"/>
-      <c r="S76" s="72"/>
-      <c r="T76" s="72"/>
-      <c r="U76" s="72"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="73" t="s">
+      <c r="B77" s="89"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="72"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="73" t="s">
+      <c r="B79" s="89"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="73" t="s">
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="72" t="s">
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="72"/>
-      <c r="S79" s="72"/>
-      <c r="T79" s="72"/>
-      <c r="U79" s="72"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="54"/>
+      <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="72"/>
-      <c r="R80" s="72"/>
-      <c r="S80" s="72"/>
-      <c r="T80" s="72"/>
-      <c r="U80" s="72"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="54"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="72"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="54"/>
+      <c r="T81" s="54"/>
+      <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="54"/>
+      <c r="S82" s="54"/>
+      <c r="T82" s="54"/>
+      <c r="U82" s="54"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="54"/>
+      <c r="S83" s="54"/>
+      <c r="T83" s="54"/>
+      <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="95" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="73" t="s">
+      <c r="E84" s="77"/>
+      <c r="F84" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="72" t="s">
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="72"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="72"/>
-      <c r="P84" s="72"/>
-      <c r="Q84" s="72" t="s">
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="54"/>
+      <c r="Q84" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
+      <c r="R84" s="54"/>
+      <c r="S84" s="54"/>
+      <c r="T84" s="54"/>
+      <c r="U84" s="54"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54"/>
+      <c r="S85" s="54"/>
+      <c r="T85" s="54"/>
+      <c r="U85" s="54"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="72"/>
-      <c r="R86" s="72"/>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="54"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="54"/>
+      <c r="U86" s="54"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="107" t="s">
+      <c r="B89" s="89"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
-      <c r="U89" s="84"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="57"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="57"/>
+      <c r="Q89" s="55"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="57"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="89"/>
-      <c r="P90" s="90"/>
-      <c r="Q90" s="88"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="90"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="86"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="86"/>
+      <c r="S90" s="86"/>
+      <c r="T90" s="86"/>
+      <c r="U90" s="87"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="88"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="89"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="90"/>
-      <c r="Q91" s="88"/>
-      <c r="R91" s="89"/>
-      <c r="S91" s="89"/>
-      <c r="T91" s="89"/>
-      <c r="U91" s="90"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="57"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="86"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="86"/>
+      <c r="U91" s="87"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="87"/>
-      <c r="L92" s="88"/>
-      <c r="M92" s="89"/>
-      <c r="N92" s="89"/>
-      <c r="O92" s="89"/>
-      <c r="P92" s="90"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="89"/>
-      <c r="S92" s="89"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="90"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="87"/>
+      <c r="Q92" s="85"/>
+      <c r="R92" s="86"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
+      <c r="U92" s="87"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="110"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="90"/>
-      <c r="Q93" s="88"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="90"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="86"/>
+      <c r="N93" s="86"/>
+      <c r="O93" s="86"/>
+      <c r="P93" s="87"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="86"/>
+      <c r="S93" s="86"/>
+      <c r="T93" s="86"/>
+      <c r="U93" s="87"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86"/>
-      <c r="J94" s="86"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="86"/>
-      <c r="O94" s="86"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="85"/>
-      <c r="R94" s="86"/>
-      <c r="S94" s="86"/>
-      <c r="T94" s="86"/>
-      <c r="U94" s="87"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="60"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="64">
+      <c r="B95" s="88">
         <v>3</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="106" t="s">
+      <c r="D95" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="72" t="s">
+      <c r="E95" s="101"/>
+      <c r="F95" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72" t="s">
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
-      <c r="Q95" s="72" t="s">
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="72"/>
+      <c r="R95" s="54"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="72"/>
-      <c r="N96" s="72"/>
-      <c r="O96" s="72"/>
-      <c r="P96" s="72"/>
-      <c r="Q96" s="72"/>
-      <c r="R96" s="72"/>
-      <c r="S96" s="72"/>
-      <c r="T96" s="72"/>
-      <c r="U96" s="72"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+      <c r="L96" s="54"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="54"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="54"/>
+      <c r="R96" s="54"/>
+      <c r="S96" s="54"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="54"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="72"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
-      <c r="N97" s="72"/>
-      <c r="O97" s="72"/>
-      <c r="P97" s="72"/>
-      <c r="Q97" s="72"/>
-      <c r="R97" s="72"/>
-      <c r="S97" s="72"/>
-      <c r="T97" s="72"/>
-      <c r="U97" s="72"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="54"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="54"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="54"/>
+      <c r="Q97" s="54"/>
+      <c r="R97" s="54"/>
+      <c r="S97" s="54"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="72" t="s">
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
-      <c r="N98" s="72"/>
-      <c r="O98" s="72"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="72"/>
-      <c r="R98" s="72"/>
-      <c r="S98" s="72"/>
-      <c r="T98" s="72"/>
-      <c r="U98" s="72"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="54"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="54"/>
+      <c r="Q98" s="54"/>
+      <c r="R98" s="54"/>
+      <c r="S98" s="54"/>
+      <c r="T98" s="54"/>
+      <c r="U98" s="54"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="72"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="54"/>
+      <c r="U99" s="54"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="54"/>
+      <c r="O100" s="54"/>
+      <c r="P100" s="54"/>
+      <c r="Q100" s="54"/>
+      <c r="R100" s="54"/>
+      <c r="S100" s="54"/>
+      <c r="T100" s="54"/>
+      <c r="U100" s="54"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="54"/>
+      <c r="R101" s="54"/>
+      <c r="S101" s="54"/>
+      <c r="T101" s="54"/>
+      <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="72" t="s">
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="54"/>
+      <c r="R102" s="54"/>
+      <c r="S102" s="54"/>
+      <c r="T102" s="54"/>
+      <c r="U102" s="54"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="O103" s="72"/>
-      <c r="P103" s="72"/>
-      <c r="Q103" s="72"/>
-      <c r="R103" s="72"/>
-      <c r="S103" s="72"/>
-      <c r="T103" s="72"/>
-      <c r="U103" s="72"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="72"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="72"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="72"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="54"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="54"/>
+      <c r="Q104" s="54"/>
+      <c r="R104" s="54"/>
+      <c r="S104" s="54"/>
+      <c r="T104" s="54"/>
+      <c r="U104" s="54"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="72" t="s">
+      <c r="B105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72" t="s">
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="72"/>
-      <c r="N105" s="72"/>
-      <c r="O105" s="72"/>
-      <c r="P105" s="72"/>
-      <c r="Q105" s="72" t="s">
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="72"/>
-      <c r="S105" s="72"/>
-      <c r="T105" s="72"/>
-      <c r="U105" s="72"/>
+      <c r="R105" s="54"/>
+      <c r="S105" s="54"/>
+      <c r="T105" s="54"/>
+      <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-      <c r="N106" s="72"/>
-      <c r="O106" s="72"/>
-      <c r="P106" s="72"/>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="72"/>
-      <c r="T106" s="72"/>
-      <c r="U106" s="72"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
+      <c r="P106" s="54"/>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="54"/>
+      <c r="T106" s="54"/>
+      <c r="U106" s="54"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="72"/>
-      <c r="R107" s="72"/>
-      <c r="S107" s="72"/>
-      <c r="T107" s="72"/>
-      <c r="U107" s="72"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
+      <c r="P107" s="54"/>
+      <c r="Q107" s="54"/>
+      <c r="R107" s="54"/>
+      <c r="S107" s="54"/>
+      <c r="T107" s="54"/>
+      <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="72"/>
-      <c r="N108" s="72"/>
-      <c r="O108" s="72"/>
-      <c r="P108" s="72"/>
-      <c r="Q108" s="72"/>
-      <c r="R108" s="72"/>
-      <c r="S108" s="72"/>
-      <c r="T108" s="72"/>
-      <c r="U108" s="72"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
+      <c r="O108" s="54"/>
+      <c r="P108" s="54"/>
+      <c r="Q108" s="54"/>
+      <c r="R108" s="54"/>
+      <c r="S108" s="54"/>
+      <c r="T108" s="54"/>
+      <c r="U108" s="54"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="73" t="s">
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="73" t="s">
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="73" t="s">
+      <c r="M109" s="62"/>
+      <c r="N109" s="62"/>
+      <c r="O109" s="62"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="75"/>
+      <c r="R109" s="62"/>
+      <c r="S109" s="62"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="63"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="78"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="78"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="77"/>
-      <c r="S110" s="77"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="78"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="65"/>
+      <c r="N110" s="65"/>
+      <c r="O110" s="65"/>
+      <c r="P110" s="66"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="65"/>
+      <c r="S110" s="65"/>
+      <c r="T110" s="65"/>
+      <c r="U110" s="66"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="78"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="64"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="65"/>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="66"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="77"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="77"/>
-      <c r="S112" s="77"/>
-      <c r="T112" s="77"/>
-      <c r="U112" s="78"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="65"/>
+      <c r="N112" s="65"/>
+      <c r="O112" s="65"/>
+      <c r="P112" s="66"/>
+      <c r="Q112" s="64"/>
+      <c r="R112" s="65"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="66"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="106"/>
-      <c r="E113" s="106"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="78"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="78"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="77"/>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="78"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="64"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="66"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="106"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="78"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="77"/>
-      <c r="T114" s="77"/>
-      <c r="U114" s="78"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="89"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="101"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="65"/>
+      <c r="N114" s="65"/>
+      <c r="O114" s="65"/>
+      <c r="P114" s="66"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="65"/>
+      <c r="S114" s="65"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="66"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="80"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="80"/>
-      <c r="N115" s="80"/>
-      <c r="O115" s="80"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="80"/>
-      <c r="S115" s="80"/>
-      <c r="T115" s="80"/>
-      <c r="U115" s="81"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="69"/>
+      <c r="Q115" s="67"/>
+      <c r="R115" s="68"/>
+      <c r="S115" s="68"/>
+      <c r="T115" s="68"/>
+      <c r="U115" s="69"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="95" t="s">
+      <c r="B116" s="89"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="72" t="s">
+      <c r="E116" s="77"/>
+      <c r="F116" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73" t="s">
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="74"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="73" t="s">
+      <c r="M116" s="62"/>
+      <c r="N116" s="62"/>
+      <c r="O116" s="62"/>
+      <c r="P116" s="63"/>
+      <c r="Q116" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="74"/>
-      <c r="S116" s="74"/>
-      <c r="T116" s="74"/>
-      <c r="U116" s="75"/>
+      <c r="R116" s="62"/>
+      <c r="S116" s="62"/>
+      <c r="T116" s="62"/>
+      <c r="U116" s="63"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="78"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="77"/>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="78"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="65"/>
+      <c r="N117" s="65"/>
+      <c r="O117" s="65"/>
+      <c r="P117" s="66"/>
+      <c r="Q117" s="64"/>
+      <c r="R117" s="65"/>
+      <c r="S117" s="65"/>
+      <c r="T117" s="65"/>
+      <c r="U117" s="66"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="78"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="77"/>
-      <c r="S118" s="77"/>
-      <c r="T118" s="77"/>
-      <c r="U118" s="78"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="79"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="64"/>
+      <c r="M118" s="65"/>
+      <c r="N118" s="65"/>
+      <c r="O118" s="65"/>
+      <c r="P118" s="66"/>
+      <c r="Q118" s="64"/>
+      <c r="R118" s="65"/>
+      <c r="S118" s="65"/>
+      <c r="T118" s="65"/>
+      <c r="U118" s="66"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="72" t="s">
+      <c r="B119" s="89"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="78"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="78"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="64"/>
+      <c r="M119" s="65"/>
+      <c r="N119" s="65"/>
+      <c r="O119" s="65"/>
+      <c r="P119" s="66"/>
+      <c r="Q119" s="64"/>
+      <c r="R119" s="65"/>
+      <c r="S119" s="65"/>
+      <c r="T119" s="65"/>
+      <c r="U119" s="66"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="76"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="77"/>
-      <c r="P120" s="78"/>
-      <c r="Q120" s="76"/>
-      <c r="R120" s="77"/>
-      <c r="S120" s="77"/>
-      <c r="T120" s="77"/>
-      <c r="U120" s="78"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="79"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="64"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="65"/>
+      <c r="P120" s="66"/>
+      <c r="Q120" s="64"/>
+      <c r="R120" s="65"/>
+      <c r="S120" s="65"/>
+      <c r="T120" s="65"/>
+      <c r="U120" s="66"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="72"/>
-      <c r="K121" s="72"/>
-      <c r="L121" s="76"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="76"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="78"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="79"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="65"/>
+      <c r="N121" s="65"/>
+      <c r="O121" s="65"/>
+      <c r="P121" s="66"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="65"/>
+      <c r="S121" s="65"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="66"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="78"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="78"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="65"/>
+      <c r="N122" s="65"/>
+      <c r="O122" s="65"/>
+      <c r="P122" s="66"/>
+      <c r="Q122" s="64"/>
+      <c r="R122" s="65"/>
+      <c r="S122" s="65"/>
+      <c r="T122" s="65"/>
+      <c r="U122" s="66"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81"/>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="81"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="78"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="68"/>
+      <c r="N123" s="68"/>
+      <c r="O123" s="68"/>
+      <c r="P123" s="69"/>
+      <c r="Q123" s="67"/>
+      <c r="R123" s="68"/>
+      <c r="S123" s="68"/>
+      <c r="T123" s="68"/>
+      <c r="U123" s="69"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="72" t="s">
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="73" t="s">
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="75"/>
-      <c r="Q124" s="73" t="s">
+      <c r="M124" s="62"/>
+      <c r="N124" s="62"/>
+      <c r="O124" s="62"/>
+      <c r="P124" s="63"/>
+      <c r="Q124" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="74"/>
-      <c r="S124" s="74"/>
-      <c r="T124" s="74"/>
-      <c r="U124" s="75"/>
+      <c r="R124" s="62"/>
+      <c r="S124" s="62"/>
+      <c r="T124" s="62"/>
+      <c r="U124" s="63"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="98"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="76"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="76"/>
-      <c r="R125" s="77"/>
-      <c r="S125" s="77"/>
-      <c r="T125" s="77"/>
-      <c r="U125" s="78"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="64"/>
+      <c r="M125" s="65"/>
+      <c r="N125" s="65"/>
+      <c r="O125" s="65"/>
+      <c r="P125" s="66"/>
+      <c r="Q125" s="64"/>
+      <c r="R125" s="65"/>
+      <c r="S125" s="65"/>
+      <c r="T125" s="65"/>
+      <c r="U125" s="66"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="98"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="76"/>
-      <c r="M126" s="77"/>
-      <c r="N126" s="77"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="78"/>
-      <c r="Q126" s="76"/>
-      <c r="R126" s="77"/>
-      <c r="S126" s="77"/>
-      <c r="T126" s="77"/>
-      <c r="U126" s="78"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="64"/>
+      <c r="M126" s="65"/>
+      <c r="N126" s="65"/>
+      <c r="O126" s="65"/>
+      <c r="P126" s="66"/>
+      <c r="Q126" s="64"/>
+      <c r="R126" s="65"/>
+      <c r="S126" s="65"/>
+      <c r="T126" s="65"/>
+      <c r="U126" s="66"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="76"/>
-      <c r="M127" s="77"/>
-      <c r="N127" s="77"/>
-      <c r="O127" s="77"/>
-      <c r="P127" s="78"/>
-      <c r="Q127" s="76"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="77"/>
-      <c r="T127" s="77"/>
-      <c r="U127" s="78"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="64"/>
+      <c r="M127" s="65"/>
+      <c r="N127" s="65"/>
+      <c r="O127" s="65"/>
+      <c r="P127" s="66"/>
+      <c r="Q127" s="64"/>
+      <c r="R127" s="65"/>
+      <c r="S127" s="65"/>
+      <c r="T127" s="65"/>
+      <c r="U127" s="66"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="76"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="78"/>
-      <c r="Q128" s="76"/>
-      <c r="R128" s="77"/>
-      <c r="S128" s="77"/>
-      <c r="T128" s="77"/>
-      <c r="U128" s="78"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="64"/>
+      <c r="M128" s="65"/>
+      <c r="N128" s="65"/>
+      <c r="O128" s="65"/>
+      <c r="P128" s="66"/>
+      <c r="Q128" s="64"/>
+      <c r="R128" s="65"/>
+      <c r="S128" s="65"/>
+      <c r="T128" s="65"/>
+      <c r="U128" s="66"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="98"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="81"/>
-      <c r="Q129" s="79"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="81"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="68"/>
+      <c r="O129" s="68"/>
+      <c r="P129" s="69"/>
+      <c r="Q129" s="67"/>
+      <c r="R129" s="68"/>
+      <c r="S129" s="68"/>
+      <c r="T129" s="68"/>
+      <c r="U129" s="69"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="72" t="s">
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="79"/>
+      <c r="F130" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="73" t="s">
+      <c r="G130" s="54"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="74"/>
-      <c r="N130" s="74"/>
-      <c r="O130" s="74"/>
-      <c r="P130" s="75"/>
-      <c r="Q130" s="73" t="s">
+      <c r="M130" s="62"/>
+      <c r="N130" s="62"/>
+      <c r="O130" s="62"/>
+      <c r="P130" s="63"/>
+      <c r="Q130" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="74"/>
-      <c r="S130" s="74"/>
-      <c r="T130" s="74"/>
-      <c r="U130" s="75"/>
+      <c r="R130" s="62"/>
+      <c r="S130" s="62"/>
+      <c r="T130" s="62"/>
+      <c r="U130" s="63"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="76"/>
-      <c r="M131" s="77"/>
-      <c r="N131" s="77"/>
-      <c r="O131" s="77"/>
-      <c r="P131" s="78"/>
-      <c r="Q131" s="76"/>
-      <c r="R131" s="77"/>
-      <c r="S131" s="77"/>
-      <c r="T131" s="77"/>
-      <c r="U131" s="78"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="65"/>
+      <c r="N131" s="65"/>
+      <c r="O131" s="65"/>
+      <c r="P131" s="66"/>
+      <c r="Q131" s="64"/>
+      <c r="R131" s="65"/>
+      <c r="S131" s="65"/>
+      <c r="T131" s="65"/>
+      <c r="U131" s="66"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="76"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="77"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="78"/>
-      <c r="Q132" s="76"/>
-      <c r="R132" s="77"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="77"/>
-      <c r="U132" s="78"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="79"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="64"/>
+      <c r="M132" s="65"/>
+      <c r="N132" s="65"/>
+      <c r="O132" s="65"/>
+      <c r="P132" s="66"/>
+      <c r="Q132" s="64"/>
+      <c r="R132" s="65"/>
+      <c r="S132" s="65"/>
+      <c r="T132" s="65"/>
+      <c r="U132" s="66"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="77"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="78"/>
-      <c r="Q133" s="76"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="78"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="64"/>
+      <c r="M133" s="65"/>
+      <c r="N133" s="65"/>
+      <c r="O133" s="65"/>
+      <c r="P133" s="66"/>
+      <c r="Q133" s="64"/>
+      <c r="R133" s="65"/>
+      <c r="S133" s="65"/>
+      <c r="T133" s="65"/>
+      <c r="U133" s="66"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="98"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="72"/>
-      <c r="L134" s="76"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="78"/>
-      <c r="Q134" s="76"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="78"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="79"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="64"/>
+      <c r="M134" s="65"/>
+      <c r="N134" s="65"/>
+      <c r="O134" s="65"/>
+      <c r="P134" s="66"/>
+      <c r="Q134" s="64"/>
+      <c r="R134" s="65"/>
+      <c r="S134" s="65"/>
+      <c r="T134" s="65"/>
+      <c r="U134" s="66"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="95" t="s">
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="73" t="s">
+      <c r="E135" s="77"/>
+      <c r="F135" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="73" t="s">
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
+      <c r="K135" s="63"/>
+      <c r="L135" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="74"/>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="75"/>
-      <c r="Q135" s="73" t="s">
+      <c r="M135" s="62"/>
+      <c r="N135" s="62"/>
+      <c r="O135" s="62"/>
+      <c r="P135" s="63"/>
+      <c r="Q135" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="74"/>
-      <c r="S135" s="74"/>
-      <c r="T135" s="74"/>
-      <c r="U135" s="75"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
+      <c r="U135" s="63"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="78"/>
-      <c r="L136" s="76"/>
-      <c r="M136" s="77"/>
-      <c r="N136" s="77"/>
-      <c r="O136" s="77"/>
-      <c r="P136" s="78"/>
-      <c r="Q136" s="76"/>
-      <c r="R136" s="77"/>
-      <c r="S136" s="77"/>
-      <c r="T136" s="77"/>
-      <c r="U136" s="78"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="79"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="64"/>
+      <c r="M136" s="65"/>
+      <c r="N136" s="65"/>
+      <c r="O136" s="65"/>
+      <c r="P136" s="66"/>
+      <c r="Q136" s="64"/>
+      <c r="R136" s="65"/>
+      <c r="S136" s="65"/>
+      <c r="T136" s="65"/>
+      <c r="U136" s="66"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="97"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="80"/>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="80"/>
-      <c r="K137" s="81"/>
-      <c r="L137" s="76"/>
-      <c r="M137" s="77"/>
-      <c r="N137" s="77"/>
-      <c r="O137" s="77"/>
-      <c r="P137" s="78"/>
-      <c r="Q137" s="79"/>
-      <c r="R137" s="80"/>
-      <c r="S137" s="80"/>
-      <c r="T137" s="80"/>
-      <c r="U137" s="81"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
+      <c r="I137" s="68"/>
+      <c r="J137" s="68"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="64"/>
+      <c r="M137" s="65"/>
+      <c r="N137" s="65"/>
+      <c r="O137" s="65"/>
+      <c r="P137" s="66"/>
+      <c r="Q137" s="67"/>
+      <c r="R137" s="68"/>
+      <c r="S137" s="68"/>
+      <c r="T137" s="68"/>
+      <c r="U137" s="69"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="98"/>
-      <c r="F138" s="73" t="s">
+      <c r="B138" s="89"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="74"/>
-      <c r="K138" s="75"/>
-      <c r="L138" s="73" t="s">
+      <c r="G138" s="62"/>
+      <c r="H138" s="62"/>
+      <c r="I138" s="62"/>
+      <c r="J138" s="62"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="74"/>
-      <c r="N138" s="74"/>
-      <c r="O138" s="74"/>
-      <c r="P138" s="75"/>
-      <c r="Q138" s="72" t="s">
+      <c r="M138" s="62"/>
+      <c r="N138" s="62"/>
+      <c r="O138" s="62"/>
+      <c r="P138" s="63"/>
+      <c r="Q138" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="72"/>
-      <c r="S138" s="72"/>
-      <c r="T138" s="72"/>
-      <c r="U138" s="72"/>
+      <c r="R138" s="54"/>
+      <c r="S138" s="54"/>
+      <c r="T138" s="54"/>
+      <c r="U138" s="54"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="98"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="78"/>
-      <c r="L139" s="76"/>
-      <c r="M139" s="77"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="77"/>
-      <c r="P139" s="78"/>
-      <c r="Q139" s="72"/>
-      <c r="R139" s="72"/>
-      <c r="S139" s="72"/>
-      <c r="T139" s="72"/>
-      <c r="U139" s="72"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="78"/>
+      <c r="E139" s="79"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="64"/>
+      <c r="M139" s="65"/>
+      <c r="N139" s="65"/>
+      <c r="O139" s="65"/>
+      <c r="P139" s="66"/>
+      <c r="Q139" s="54"/>
+      <c r="R139" s="54"/>
+      <c r="S139" s="54"/>
+      <c r="T139" s="54"/>
+      <c r="U139" s="54"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="97"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="78"/>
-      <c r="L140" s="76"/>
-      <c r="M140" s="77"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="78"/>
-      <c r="Q140" s="72"/>
-      <c r="R140" s="72"/>
-      <c r="S140" s="72"/>
-      <c r="T140" s="72"/>
-      <c r="U140" s="72"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="78"/>
+      <c r="E140" s="79"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="66"/>
+      <c r="L140" s="64"/>
+      <c r="M140" s="65"/>
+      <c r="N140" s="65"/>
+      <c r="O140" s="65"/>
+      <c r="P140" s="66"/>
+      <c r="Q140" s="54"/>
+      <c r="R140" s="54"/>
+      <c r="S140" s="54"/>
+      <c r="T140" s="54"/>
+      <c r="U140" s="54"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="78"/>
-      <c r="L141" s="76"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="77"/>
-      <c r="P141" s="78"/>
-      <c r="Q141" s="72"/>
-      <c r="R141" s="72"/>
-      <c r="S141" s="72"/>
-      <c r="T141" s="72"/>
-      <c r="U141" s="72"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="78"/>
+      <c r="E141" s="79"/>
+      <c r="F141" s="64"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="66"/>
+      <c r="L141" s="64"/>
+      <c r="M141" s="65"/>
+      <c r="N141" s="65"/>
+      <c r="O141" s="65"/>
+      <c r="P141" s="66"/>
+      <c r="Q141" s="54"/>
+      <c r="R141" s="54"/>
+      <c r="S141" s="54"/>
+      <c r="T141" s="54"/>
+      <c r="U141" s="54"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="78"/>
-      <c r="L142" s="76"/>
-      <c r="M142" s="77"/>
-      <c r="N142" s="77"/>
-      <c r="O142" s="77"/>
-      <c r="P142" s="78"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="79"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="66"/>
+      <c r="L142" s="64"/>
+      <c r="M142" s="65"/>
+      <c r="N142" s="65"/>
+      <c r="O142" s="65"/>
+      <c r="P142" s="66"/>
+      <c r="Q142" s="54"/>
+      <c r="R142" s="54"/>
+      <c r="S142" s="54"/>
+      <c r="T142" s="54"/>
+      <c r="U142" s="54"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="78"/>
-      <c r="L143" s="76"/>
-      <c r="M143" s="77"/>
-      <c r="N143" s="77"/>
-      <c r="O143" s="77"/>
-      <c r="P143" s="78"/>
-      <c r="Q143" s="72"/>
-      <c r="R143" s="72"/>
-      <c r="S143" s="72"/>
-      <c r="T143" s="72"/>
-      <c r="U143" s="72"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="64"/>
+      <c r="M143" s="65"/>
+      <c r="N143" s="65"/>
+      <c r="O143" s="65"/>
+      <c r="P143" s="66"/>
+      <c r="Q143" s="54"/>
+      <c r="R143" s="54"/>
+      <c r="S143" s="54"/>
+      <c r="T143" s="54"/>
+      <c r="U143" s="54"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="99"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="81"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="80"/>
-      <c r="N144" s="80"/>
-      <c r="O144" s="80"/>
-      <c r="P144" s="81"/>
-      <c r="Q144" s="72"/>
-      <c r="R144" s="72"/>
-      <c r="S144" s="72"/>
-      <c r="T144" s="72"/>
-      <c r="U144" s="72"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="67"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="68"/>
+      <c r="O144" s="68"/>
+      <c r="P144" s="69"/>
+      <c r="Q144" s="54"/>
+      <c r="R144" s="54"/>
+      <c r="S144" s="54"/>
+      <c r="T144" s="54"/>
+      <c r="U144" s="54"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="119" t="s">
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="119"/>
-      <c r="F145" s="72" t="s">
+      <c r="E145" s="83"/>
+      <c r="F145" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72" t="s">
+      <c r="G145" s="54"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72" t="s">
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="54"/>
+      <c r="Q145" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="72"/>
-      <c r="S145" s="72"/>
-      <c r="T145" s="72"/>
-      <c r="U145" s="72"/>
+      <c r="R145" s="54"/>
+      <c r="S145" s="54"/>
+      <c r="T145" s="54"/>
+      <c r="U145" s="54"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="94"/>
-      <c r="M146" s="94"/>
-      <c r="N146" s="94"/>
-      <c r="O146" s="94"/>
-      <c r="P146" s="94"/>
-      <c r="Q146" s="94"/>
-      <c r="R146" s="94"/>
-      <c r="S146" s="94"/>
-      <c r="T146" s="94"/>
-      <c r="U146" s="94"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="82"/>
+      <c r="M146" s="82"/>
+      <c r="N146" s="82"/>
+      <c r="O146" s="82"/>
+      <c r="P146" s="82"/>
+      <c r="Q146" s="82"/>
+      <c r="R146" s="82"/>
+      <c r="S146" s="82"/>
+      <c r="T146" s="82"/>
+      <c r="U146" s="82"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="119"/>
-      <c r="E147" s="119"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
-      <c r="H147" s="72"/>
-      <c r="I147" s="72"/>
-      <c r="J147" s="72"/>
-      <c r="K147" s="72"/>
-      <c r="L147" s="94"/>
-      <c r="M147" s="94"/>
-      <c r="N147" s="94"/>
-      <c r="O147" s="94"/>
-      <c r="P147" s="94"/>
-      <c r="Q147" s="94"/>
-      <c r="R147" s="94"/>
-      <c r="S147" s="94"/>
-      <c r="T147" s="94"/>
-      <c r="U147" s="94"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="82"/>
+      <c r="M147" s="82"/>
+      <c r="N147" s="82"/>
+      <c r="O147" s="82"/>
+      <c r="P147" s="82"/>
+      <c r="Q147" s="82"/>
+      <c r="R147" s="82"/>
+      <c r="S147" s="82"/>
+      <c r="T147" s="82"/>
+      <c r="U147" s="82"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="119"/>
-      <c r="E148" s="119"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
-      <c r="L148" s="94"/>
-      <c r="M148" s="94"/>
-      <c r="N148" s="94"/>
-      <c r="O148" s="94"/>
-      <c r="P148" s="94"/>
-      <c r="Q148" s="94"/>
-      <c r="R148" s="94"/>
-      <c r="S148" s="94"/>
-      <c r="T148" s="94"/>
-      <c r="U148" s="94"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="82"/>
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="82"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6711,18 +6716,86 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q105:U108"/>
+    <mergeCell ref="L116:P123"/>
+    <mergeCell ref="Q116:U123"/>
+    <mergeCell ref="L64:P78"/>
+    <mergeCell ref="Q64:U78"/>
+    <mergeCell ref="L89:P94"/>
+    <mergeCell ref="Q89:U94"/>
+    <mergeCell ref="B24:B41"/>
+    <mergeCell ref="B42:B94"/>
+    <mergeCell ref="B95:B148"/>
+    <mergeCell ref="C24:C41"/>
+    <mergeCell ref="C42:C94"/>
+    <mergeCell ref="C95:C148"/>
+    <mergeCell ref="D39:E41"/>
+    <mergeCell ref="D35:E38"/>
+    <mergeCell ref="D24:E27"/>
+    <mergeCell ref="D135:E144"/>
+    <mergeCell ref="D95:E115"/>
+    <mergeCell ref="D89:E94"/>
+    <mergeCell ref="D84:E88"/>
+    <mergeCell ref="L28:P34"/>
+    <mergeCell ref="Q28:U34"/>
+    <mergeCell ref="L42:P45"/>
+    <mergeCell ref="Q42:U45"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
     <mergeCell ref="D64:E83"/>
     <mergeCell ref="D28:E34"/>
     <mergeCell ref="D42:E48"/>
@@ -6747,86 +6820,18 @@
     <mergeCell ref="F28:K32"/>
     <mergeCell ref="F33:K34"/>
     <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q105:U108"/>
-    <mergeCell ref="L116:P123"/>
-    <mergeCell ref="Q116:U123"/>
-    <mergeCell ref="L64:P78"/>
-    <mergeCell ref="Q64:U78"/>
-    <mergeCell ref="L89:P94"/>
-    <mergeCell ref="Q89:U94"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="B42:B94"/>
-    <mergeCell ref="B95:B148"/>
-    <mergeCell ref="C24:C41"/>
-    <mergeCell ref="C42:C94"/>
-    <mergeCell ref="C95:C148"/>
-    <mergeCell ref="D39:E41"/>
-    <mergeCell ref="D35:E38"/>
-    <mergeCell ref="D24:E27"/>
-    <mergeCell ref="D135:E144"/>
-    <mergeCell ref="D95:E115"/>
-    <mergeCell ref="D89:E94"/>
-    <mergeCell ref="D84:E88"/>
-    <mergeCell ref="L28:P34"/>
-    <mergeCell ref="Q28:U34"/>
-    <mergeCell ref="L42:P45"/>
-    <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6836,11 +6841,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
@@ -7026,29 +7031,25 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
-        <v>139</v>
-      </c>
+      <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="I8" s="43">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43" t="s">
         <v>152</v>
       </c>
       <c r="L8" s="42"/>
-      <c r="M8" s="127" t="s">
-        <v>244</v>
-      </c>
+      <c r="M8" s="127"/>
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
@@ -7070,7 +7071,7 @@
         <v>161</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="I9" s="43">
         <v>40</v>
@@ -7136,7 +7137,7 @@
         <v>208</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -7450,16 +7451,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7472,6 +7463,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7479,7 +7480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7709,7 +7710,7 @@
         <v>206</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" s="43">
         <v>128</v>
@@ -7741,7 +7742,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -7771,7 +7772,7 @@
         <v>260</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -8087,16 +8088,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8109,6 +8100,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8116,7 +8117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8173,7 +8174,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8282,7 +8283,7 @@
         <v>150</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I7" s="43">
         <v>40</v>
@@ -8312,13 +8313,13 @@
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -8344,13 +8345,13 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" s="43">
         <v>40</v>
@@ -8372,10 +8373,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>165</v>
@@ -8400,13 +8401,13 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>274</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>275</v>
       </c>
       <c r="I11" s="43">
         <v>4</v>
@@ -8415,7 +8416,7 @@
       <c r="K11" s="43"/>
       <c r="L11" s="42"/>
       <c r="M11" s="127" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
@@ -8430,13 +8431,13 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G12" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="43" t="s">
         <v>276</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>277</v>
       </c>
       <c r="I12" s="43">
         <v>40</v>
@@ -8458,13 +8459,13 @@
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I13" s="43">
         <v>14</v>
@@ -8486,13 +8487,13 @@
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I14" s="43">
         <v>512</v>
@@ -8514,13 +8515,13 @@
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I15" s="43">
         <v>512</v>
@@ -8542,13 +8543,13 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16" s="43">
         <v>14</v>
@@ -8570,13 +8571,13 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I17" s="43">
         <v>8</v>
@@ -8585,7 +8586,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N17" s="128"/>
       <c r="O17" s="129"/>
@@ -8600,20 +8601,20 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
       <c r="F18" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="43">
         <v>200</v>
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L18" s="42"/>
       <c r="M18" s="127"/>
@@ -8630,13 +8631,13 @@
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" s="43">
         <v>200</v>
@@ -8658,13 +8659,13 @@
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" s="43">
         <v>200</v>
@@ -8686,10 +8687,10 @@
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" s="43"/>
       <c r="I21" s="43">
@@ -8712,13 +8713,13 @@
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I22" s="43">
         <v>200</v>
@@ -8746,7 +8747,7 @@
         <v>208</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
@@ -8774,7 +8775,7 @@
         <v>211</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="43"/>
@@ -8850,16 +8851,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8872,6 +8863,16 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8879,7 +8880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8894,7 +8895,7 @@
     <row r="1" spans="1:15" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8930,13 +8931,13 @@
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8951,7 +8952,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9056,7 +9057,7 @@
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
@@ -9071,13 +9072,13 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -9101,13 +9102,13 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>373</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>374</v>
       </c>
       <c r="I9" s="43">
         <v>30</v>
@@ -9131,13 +9132,13 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I10" s="43">
         <v>40</v>
@@ -9161,10 +9162,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>142</v>
@@ -9178,7 +9179,7 @@
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N11" s="132"/>
       <c r="O11" s="133"/>
@@ -9193,10 +9194,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>142</v>
@@ -9208,7 +9209,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="42"/>
       <c r="M12" s="127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
@@ -9229,7 +9230,7 @@
         <v>208</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -9543,6 +9544,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
@@ -9559,14 +9568,6 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9574,10 +9575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -9589,7 +9590,7 @@
     <row r="1" spans="1:15" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9625,13 +9626,13 @@
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9646,7 +9647,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9751,7 +9752,7 @@
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
@@ -9766,13 +9767,13 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -9796,13 +9797,13 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>373</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>374</v>
       </c>
       <c r="I9" s="43">
         <v>30</v>
@@ -9826,13 +9827,13 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I10" s="43">
         <v>40</v>
@@ -9856,10 +9857,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>142</v>
@@ -9873,7 +9874,7 @@
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="127" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
@@ -9894,7 +9895,7 @@
         <v>208</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
@@ -10188,16 +10189,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10210,6 +10201,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10217,7 +10218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10285,12 +10286,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10305,12 +10306,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -10325,12 +10326,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
+      <c r="F9" s="121" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -10343,14 +10344,14 @@
         <v>20140709</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+        <v>338</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -10359,10 +10360,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -10371,10 +10372,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -10383,10 +10384,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -10395,10 +10396,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -10407,10 +10408,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -10419,10 +10420,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -10431,10 +10432,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -10443,10 +10444,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -10455,10 +10456,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -10467,10 +10468,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -10479,10 +10480,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -10491,10 +10492,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -10503,10 +10504,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -10515,10 +10516,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -10527,10 +10528,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -10539,10 +10540,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -10551,34 +10552,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10591,7 +10592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10630,196 +10631,206 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
+      <c r="C5" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="124" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
+      <c r="C6" s="123" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
+      <c r="C7" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="124" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
+      <c r="C8" s="123" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="124" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
+      <c r="C9" s="123" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="123" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="124" t="s">
-        <v>361</v>
-      </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
+      <c r="C13" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="124" t="s">
-        <v>362</v>
-      </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
+      <c r="C14" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
+      <c r="C15" s="123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -10828,16 +10839,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C6 B8:C9 B7 B10:B12 B13:C21">
@@ -10901,7 +10902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11054,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>258</v>
@@ -11092,13 +11093,13 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>337</v>
-      </c>
       <c r="H8" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I8" s="43">
         <v>40</v>
@@ -11109,7 +11110,7 @@
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="127" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
@@ -11121,7 +11122,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -11132,7 +11133,7 @@
         <v>192</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I9" s="43">
         <v>200</v>
@@ -11158,10 +11159,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>183</v>
@@ -11173,7 +11174,7 @@
       <c r="K10" s="43"/>
       <c r="L10" s="42"/>
       <c r="M10" s="127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
@@ -11188,10 +11189,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>165</v>
@@ -11203,7 +11204,7 @@
       <c r="K11" s="43"/>
       <c r="L11" s="42"/>
       <c r="M11" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
@@ -11218,10 +11219,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>165</v>
@@ -11233,7 +11234,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="42"/>
       <c r="M12" s="127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
@@ -11251,10 +11252,10 @@
         <v>195</v>
       </c>
       <c r="G13" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="43" t="s">
         <v>331</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>332</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -11265,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N13" s="128"/>
       <c r="O13" s="129"/>
@@ -11286,7 +11287,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
@@ -11316,7 +11317,7 @@
         <v>173</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
@@ -11612,16 +11613,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11637,6 +11628,16 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11644,7 +11645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11810,7 +11811,7 @@
         <v>161</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" s="43">
         <v>40</v>
@@ -11904,7 +11905,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -12240,16 +12241,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12262,6 +12253,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12270,7 +12271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12570,7 +12571,7 @@
         <v>253</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -12884,16 +12885,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12906,6 +12897,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12913,7 +12914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13139,10 +13140,10 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>145</v>
@@ -13158,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
@@ -13173,10 +13174,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>142</v>
@@ -13192,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
@@ -13207,10 +13208,10 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>142</v>
@@ -13226,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
@@ -13241,10 +13242,10 @@
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>142</v>
@@ -13260,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
@@ -13281,7 +13282,7 @@
         <v>253</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -13595,16 +13596,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13619,6 +13610,16 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13627,7 +13628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13642,7 +13643,7 @@
     <row r="1" spans="1:15" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13678,13 +13679,13 @@
     <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -13699,7 +13700,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13853,10 +13854,10 @@
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>162</v>
@@ -13870,7 +13871,7 @@
       </c>
       <c r="L9" s="42"/>
       <c r="M9" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
@@ -13885,13 +13886,13 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G10" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>349</v>
       </c>
       <c r="I10" s="43">
         <v>8</v>
@@ -13902,7 +13903,7 @@
       </c>
       <c r="L10" s="42"/>
       <c r="M10" s="127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
@@ -13917,13 +13918,13 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G11" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" s="43" t="s">
         <v>305</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>306</v>
       </c>
       <c r="I11" s="43">
         <v>8</v>
@@ -13934,7 +13935,7 @@
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="127" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
@@ -13989,7 +13990,7 @@
         <v>253</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
@@ -14303,16 +14304,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14327,6 +14318,16 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14334,7 +14335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14598,7 +14599,7 @@
         <v>208</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
@@ -14628,7 +14629,7 @@
         <v>173</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -14958,16 +14959,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14980,6 +14971,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="7845" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,17 +25,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库结构一览表!#REF!</definedName>
     <definedName name="createtime">版本履历!$E$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
     <definedName name="project">版本履历!$B$4:$B$5</definedName>
     <definedName name="title">版本履历!$B$4:$I$5</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="397">
   <si>
     <t>风险分类</t>
   </si>
@@ -1792,11 +1792,47 @@
   <si>
     <t>varchar</t>
   </si>
+  <si>
+    <t>SYNC_TYPE</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYNC_STATUS</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步渠道类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步渠道状态</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 :新增渠道 1:修改渠道</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -2307,25 +2343,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2355,22 +2427,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,48 +2482,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2469,50 +2520,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2522,9 +2561,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2549,9 +2585,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2966,7 +3002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3010,13 +3046,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -3031,22 +3067,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
     </row>
     <row r="4" spans="1:21" ht="13.5">
       <c r="A4" s="26"/>
@@ -3062,24 +3098,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3092,28 +3128,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="56">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
     </row>
     <row r="6" spans="1:21" ht="13.5">
       <c r="A6" s="26"/>
-      <c r="B6" s="94"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3124,23 +3160,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
     </row>
     <row r="7" spans="1:21" ht="13.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="94"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3151,23 +3187,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
     </row>
     <row r="8" spans="1:21" ht="13.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="95"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3178,23 +3214,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3207,28 +3243,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="56">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
     </row>
     <row r="10" spans="1:21" ht="13.5">
       <c r="A10" s="26"/>
-      <c r="B10" s="89"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3239,23 +3275,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
     </row>
     <row r="11" spans="1:21" ht="13.5">
       <c r="A11" s="26"/>
-      <c r="B11" s="89"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3266,23 +3302,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
     </row>
     <row r="12" spans="1:21" ht="13.5">
       <c r="A12" s="26"/>
-      <c r="B12" s="89"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3293,23 +3329,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
     </row>
     <row r="13" spans="1:21" ht="13.5">
       <c r="A13" s="26"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3320,23 +3356,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
     </row>
     <row r="14" spans="1:21" ht="13.5">
       <c r="A14" s="26"/>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="67" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3349,28 +3385,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="56">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
     </row>
     <row r="15" spans="1:21" ht="13.5">
       <c r="A15" s="26"/>
-      <c r="B15" s="117"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3381,23 +3417,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
     </row>
     <row r="16" spans="1:21" ht="13.5">
       <c r="A16" s="26"/>
-      <c r="B16" s="117"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3408,23 +3444,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
     </row>
     <row r="17" spans="1:21" ht="13.5">
       <c r="A17" s="26"/>
-      <c r="B17" s="118"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3435,19 +3471,19 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
     </row>
     <row r="18" spans="1:21" ht="13.5">
       <c r="A18" s="26"/>
@@ -3571,3098 +3607,3098 @@
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114" t="s">
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
     </row>
     <row r="24" spans="1:21" ht="13.5">
       <c r="A24" s="26"/>
-      <c r="B24" s="88">
+      <c r="B24" s="64">
         <v>1</v>
       </c>
       <c r="C24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="101"/>
+      <c r="F24" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="54" t="s">
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54" t="s">
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
     </row>
     <row r="25" spans="1:21" ht="13.5">
       <c r="A25" s="26"/>
-      <c r="B25" s="89"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="92"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
     </row>
     <row r="26" spans="1:21" ht="13.5">
       <c r="A26" s="26"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="92"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="61" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
     </row>
     <row r="27" spans="1:21" ht="13.5">
       <c r="A27" s="26"/>
-      <c r="B27" s="89"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="92"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
     </row>
     <row r="28" spans="1:21" ht="13.5">
       <c r="A28" s="26"/>
-      <c r="B28" s="89"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="92"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="61" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="54" t="s">
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54" t="s">
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
     </row>
     <row r="29" spans="1:21" ht="13.5">
       <c r="A29" s="26"/>
-      <c r="B29" s="89"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
     </row>
     <row r="30" spans="1:21" ht="13.5">
       <c r="A30" s="26"/>
-      <c r="B30" s="89"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
     </row>
     <row r="31" spans="1:21" ht="13.5">
       <c r="A31" s="26"/>
-      <c r="B31" s="89"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
     </row>
     <row r="32" spans="1:21" ht="13.5">
       <c r="A32" s="26"/>
-      <c r="B32" s="89"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
     </row>
     <row r="33" spans="1:21" ht="13.5">
       <c r="A33" s="26"/>
-      <c r="B33" s="89"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="61" t="s">
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
     </row>
     <row r="34" spans="1:21" ht="13.5">
       <c r="A34" s="26"/>
-      <c r="B34" s="89"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
     </row>
     <row r="35" spans="1:21" ht="13.5">
       <c r="A35" s="26"/>
-      <c r="B35" s="89"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="92"/>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="61" t="s">
+      <c r="E35" s="96"/>
+      <c r="F35" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="54" t="s">
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54" t="s">
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
     </row>
     <row r="36" spans="1:21" ht="13.5">
       <c r="A36" s="26"/>
-      <c r="B36" s="89"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="92"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
     </row>
     <row r="37" spans="1:21" ht="13.5">
       <c r="A37" s="26"/>
-      <c r="B37" s="89"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="92"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="61" t="s">
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
     </row>
     <row r="38" spans="1:21" ht="13.5">
       <c r="A38" s="25"/>
-      <c r="B38" s="89"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
     </row>
     <row r="39" spans="1:21" ht="13.5">
       <c r="A39" s="25"/>
-      <c r="B39" s="89"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="92"/>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="61" t="s">
+      <c r="E39" s="94"/>
+      <c r="F39" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="54" t="s">
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54" t="s">
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
     </row>
     <row r="40" spans="1:21" ht="13.5">
       <c r="A40" s="25"/>
-      <c r="B40" s="89"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="92"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
     </row>
     <row r="41" spans="1:21" ht="13.5">
       <c r="A41" s="25"/>
-      <c r="B41" s="89"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
     </row>
     <row r="42" spans="1:21" ht="13.5">
       <c r="A42" s="25"/>
-      <c r="B42" s="89">
+      <c r="B42" s="65">
         <v>2</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="61" t="s">
+      <c r="E42" s="94"/>
+      <c r="F42" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="54" t="s">
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54" t="s">
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
     </row>
     <row r="43" spans="1:21" ht="13.5">
       <c r="A43" s="25"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
     </row>
     <row r="44" spans="1:21" ht="13.5">
       <c r="A44" s="25"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
     </row>
     <row r="45" spans="1:21" ht="13.5">
       <c r="A45" s="25"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
     </row>
     <row r="46" spans="1:21" ht="13.5">
       <c r="A46" s="25"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="61" t="s">
+      <c r="B46" s="65"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="54" t="s">
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54" t="s">
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
     </row>
     <row r="47" spans="1:21" ht="13.5">
       <c r="A47" s="25"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
     </row>
     <row r="48" spans="1:21" ht="13.5">
       <c r="A48" s="25"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
     </row>
     <row r="49" spans="1:21" ht="13.5">
       <c r="A49" s="25"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="76" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="77"/>
-      <c r="F49" s="61" t="s">
+      <c r="E49" s="96"/>
+      <c r="F49" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="54" t="s">
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54" t="s">
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
     </row>
     <row r="50" spans="1:21" ht="13.5">
       <c r="A50" s="25"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
     </row>
     <row r="51" spans="1:21" ht="13.5">
       <c r="A51" s="25"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="61" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" spans="1:21" ht="13.5">
       <c r="A52" s="25"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
     </row>
     <row r="53" spans="1:21" ht="13.5">
       <c r="A53" s="25"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="61" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="61" t="s">
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="61" t="s">
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="63"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="75"/>
     </row>
     <row r="54" spans="1:21" ht="13.5">
       <c r="A54" s="25"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="66"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="78"/>
     </row>
     <row r="55" spans="1:21" ht="13.5">
       <c r="A55" s="25"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="78"/>
     </row>
     <row r="56" spans="1:21" ht="13.5">
       <c r="A56" s="25"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="66"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="78"/>
     </row>
     <row r="57" spans="1:21" ht="13.5">
       <c r="A57" s="25"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="65"/>
-      <c r="U57" s="66"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="78"/>
     </row>
     <row r="58" spans="1:21" ht="13.5">
       <c r="A58" s="25"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="61" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="64"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="66"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="78"/>
     </row>
     <row r="59" spans="1:21" ht="13.5">
       <c r="A59" s="25"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="66"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="78"/>
     </row>
     <row r="60" spans="1:21" ht="13.5">
       <c r="A60" s="25"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="69"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="81"/>
     </row>
     <row r="61" spans="1:21" ht="13.5">
       <c r="A61" s="25"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="61" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="54" t="s">
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54" t="s">
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
+      <c r="R61" s="72"/>
+      <c r="S61" s="72"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="72"/>
     </row>
     <row r="62" spans="1:21" ht="13.5">
       <c r="A62" s="25"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="72"/>
+      <c r="R62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="72"/>
     </row>
     <row r="63" spans="1:21" ht="13.5">
       <c r="A63" s="25"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="78"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="72"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="72"/>
     </row>
     <row r="64" spans="1:21" ht="13.5">
       <c r="A64" s="25"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="70" t="s">
+      <c r="B64" s="65"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="71"/>
-      <c r="F64" s="61" t="s">
+      <c r="E64" s="114"/>
+      <c r="F64" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="54" t="s">
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54" t="s">
+      <c r="M64" s="72"/>
+      <c r="N64" s="72"/>
+      <c r="O64" s="72"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
     </row>
     <row r="65" spans="1:21" ht="13.5">
       <c r="A65" s="25"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="72"/>
+      <c r="N65" s="72"/>
+      <c r="O65" s="72"/>
+      <c r="P65" s="72"/>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
     </row>
     <row r="66" spans="1:21" ht="13.5">
       <c r="A66" s="25"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="72"/>
+      <c r="R66" s="72"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="72"/>
+      <c r="U66" s="72"/>
     </row>
     <row r="67" spans="1:21" ht="13.5">
       <c r="A67" s="25"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="61" t="s">
+      <c r="B67" s="65"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
     </row>
     <row r="68" spans="1:21" ht="13.5">
       <c r="A68" s="25"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
     </row>
     <row r="69" spans="1:21" ht="13.5">
       <c r="A69" s="25"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="72"/>
+      <c r="O69" s="72"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
     </row>
     <row r="70" spans="1:21" ht="13.5">
       <c r="A70" s="25"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="61" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
     </row>
     <row r="71" spans="1:21" ht="13.5">
       <c r="A71" s="25"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
     </row>
     <row r="72" spans="1:21" ht="13.5">
       <c r="A72" s="25"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="61" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
     </row>
     <row r="73" spans="1:21" ht="13.5">
       <c r="A73" s="25"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
     </row>
     <row r="74" spans="1:21" ht="13.5">
       <c r="A74" s="25"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
     </row>
     <row r="75" spans="1:21" ht="13.5">
       <c r="A75" s="25"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="61" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
     </row>
     <row r="76" spans="1:21" ht="13.5">
       <c r="A76" s="25"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="72"/>
+      <c r="N76" s="72"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
     </row>
     <row r="77" spans="1:21" ht="13.5">
       <c r="A77" s="25"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="61" t="s">
+      <c r="B77" s="65"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="54"/>
-      <c r="U77" s="54"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="72"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
     </row>
     <row r="78" spans="1:21" ht="13.5">
       <c r="A78" s="25"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="72"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="72"/>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="72"/>
+      <c r="U78" s="72"/>
     </row>
     <row r="79" spans="1:21" ht="13.5">
       <c r="A79" s="25"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="61" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="61" t="s">
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="62"/>
-      <c r="N79" s="62"/>
-      <c r="O79" s="62"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="54" t="s">
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="54"/>
-      <c r="U79" s="54"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
     </row>
     <row r="80" spans="1:21" ht="13.5">
       <c r="A80" s="25"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="76"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="72"/>
+      <c r="S80" s="72"/>
+      <c r="T80" s="72"/>
+      <c r="U80" s="72"/>
     </row>
     <row r="81" spans="1:21" ht="13.5">
       <c r="A81" s="25"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="72"/>
+      <c r="R81" s="72"/>
+      <c r="S81" s="72"/>
+      <c r="T81" s="72"/>
+      <c r="U81" s="72"/>
     </row>
     <row r="82" spans="1:21" ht="13.5">
       <c r="A82" s="25"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="72"/>
+      <c r="U82" s="72"/>
     </row>
     <row r="83" spans="1:21" ht="13.5">
       <c r="A83" s="25"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="69"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="72"/>
+      <c r="R83" s="72"/>
+      <c r="S83" s="72"/>
+      <c r="T83" s="72"/>
+      <c r="U83" s="72"/>
     </row>
     <row r="84" spans="1:21" ht="13.5">
       <c r="A84" s="25"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="76" t="s">
+      <c r="B84" s="65"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="77"/>
-      <c r="F84" s="61" t="s">
+      <c r="E84" s="96"/>
+      <c r="F84" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="54" t="s">
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="54" t="s">
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+      <c r="O84" s="72"/>
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="54"/>
-      <c r="S84" s="54"/>
-      <c r="T84" s="54"/>
-      <c r="U84" s="54"/>
+      <c r="R84" s="72"/>
+      <c r="S84" s="72"/>
+      <c r="T84" s="72"/>
+      <c r="U84" s="72"/>
     </row>
     <row r="85" spans="1:21" ht="13.5">
       <c r="A85" s="25"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="54"/>
-      <c r="T85" s="54"/>
-      <c r="U85" s="54"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="72"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
+      <c r="U85" s="72"/>
     </row>
     <row r="86" spans="1:21" ht="13.5">
       <c r="A86" s="25"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="54"/>
-      <c r="U86" s="54"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+      <c r="O86" s="72"/>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+      <c r="R86" s="72"/>
+      <c r="S86" s="72"/>
+      <c r="T86" s="72"/>
+      <c r="U86" s="72"/>
     </row>
     <row r="87" spans="1:21" ht="13.5">
       <c r="A87" s="25"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
+      <c r="N87" s="72"/>
+      <c r="O87" s="72"/>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
     </row>
     <row r="88" spans="1:21" ht="13.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="54"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
     </row>
     <row r="89" spans="1:21" ht="13.5">
       <c r="A89" s="25"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="102" t="s">
+      <c r="B89" s="65"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="57"/>
-      <c r="Q89" s="55"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="57"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="83"/>
+      <c r="H89" s="83"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="82"/>
+      <c r="M89" s="83"/>
+      <c r="N89" s="83"/>
+      <c r="O89" s="83"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="82"/>
+      <c r="R89" s="83"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
+      <c r="U89" s="84"/>
     </row>
     <row r="90" spans="1:21" ht="13.5">
       <c r="A90" s="25"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="85"/>
-      <c r="M90" s="86"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="86"/>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="85"/>
-      <c r="R90" s="86"/>
-      <c r="S90" s="86"/>
-      <c r="T90" s="86"/>
-      <c r="U90" s="87"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="86"/>
+      <c r="J90" s="86"/>
+      <c r="K90" s="87"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="89"/>
+      <c r="N90" s="89"/>
+      <c r="O90" s="89"/>
+      <c r="P90" s="90"/>
+      <c r="Q90" s="88"/>
+      <c r="R90" s="89"/>
+      <c r="S90" s="89"/>
+      <c r="T90" s="89"/>
+      <c r="U90" s="90"/>
     </row>
     <row r="91" spans="1:21" ht="13.5">
       <c r="A91" s="25"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="85"/>
-      <c r="M91" s="86"/>
-      <c r="N91" s="86"/>
-      <c r="O91" s="86"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="85"/>
-      <c r="R91" s="86"/>
-      <c r="S91" s="86"/>
-      <c r="T91" s="86"/>
-      <c r="U91" s="87"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="83"/>
+      <c r="H91" s="83"/>
+      <c r="I91" s="83"/>
+      <c r="J91" s="83"/>
+      <c r="K91" s="84"/>
+      <c r="L91" s="88"/>
+      <c r="M91" s="89"/>
+      <c r="N91" s="89"/>
+      <c r="O91" s="89"/>
+      <c r="P91" s="90"/>
+      <c r="Q91" s="88"/>
+      <c r="R91" s="89"/>
+      <c r="S91" s="89"/>
+      <c r="T91" s="89"/>
+      <c r="U91" s="90"/>
     </row>
     <row r="92" spans="1:21" ht="13.5">
       <c r="A92" s="25"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="85"/>
-      <c r="M92" s="86"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="85"/>
-      <c r="R92" s="86"/>
-      <c r="S92" s="86"/>
-      <c r="T92" s="86"/>
-      <c r="U92" s="87"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="87"/>
+      <c r="L92" s="88"/>
+      <c r="M92" s="89"/>
+      <c r="N92" s="89"/>
+      <c r="O92" s="89"/>
+      <c r="P92" s="90"/>
+      <c r="Q92" s="88"/>
+      <c r="R92" s="89"/>
+      <c r="S92" s="89"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="90"/>
     </row>
     <row r="93" spans="1:21" ht="13.5">
       <c r="A93" s="25"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86"/>
-      <c r="O93" s="86"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="85"/>
-      <c r="R93" s="86"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86"/>
-      <c r="U93" s="87"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="83"/>
+      <c r="J93" s="83"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="88"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="90"/>
+      <c r="Q93" s="88"/>
+      <c r="R93" s="89"/>
+      <c r="S93" s="89"/>
+      <c r="T93" s="89"/>
+      <c r="U93" s="90"/>
     </row>
     <row r="94" spans="1:21" ht="13.5">
       <c r="A94" s="25"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="107"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="58"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="59"/>
-      <c r="T94" s="59"/>
-      <c r="U94" s="60"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
+      <c r="I94" s="86"/>
+      <c r="J94" s="86"/>
+      <c r="K94" s="87"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="86"/>
+      <c r="O94" s="86"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="86"/>
+      <c r="S94" s="86"/>
+      <c r="T94" s="86"/>
+      <c r="U94" s="87"/>
     </row>
     <row r="95" spans="1:21" ht="13.5">
       <c r="A95" s="25"/>
-      <c r="B95" s="88">
+      <c r="B95" s="64">
         <v>3</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="101" t="s">
+      <c r="D95" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="101"/>
-      <c r="F95" s="54" t="s">
+      <c r="E95" s="106"/>
+      <c r="F95" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54" t="s">
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54" t="s">
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="54"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
     </row>
     <row r="96" spans="1:21" ht="13.5">
       <c r="A96" s="25"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="54"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="72"/>
+      <c r="N96" s="72"/>
+      <c r="O96" s="72"/>
+      <c r="P96" s="72"/>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
     </row>
     <row r="97" spans="1:21" ht="13.5">
       <c r="A97" s="25"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="54"/>
-      <c r="J97" s="54"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="54"/>
-      <c r="S97" s="54"/>
-      <c r="T97" s="54"/>
-      <c r="U97" s="54"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="72"/>
+      <c r="S97" s="72"/>
+      <c r="T97" s="72"/>
+      <c r="U97" s="72"/>
     </row>
     <row r="98" spans="1:21" ht="13.5">
       <c r="A98" s="25"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="54" t="s">
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
-      <c r="T98" s="54"/>
-      <c r="U98" s="54"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="72"/>
+      <c r="N98" s="72"/>
+      <c r="O98" s="72"/>
+      <c r="P98" s="72"/>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="72"/>
+      <c r="S98" s="72"/>
+      <c r="T98" s="72"/>
+      <c r="U98" s="72"/>
     </row>
     <row r="99" spans="1:21" ht="13.5">
       <c r="A99" s="25"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="54"/>
-      <c r="T99" s="54"/>
-      <c r="U99" s="54"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
     </row>
     <row r="100" spans="1:21" ht="13.5">
       <c r="A100" s="25"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="54"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="54"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="72"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="72"/>
+      <c r="L100" s="72"/>
+      <c r="M100" s="72"/>
+      <c r="N100" s="72"/>
+      <c r="O100" s="72"/>
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
     </row>
     <row r="101" spans="1:21" ht="13.5">
       <c r="A101" s="25"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="54"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="54"/>
-      <c r="S101" s="54"/>
-      <c r="T101" s="54"/>
-      <c r="U101" s="54"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
+      <c r="K101" s="72"/>
+      <c r="L101" s="72"/>
+      <c r="M101" s="72"/>
+      <c r="N101" s="72"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
     </row>
     <row r="102" spans="1:21" ht="13.5">
       <c r="A102" s="25"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="54" t="s">
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="54"/>
-      <c r="S102" s="54"/>
-      <c r="T102" s="54"/>
-      <c r="U102" s="54"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="72"/>
+      <c r="L102" s="72"/>
+      <c r="M102" s="72"/>
+      <c r="N102" s="72"/>
+      <c r="O102" s="72"/>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
     </row>
     <row r="103" spans="1:21" ht="13.5">
       <c r="A103" s="25"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
+      <c r="N103" s="72"/>
+      <c r="O103" s="72"/>
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="72"/>
+      <c r="S103" s="72"/>
+      <c r="T103" s="72"/>
+      <c r="U103" s="72"/>
     </row>
     <row r="104" spans="1:21" ht="13.5">
       <c r="A104" s="25"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="54"/>
-      <c r="T104" s="54"/>
-      <c r="U104" s="54"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+      <c r="O104" s="72"/>
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="72"/>
+      <c r="S104" s="72"/>
+      <c r="T104" s="72"/>
+      <c r="U104" s="72"/>
     </row>
     <row r="105" spans="1:21" ht="13.5">
       <c r="A105" s="25"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="54" t="s">
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54" t="s">
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54" t="s">
+      <c r="M105" s="72"/>
+      <c r="N105" s="72"/>
+      <c r="O105" s="72"/>
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="54"/>
-      <c r="S105" s="54"/>
-      <c r="T105" s="54"/>
-      <c r="U105" s="54"/>
+      <c r="R105" s="72"/>
+      <c r="S105" s="72"/>
+      <c r="T105" s="72"/>
+      <c r="U105" s="72"/>
     </row>
     <row r="106" spans="1:21" ht="13.5">
       <c r="A106" s="25"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="54"/>
-      <c r="T106" s="54"/>
-      <c r="U106" s="54"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="72"/>
+      <c r="N106" s="72"/>
+      <c r="O106" s="72"/>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+      <c r="R106" s="72"/>
+      <c r="S106" s="72"/>
+      <c r="T106" s="72"/>
+      <c r="U106" s="72"/>
     </row>
     <row r="107" spans="1:21" ht="13.5">
       <c r="A107" s="25"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="54"/>
-      <c r="T107" s="54"/>
-      <c r="U107" s="54"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="72"/>
+      <c r="S107" s="72"/>
+      <c r="T107" s="72"/>
+      <c r="U107" s="72"/>
     </row>
     <row r="108" spans="1:21" ht="13.5">
       <c r="A108" s="25"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="89"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="54"/>
-      <c r="T108" s="54"/>
-      <c r="U108" s="54"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="72"/>
+      <c r="M108" s="72"/>
+      <c r="N108" s="72"/>
+      <c r="O108" s="72"/>
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
+      <c r="R108" s="72"/>
+      <c r="S108" s="72"/>
+      <c r="T108" s="72"/>
+      <c r="U108" s="72"/>
     </row>
     <row r="109" spans="1:21" ht="13.5">
       <c r="A109" s="25"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="61" t="s">
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="62"/>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
-      <c r="J109" s="62"/>
-      <c r="K109" s="63"/>
-      <c r="L109" s="61" t="s">
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="62"/>
-      <c r="P109" s="63"/>
-      <c r="Q109" s="61" t="s">
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="75"/>
+      <c r="Q109" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="62"/>
-      <c r="S109" s="62"/>
-      <c r="T109" s="62"/>
-      <c r="U109" s="63"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
+      <c r="T109" s="74"/>
+      <c r="U109" s="75"/>
     </row>
     <row r="110" spans="1:21" ht="13.5">
       <c r="A110" s="25"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="66"/>
-      <c r="L110" s="64"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="65"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="64"/>
-      <c r="R110" s="65"/>
-      <c r="S110" s="65"/>
-      <c r="T110" s="65"/>
-      <c r="U110" s="66"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="76"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="78"/>
+      <c r="Q110" s="76"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="78"/>
     </row>
     <row r="111" spans="1:21" ht="13.5">
       <c r="A111" s="25"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="64"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="64"/>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="U111" s="66"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="76"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="78"/>
+      <c r="Q111" s="76"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="78"/>
     </row>
     <row r="112" spans="1:21" ht="13.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="65"/>
-      <c r="N112" s="65"/>
-      <c r="O112" s="65"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="65"/>
-      <c r="S112" s="65"/>
-      <c r="T112" s="65"/>
-      <c r="U112" s="66"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="78"/>
+      <c r="Q112" s="76"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="78"/>
     </row>
     <row r="113" spans="1:21" ht="13.5">
       <c r="A113" s="25"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="66"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="76"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="78"/>
+      <c r="Q113" s="76"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="78"/>
     </row>
     <row r="114" spans="1:21" ht="13.5">
       <c r="A114" s="25"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="89"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65"/>
-      <c r="J114" s="65"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="65"/>
-      <c r="N114" s="65"/>
-      <c r="O114" s="65"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="65"/>
-      <c r="S114" s="65"/>
-      <c r="T114" s="65"/>
-      <c r="U114" s="66"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="78"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="78"/>
     </row>
     <row r="115" spans="1:21" ht="13.5">
       <c r="A115" s="25"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="89"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
-      <c r="I115" s="68"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="67"/>
-      <c r="M115" s="68"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="68"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="67"/>
-      <c r="R115" s="68"/>
-      <c r="S115" s="68"/>
-      <c r="T115" s="68"/>
-      <c r="U115" s="69"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="80"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="80"/>
+      <c r="N115" s="80"/>
+      <c r="O115" s="80"/>
+      <c r="P115" s="81"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="80"/>
+      <c r="S115" s="80"/>
+      <c r="T115" s="80"/>
+      <c r="U115" s="81"/>
     </row>
     <row r="116" spans="1:21" ht="13.5">
       <c r="A116" s="25"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="89"/>
-      <c r="D116" s="76" t="s">
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="77"/>
-      <c r="F116" s="54" t="s">
+      <c r="E116" s="96"/>
+      <c r="F116" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="61" t="s">
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
+      <c r="L116" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="62"/>
-      <c r="N116" s="62"/>
-      <c r="O116" s="62"/>
-      <c r="P116" s="63"/>
-      <c r="Q116" s="61" t="s">
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="75"/>
+      <c r="Q116" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="62"/>
-      <c r="S116" s="62"/>
-      <c r="T116" s="62"/>
-      <c r="U116" s="63"/>
+      <c r="R116" s="74"/>
+      <c r="S116" s="74"/>
+      <c r="T116" s="74"/>
+      <c r="U116" s="75"/>
     </row>
     <row r="117" spans="1:21" ht="13.5">
       <c r="A117" s="25"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="64"/>
-      <c r="R117" s="65"/>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="U117" s="66"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="77"/>
+      <c r="N117" s="77"/>
+      <c r="O117" s="77"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="76"/>
+      <c r="R117" s="77"/>
+      <c r="S117" s="77"/>
+      <c r="T117" s="77"/>
+      <c r="U117" s="78"/>
     </row>
     <row r="118" spans="1:21" ht="13.5">
       <c r="A118" s="25"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="89"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="79"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="65"/>
-      <c r="P118" s="66"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="65"/>
-      <c r="S118" s="65"/>
-      <c r="T118" s="65"/>
-      <c r="U118" s="66"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
+      <c r="L118" s="76"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="76"/>
+      <c r="R118" s="77"/>
+      <c r="S118" s="77"/>
+      <c r="T118" s="77"/>
+      <c r="U118" s="78"/>
     </row>
     <row r="119" spans="1:21" ht="13.5">
       <c r="A119" s="25"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="78"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="54" t="s">
+      <c r="B119" s="65"/>
+      <c r="C119" s="65"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="64"/>
-      <c r="M119" s="65"/>
-      <c r="N119" s="65"/>
-      <c r="O119" s="65"/>
-      <c r="P119" s="66"/>
-      <c r="Q119" s="64"/>
-      <c r="R119" s="65"/>
-      <c r="S119" s="65"/>
-      <c r="T119" s="65"/>
-      <c r="U119" s="66"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="76"/>
+      <c r="M119" s="77"/>
+      <c r="N119" s="77"/>
+      <c r="O119" s="77"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="76"/>
+      <c r="R119" s="77"/>
+      <c r="S119" s="77"/>
+      <c r="T119" s="77"/>
+      <c r="U119" s="78"/>
     </row>
     <row r="120" spans="1:21" ht="13.5">
       <c r="A120" s="25"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="89"/>
-      <c r="D120" s="78"/>
-      <c r="E120" s="79"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="65"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="65"/>
-      <c r="P120" s="66"/>
-      <c r="Q120" s="64"/>
-      <c r="R120" s="65"/>
-      <c r="S120" s="65"/>
-      <c r="T120" s="65"/>
-      <c r="U120" s="66"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="77"/>
+      <c r="N120" s="77"/>
+      <c r="O120" s="77"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="76"/>
+      <c r="R120" s="77"/>
+      <c r="S120" s="77"/>
+      <c r="T120" s="77"/>
+      <c r="U120" s="78"/>
     </row>
     <row r="121" spans="1:21" ht="13.5">
       <c r="A121" s="25"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="89"/>
-      <c r="D121" s="78"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="64"/>
-      <c r="M121" s="65"/>
-      <c r="N121" s="65"/>
-      <c r="O121" s="65"/>
-      <c r="P121" s="66"/>
-      <c r="Q121" s="64"/>
-      <c r="R121" s="65"/>
-      <c r="S121" s="65"/>
-      <c r="T121" s="65"/>
-      <c r="U121" s="66"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="72"/>
+      <c r="L121" s="76"/>
+      <c r="M121" s="77"/>
+      <c r="N121" s="77"/>
+      <c r="O121" s="77"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="76"/>
+      <c r="R121" s="77"/>
+      <c r="S121" s="77"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="78"/>
     </row>
     <row r="122" spans="1:21" ht="13.5">
       <c r="A122" s="25"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="65"/>
-      <c r="N122" s="65"/>
-      <c r="O122" s="65"/>
-      <c r="P122" s="66"/>
-      <c r="Q122" s="64"/>
-      <c r="R122" s="65"/>
-      <c r="S122" s="65"/>
-      <c r="T122" s="65"/>
-      <c r="U122" s="66"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="72"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="72"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="77"/>
+      <c r="N122" s="77"/>
+      <c r="O122" s="77"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="77"/>
+      <c r="T122" s="77"/>
+      <c r="U122" s="78"/>
     </row>
     <row r="123" spans="1:21" ht="13.5">
       <c r="A123" s="25"/>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="67"/>
-      <c r="M123" s="68"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="68"/>
-      <c r="P123" s="69"/>
-      <c r="Q123" s="67"/>
-      <c r="R123" s="68"/>
-      <c r="S123" s="68"/>
-      <c r="T123" s="68"/>
-      <c r="U123" s="69"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
+      <c r="L123" s="79"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="81"/>
+      <c r="Q123" s="79"/>
+      <c r="R123" s="80"/>
+      <c r="S123" s="80"/>
+      <c r="T123" s="80"/>
+      <c r="U123" s="81"/>
     </row>
     <row r="124" spans="1:21" ht="13.5">
       <c r="A124" s="25"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="89"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="54" t="s">
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="61" t="s">
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="62"/>
-      <c r="P124" s="63"/>
-      <c r="Q124" s="61" t="s">
+      <c r="M124" s="74"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="74"/>
+      <c r="P124" s="75"/>
+      <c r="Q124" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="62"/>
-      <c r="S124" s="62"/>
-      <c r="T124" s="62"/>
-      <c r="U124" s="63"/>
+      <c r="R124" s="74"/>
+      <c r="S124" s="74"/>
+      <c r="T124" s="74"/>
+      <c r="U124" s="75"/>
     </row>
     <row r="125" spans="1:21" ht="13.5">
       <c r="A125" s="25"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="65"/>
-      <c r="N125" s="65"/>
-      <c r="O125" s="65"/>
-      <c r="P125" s="66"/>
-      <c r="Q125" s="64"/>
-      <c r="R125" s="65"/>
-      <c r="S125" s="65"/>
-      <c r="T125" s="65"/>
-      <c r="U125" s="66"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="77"/>
+      <c r="N125" s="77"/>
+      <c r="O125" s="77"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="77"/>
+      <c r="S125" s="77"/>
+      <c r="T125" s="77"/>
+      <c r="U125" s="78"/>
     </row>
     <row r="126" spans="1:21" ht="13.5">
       <c r="A126" s="25"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="89"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="65"/>
-      <c r="N126" s="65"/>
-      <c r="O126" s="65"/>
-      <c r="P126" s="66"/>
-      <c r="Q126" s="64"/>
-      <c r="R126" s="65"/>
-      <c r="S126" s="65"/>
-      <c r="T126" s="65"/>
-      <c r="U126" s="66"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="77"/>
+      <c r="N126" s="77"/>
+      <c r="O126" s="77"/>
+      <c r="P126" s="78"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="77"/>
+      <c r="S126" s="77"/>
+      <c r="T126" s="77"/>
+      <c r="U126" s="78"/>
     </row>
     <row r="127" spans="1:21" ht="13.5">
       <c r="A127" s="25"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="89"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="64"/>
-      <c r="M127" s="65"/>
-      <c r="N127" s="65"/>
-      <c r="O127" s="65"/>
-      <c r="P127" s="66"/>
-      <c r="Q127" s="64"/>
-      <c r="R127" s="65"/>
-      <c r="S127" s="65"/>
-      <c r="T127" s="65"/>
-      <c r="U127" s="66"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="76"/>
+      <c r="M127" s="77"/>
+      <c r="N127" s="77"/>
+      <c r="O127" s="77"/>
+      <c r="P127" s="78"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="77"/>
+      <c r="S127" s="77"/>
+      <c r="T127" s="77"/>
+      <c r="U127" s="78"/>
     </row>
     <row r="128" spans="1:21" ht="13.5">
       <c r="A128" s="25"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="65"/>
-      <c r="N128" s="65"/>
-      <c r="O128" s="65"/>
-      <c r="P128" s="66"/>
-      <c r="Q128" s="64"/>
-      <c r="R128" s="65"/>
-      <c r="S128" s="65"/>
-      <c r="T128" s="65"/>
-      <c r="U128" s="66"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="76"/>
+      <c r="M128" s="77"/>
+      <c r="N128" s="77"/>
+      <c r="O128" s="77"/>
+      <c r="P128" s="78"/>
+      <c r="Q128" s="76"/>
+      <c r="R128" s="77"/>
+      <c r="S128" s="77"/>
+      <c r="T128" s="77"/>
+      <c r="U128" s="78"/>
     </row>
     <row r="129" spans="1:21" ht="13.5">
       <c r="A129" s="25"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="89"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="67"/>
-      <c r="M129" s="68"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="68"/>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="67"/>
-      <c r="R129" s="68"/>
-      <c r="S129" s="68"/>
-      <c r="T129" s="68"/>
-      <c r="U129" s="69"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="79"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="81"/>
+      <c r="Q129" s="79"/>
+      <c r="R129" s="80"/>
+      <c r="S129" s="80"/>
+      <c r="T129" s="80"/>
+      <c r="U129" s="81"/>
     </row>
     <row r="130" spans="1:21" ht="13.5">
       <c r="A130" s="25"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="89"/>
-      <c r="D130" s="78"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="54" t="s">
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="61" t="s">
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="62"/>
-      <c r="P130" s="63"/>
-      <c r="Q130" s="61" t="s">
+      <c r="M130" s="74"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="74"/>
+      <c r="P130" s="75"/>
+      <c r="Q130" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="62"/>
-      <c r="S130" s="62"/>
-      <c r="T130" s="62"/>
-      <c r="U130" s="63"/>
+      <c r="R130" s="74"/>
+      <c r="S130" s="74"/>
+      <c r="T130" s="74"/>
+      <c r="U130" s="75"/>
     </row>
     <row r="131" spans="1:21" ht="13.5">
       <c r="A131" s="25"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="78"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="65"/>
-      <c r="N131" s="65"/>
-      <c r="O131" s="65"/>
-      <c r="P131" s="66"/>
-      <c r="Q131" s="64"/>
-      <c r="R131" s="65"/>
-      <c r="S131" s="65"/>
-      <c r="T131" s="65"/>
-      <c r="U131" s="66"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="77"/>
+      <c r="N131" s="77"/>
+      <c r="O131" s="77"/>
+      <c r="P131" s="78"/>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="77"/>
+      <c r="S131" s="77"/>
+      <c r="T131" s="77"/>
+      <c r="U131" s="78"/>
     </row>
     <row r="132" spans="1:21" ht="13.5">
       <c r="A132" s="25"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="89"/>
-      <c r="D132" s="78"/>
-      <c r="E132" s="79"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="65"/>
-      <c r="N132" s="65"/>
-      <c r="O132" s="65"/>
-      <c r="P132" s="66"/>
-      <c r="Q132" s="64"/>
-      <c r="R132" s="65"/>
-      <c r="S132" s="65"/>
-      <c r="T132" s="65"/>
-      <c r="U132" s="66"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
+      <c r="L132" s="76"/>
+      <c r="M132" s="77"/>
+      <c r="N132" s="77"/>
+      <c r="O132" s="77"/>
+      <c r="P132" s="78"/>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="77"/>
+      <c r="S132" s="77"/>
+      <c r="T132" s="77"/>
+      <c r="U132" s="78"/>
     </row>
     <row r="133" spans="1:21" ht="13.5">
       <c r="A133" s="25"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="78"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="64"/>
-      <c r="M133" s="65"/>
-      <c r="N133" s="65"/>
-      <c r="O133" s="65"/>
-      <c r="P133" s="66"/>
-      <c r="Q133" s="64"/>
-      <c r="R133" s="65"/>
-      <c r="S133" s="65"/>
-      <c r="T133" s="65"/>
-      <c r="U133" s="66"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
+      <c r="L133" s="76"/>
+      <c r="M133" s="77"/>
+      <c r="N133" s="77"/>
+      <c r="O133" s="77"/>
+      <c r="P133" s="78"/>
+      <c r="Q133" s="76"/>
+      <c r="R133" s="77"/>
+      <c r="S133" s="77"/>
+      <c r="T133" s="77"/>
+      <c r="U133" s="78"/>
     </row>
     <row r="134" spans="1:21" ht="13.5">
       <c r="A134" s="25"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="65"/>
-      <c r="N134" s="65"/>
-      <c r="O134" s="65"/>
-      <c r="P134" s="66"/>
-      <c r="Q134" s="64"/>
-      <c r="R134" s="65"/>
-      <c r="S134" s="65"/>
-      <c r="T134" s="65"/>
-      <c r="U134" s="66"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="97"/>
+      <c r="E134" s="98"/>
+      <c r="F134" s="72"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="76"/>
+      <c r="M134" s="77"/>
+      <c r="N134" s="77"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="78"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="77"/>
+      <c r="S134" s="77"/>
+      <c r="T134" s="77"/>
+      <c r="U134" s="78"/>
     </row>
     <row r="135" spans="1:21" ht="13.5">
       <c r="A135" s="25"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="76" t="s">
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="77"/>
-      <c r="F135" s="61" t="s">
+      <c r="E135" s="96"/>
+      <c r="F135" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="62"/>
-      <c r="H135" s="62"/>
-      <c r="I135" s="62"/>
-      <c r="J135" s="62"/>
-      <c r="K135" s="63"/>
-      <c r="L135" s="61" t="s">
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="62"/>
-      <c r="N135" s="62"/>
-      <c r="O135" s="62"/>
-      <c r="P135" s="63"/>
-      <c r="Q135" s="61" t="s">
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="75"/>
+      <c r="Q135" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
-      <c r="U135" s="63"/>
+      <c r="R135" s="74"/>
+      <c r="S135" s="74"/>
+      <c r="T135" s="74"/>
+      <c r="U135" s="75"/>
     </row>
     <row r="136" spans="1:21" ht="13.5">
       <c r="A136" s="25"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="89"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="79"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="65"/>
-      <c r="I136" s="65"/>
-      <c r="J136" s="65"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="65"/>
-      <c r="N136" s="65"/>
-      <c r="O136" s="65"/>
-      <c r="P136" s="66"/>
-      <c r="Q136" s="64"/>
-      <c r="R136" s="65"/>
-      <c r="S136" s="65"/>
-      <c r="T136" s="65"/>
-      <c r="U136" s="66"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="78"/>
+      <c r="L136" s="76"/>
+      <c r="M136" s="77"/>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="78"/>
+      <c r="Q136" s="76"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+      <c r="T136" s="77"/>
+      <c r="U136" s="78"/>
     </row>
     <row r="137" spans="1:21" ht="13.5">
       <c r="A137" s="25"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="69"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="65"/>
-      <c r="N137" s="65"/>
-      <c r="O137" s="65"/>
-      <c r="P137" s="66"/>
-      <c r="Q137" s="67"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="68"/>
-      <c r="T137" s="68"/>
-      <c r="U137" s="69"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
+      <c r="J137" s="80"/>
+      <c r="K137" s="81"/>
+      <c r="L137" s="76"/>
+      <c r="M137" s="77"/>
+      <c r="N137" s="77"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="78"/>
+      <c r="Q137" s="79"/>
+      <c r="R137" s="80"/>
+      <c r="S137" s="80"/>
+      <c r="T137" s="80"/>
+      <c r="U137" s="81"/>
     </row>
     <row r="138" spans="1:21" ht="13.5">
       <c r="A138" s="25"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="89"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="61" t="s">
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="97"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="62"/>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="63"/>
-      <c r="L138" s="61" t="s">
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="62"/>
-      <c r="N138" s="62"/>
-      <c r="O138" s="62"/>
-      <c r="P138" s="63"/>
-      <c r="Q138" s="54" t="s">
+      <c r="M138" s="74"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="74"/>
+      <c r="P138" s="75"/>
+      <c r="Q138" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="54"/>
-      <c r="S138" s="54"/>
-      <c r="T138" s="54"/>
-      <c r="U138" s="54"/>
+      <c r="R138" s="72"/>
+      <c r="S138" s="72"/>
+      <c r="T138" s="72"/>
+      <c r="U138" s="72"/>
     </row>
     <row r="139" spans="1:21" ht="13.5">
       <c r="A139" s="25"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="89"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="79"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="66"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="65"/>
-      <c r="N139" s="65"/>
-      <c r="O139" s="65"/>
-      <c r="P139" s="66"/>
-      <c r="Q139" s="54"/>
-      <c r="R139" s="54"/>
-      <c r="S139" s="54"/>
-      <c r="T139" s="54"/>
-      <c r="U139" s="54"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="97"/>
+      <c r="E139" s="98"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="77"/>
+      <c r="J139" s="77"/>
+      <c r="K139" s="78"/>
+      <c r="L139" s="76"/>
+      <c r="M139" s="77"/>
+      <c r="N139" s="77"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="78"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="72"/>
+      <c r="S139" s="72"/>
+      <c r="T139" s="72"/>
+      <c r="U139" s="72"/>
     </row>
     <row r="140" spans="1:21" ht="13.5">
       <c r="A140" s="25"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="78"/>
-      <c r="E140" s="79"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="65"/>
-      <c r="H140" s="65"/>
-      <c r="I140" s="65"/>
-      <c r="J140" s="65"/>
-      <c r="K140" s="66"/>
-      <c r="L140" s="64"/>
-      <c r="M140" s="65"/>
-      <c r="N140" s="65"/>
-      <c r="O140" s="65"/>
-      <c r="P140" s="66"/>
-      <c r="Q140" s="54"/>
-      <c r="R140" s="54"/>
-      <c r="S140" s="54"/>
-      <c r="T140" s="54"/>
-      <c r="U140" s="54"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="97"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="78"/>
+      <c r="L140" s="76"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="78"/>
+      <c r="Q140" s="72"/>
+      <c r="R140" s="72"/>
+      <c r="S140" s="72"/>
+      <c r="T140" s="72"/>
+      <c r="U140" s="72"/>
     </row>
     <row r="141" spans="1:21" ht="13.5">
       <c r="A141" s="25"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="89"/>
-      <c r="D141" s="78"/>
-      <c r="E141" s="79"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="65"/>
-      <c r="H141" s="65"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="65"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="65"/>
-      <c r="N141" s="65"/>
-      <c r="O141" s="65"/>
-      <c r="P141" s="66"/>
-      <c r="Q141" s="54"/>
-      <c r="R141" s="54"/>
-      <c r="S141" s="54"/>
-      <c r="T141" s="54"/>
-      <c r="U141" s="54"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="78"/>
+      <c r="L141" s="76"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="77"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="78"/>
+      <c r="Q141" s="72"/>
+      <c r="R141" s="72"/>
+      <c r="S141" s="72"/>
+      <c r="T141" s="72"/>
+      <c r="U141" s="72"/>
     </row>
     <row r="142" spans="1:21" ht="13.5">
       <c r="A142" s="25"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="89"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="79"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="65"/>
-      <c r="H142" s="65"/>
-      <c r="I142" s="65"/>
-      <c r="J142" s="65"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="65"/>
-      <c r="N142" s="65"/>
-      <c r="O142" s="65"/>
-      <c r="P142" s="66"/>
-      <c r="Q142" s="54"/>
-      <c r="R142" s="54"/>
-      <c r="S142" s="54"/>
-      <c r="T142" s="54"/>
-      <c r="U142" s="54"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="97"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="78"/>
+      <c r="L142" s="76"/>
+      <c r="M142" s="77"/>
+      <c r="N142" s="77"/>
+      <c r="O142" s="77"/>
+      <c r="P142" s="78"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72"/>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
     </row>
     <row r="143" spans="1:21" ht="13.5">
       <c r="A143" s="25"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="78"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
-      <c r="J143" s="65"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="65"/>
-      <c r="N143" s="65"/>
-      <c r="O143" s="65"/>
-      <c r="P143" s="66"/>
-      <c r="Q143" s="54"/>
-      <c r="R143" s="54"/>
-      <c r="S143" s="54"/>
-      <c r="T143" s="54"/>
-      <c r="U143" s="54"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="97"/>
+      <c r="E143" s="98"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="78"/>
+      <c r="L143" s="76"/>
+      <c r="M143" s="77"/>
+      <c r="N143" s="77"/>
+      <c r="O143" s="77"/>
+      <c r="P143" s="78"/>
+      <c r="Q143" s="72"/>
+      <c r="R143" s="72"/>
+      <c r="S143" s="72"/>
+      <c r="T143" s="72"/>
+      <c r="U143" s="72"/>
     </row>
     <row r="144" spans="1:21" ht="13.5">
       <c r="A144" s="25"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="89"/>
-      <c r="D144" s="80"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="69"/>
-      <c r="L144" s="67"/>
-      <c r="M144" s="68"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="68"/>
-      <c r="P144" s="69"/>
-      <c r="Q144" s="54"/>
-      <c r="R144" s="54"/>
-      <c r="S144" s="54"/>
-      <c r="T144" s="54"/>
-      <c r="U144" s="54"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="100"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="81"/>
+      <c r="L144" s="79"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="81"/>
+      <c r="Q144" s="72"/>
+      <c r="R144" s="72"/>
+      <c r="S144" s="72"/>
+      <c r="T144" s="72"/>
+      <c r="U144" s="72"/>
     </row>
     <row r="145" spans="1:21" ht="13.5">
       <c r="A145" s="25"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="89"/>
-      <c r="D145" s="83" t="s">
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="83"/>
-      <c r="F145" s="54" t="s">
+      <c r="E145" s="119"/>
+      <c r="F145" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="54"/>
-      <c r="H145" s="54"/>
-      <c r="I145" s="54"/>
-      <c r="J145" s="54"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54" t="s">
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="72"/>
+      <c r="K145" s="72"/>
+      <c r="L145" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
-      <c r="O145" s="54"/>
-      <c r="P145" s="54"/>
-      <c r="Q145" s="54" t="s">
+      <c r="M145" s="72"/>
+      <c r="N145" s="72"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="54"/>
-      <c r="S145" s="54"/>
-      <c r="T145" s="54"/>
-      <c r="U145" s="54"/>
+      <c r="R145" s="72"/>
+      <c r="S145" s="72"/>
+      <c r="T145" s="72"/>
+      <c r="U145" s="72"/>
     </row>
     <row r="146" spans="1:21" ht="13.5">
       <c r="A146" s="25"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="89"/>
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54"/>
-      <c r="I146" s="54"/>
-      <c r="J146" s="54"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="82"/>
-      <c r="M146" s="82"/>
-      <c r="N146" s="82"/>
-      <c r="O146" s="82"/>
-      <c r="P146" s="82"/>
-      <c r="Q146" s="82"/>
-      <c r="R146" s="82"/>
-      <c r="S146" s="82"/>
-      <c r="T146" s="82"/>
-      <c r="U146" s="82"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="119"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="94"/>
+      <c r="M146" s="94"/>
+      <c r="N146" s="94"/>
+      <c r="O146" s="94"/>
+      <c r="P146" s="94"/>
+      <c r="Q146" s="94"/>
+      <c r="R146" s="94"/>
+      <c r="S146" s="94"/>
+      <c r="T146" s="94"/>
+      <c r="U146" s="94"/>
     </row>
     <row r="147" spans="1:21" ht="13.5">
       <c r="A147" s="25"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="89"/>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="82"/>
-      <c r="M147" s="82"/>
-      <c r="N147" s="82"/>
-      <c r="O147" s="82"/>
-      <c r="P147" s="82"/>
-      <c r="Q147" s="82"/>
-      <c r="R147" s="82"/>
-      <c r="S147" s="82"/>
-      <c r="T147" s="82"/>
-      <c r="U147" s="82"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="72"/>
+      <c r="I147" s="72"/>
+      <c r="J147" s="72"/>
+      <c r="K147" s="72"/>
+      <c r="L147" s="94"/>
+      <c r="M147" s="94"/>
+      <c r="N147" s="94"/>
+      <c r="O147" s="94"/>
+      <c r="P147" s="94"/>
+      <c r="Q147" s="94"/>
+      <c r="R147" s="94"/>
+      <c r="S147" s="94"/>
+      <c r="T147" s="94"/>
+      <c r="U147" s="94"/>
     </row>
     <row r="148" spans="1:21" ht="13.5">
       <c r="A148" s="25"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="90"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="82"/>
-      <c r="M148" s="82"/>
-      <c r="N148" s="82"/>
-      <c r="O148" s="82"/>
-      <c r="P148" s="82"/>
-      <c r="Q148" s="82"/>
-      <c r="R148" s="82"/>
-      <c r="S148" s="82"/>
-      <c r="T148" s="82"/>
-      <c r="U148" s="82"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="119"/>
+      <c r="E148" s="119"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72"/>
+      <c r="L148" s="94"/>
+      <c r="M148" s="94"/>
+      <c r="N148" s="94"/>
+      <c r="O148" s="94"/>
+      <c r="P148" s="94"/>
+      <c r="Q148" s="94"/>
+      <c r="R148" s="94"/>
+      <c r="S148" s="94"/>
+      <c r="T148" s="94"/>
+      <c r="U148" s="94"/>
     </row>
     <row r="149" spans="1:21" ht="13.5">
       <c r="A149" s="25"/>
@@ -6716,34 +6752,70 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="D64:E83"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="D42:E48"/>
+    <mergeCell ref="D49:E63"/>
+    <mergeCell ref="D145:E148"/>
+    <mergeCell ref="D116:E134"/>
+    <mergeCell ref="F75:K76"/>
+    <mergeCell ref="F91:K92"/>
+    <mergeCell ref="F70:K71"/>
+    <mergeCell ref="F79:K83"/>
+    <mergeCell ref="F84:K88"/>
+    <mergeCell ref="F61:K63"/>
+    <mergeCell ref="F58:K60"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="F51:K52"/>
+    <mergeCell ref="F42:K45"/>
+    <mergeCell ref="F46:K48"/>
+    <mergeCell ref="F49:K50"/>
+    <mergeCell ref="F35:K36"/>
+    <mergeCell ref="F37:K38"/>
+    <mergeCell ref="F119:K123"/>
+    <mergeCell ref="F28:K32"/>
+    <mergeCell ref="F33:K34"/>
+    <mergeCell ref="F72:K74"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
     <mergeCell ref="Q105:U108"/>
     <mergeCell ref="L116:P123"/>
     <mergeCell ref="Q116:U123"/>
@@ -6768,70 +6840,34 @@
     <mergeCell ref="Q28:U34"/>
     <mergeCell ref="L42:P45"/>
     <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="D64:E83"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="D42:E48"/>
-    <mergeCell ref="D49:E63"/>
-    <mergeCell ref="D145:E148"/>
-    <mergeCell ref="D116:E134"/>
-    <mergeCell ref="F75:K76"/>
-    <mergeCell ref="F91:K92"/>
-    <mergeCell ref="F70:K71"/>
-    <mergeCell ref="F79:K83"/>
-    <mergeCell ref="F84:K88"/>
-    <mergeCell ref="F61:K63"/>
-    <mergeCell ref="F58:K60"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="F51:K52"/>
-    <mergeCell ref="F42:K45"/>
-    <mergeCell ref="F46:K48"/>
-    <mergeCell ref="F49:K50"/>
-    <mergeCell ref="F35:K36"/>
-    <mergeCell ref="F37:K38"/>
-    <mergeCell ref="F119:K123"/>
-    <mergeCell ref="F28:K32"/>
-    <mergeCell ref="F33:K34"/>
-    <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6841,10 +6877,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15:O15"/>
     </sheetView>
   </sheetViews>
@@ -7451,6 +7487,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7463,16 +7509,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7480,7 +7516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8088,6 +8124,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8100,16 +8146,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8117,7 +8153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8851,6 +8887,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8863,16 +8909,6 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8880,7 +8916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9544,14 +9580,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
@@ -9568,6 +9596,14 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9575,7 +9611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10189,6 +10225,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10201,16 +10247,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10218,7 +10254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10286,12 +10322,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10306,12 +10342,12 @@
       <c r="E8" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B9" s="24">
@@ -10326,12 +10362,12 @@
       <c r="E9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B10" s="24">
@@ -10346,12 +10382,12 @@
       <c r="E10" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="122" t="s">
         <v>381</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B11" s="24">
@@ -10360,10 +10396,10 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="24">
@@ -10372,10 +10408,10 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="24">
@@ -10384,10 +10420,10 @@
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="24">
@@ -10396,10 +10432,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="24">
@@ -10408,10 +10444,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="24">
@@ -10420,10 +10456,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="24">
@@ -10432,10 +10468,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B18" s="24">
@@ -10444,10 +10480,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="24">
@@ -10456,10 +10492,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="24">
@@ -10468,10 +10504,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="24">
@@ -10480,10 +10516,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="24">
@@ -10492,10 +10528,10 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="24">
@@ -10504,10 +10540,10 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="24">
@@ -10516,10 +10552,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
     </row>
     <row r="25" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="24">
@@ -10528,10 +10564,10 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="24">
@@ -10540,10 +10576,10 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="24">
@@ -10552,34 +10588,34 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10592,7 +10628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10631,206 +10667,196 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1">
       <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="124" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1">
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1">
       <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="124" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1">
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="124" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1">
       <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1">
       <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1">
       <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="124" t="s">
         <v>368</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
       <c r="B16" s="18"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="18"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="18"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="18"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="18"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -10839,6 +10865,16 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C6 B8:C9 B7 B10:B12 B13:C21">
@@ -10902,11 +10938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11322,7 +11358,7 @@
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="L15" s="42"/>
       <c r="M15" s="127" t="s">
@@ -11331,7 +11367,7 @@
       <c r="N15" s="128"/>
       <c r="O15" s="129"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="29.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="42">
         <f t="shared" si="0"/>
@@ -11340,18 +11376,32 @@
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="F16" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="I16" s="43">
+        <v>8</v>
+      </c>
       <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="127"/>
+      <c r="K16" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0</v>
+      </c>
+      <c r="M16" s="127" t="s">
+        <v>396</v>
+      </c>
       <c r="N16" s="128"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="33" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="42">
         <f t="shared" si="0"/>
@@ -11360,13 +11410,23 @@
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="F17" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>391</v>
+      </c>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="L17" s="42" t="b">
+        <v>1</v>
+      </c>
       <c r="M17" s="127"/>
       <c r="N17" s="128"/>
       <c r="O17" s="129"/>
@@ -11613,6 +11673,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11628,16 +11698,6 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11645,7 +11705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12241,6 +12301,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12253,16 +12323,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12271,7 +12331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12885,6 +12945,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12897,16 +12967,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12914,7 +12974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13596,6 +13656,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13610,16 +13680,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13628,7 +13688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14304,6 +14364,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14318,16 +14388,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14335,7 +14395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14959,6 +15019,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14971,16 +15041,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20475" windowHeight="7815" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="20472" windowHeight="7812" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,21 +21,23 @@
     <sheet name="打包信息" sheetId="16" r:id="rId12"/>
     <sheet name="打包平台日志" sheetId="18" r:id="rId13"/>
     <sheet name="中兴取包日志" sheetId="19" r:id="rId14"/>
+    <sheet name="首页配置" sheetId="20" r:id="rId15"/>
+    <sheet name="新版流量统计" sheetId="21" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库结构一览表!#REF!</definedName>
     <definedName name="createtime">版本履历!$E$4:$F$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本履历!$A$2:J34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据库结构一览表!$A$1:K48</definedName>
     <definedName name="project">版本履历!$B$4:$B$5</definedName>
     <definedName name="title">版本履历!$B$4:$I$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="436">
   <si>
     <t>风险分类</t>
   </si>
@@ -1828,11 +1830,134 @@
     <t>0 :新增渠道 1:修改渠道</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>首页配置（HOMEPAGE_CONFIG)</t>
+  </si>
+  <si>
+    <t>表名（逻辑）：首页配置</t>
+  </si>
+  <si>
+    <t>表名（物理）：HOMEPAGE_CONFIG</t>
+  </si>
+  <si>
+    <t>最终修改时间：2014/10/14</t>
+  </si>
+  <si>
+    <t>首页配置</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>配置类型
+1：顶部广告位
+2：顶部Banner
+3：活动模块
+4：活动Banner
+5：底部广告位</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+  </si>
+  <si>
+    <t>IMAGE_NAME</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>广告链接</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>广告活动描述</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>广告活动状态
+0:无效   1：有效</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>AD_TYPE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>顶部可配置Banner的顺序</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>表名（逻辑）：流量统计</t>
+  </si>
+  <si>
+    <t>首页PV</t>
+  </si>
+  <si>
+    <t>首页UV</t>
+  </si>
+  <si>
+    <t>0元畅玩页PV</t>
+  </si>
+  <si>
+    <t>HOMEPAGE_PV</t>
+  </si>
+  <si>
+    <t>HOMEPAGE_UV</t>
+  </si>
+  <si>
+    <t>CHANGWAN_PV</t>
+  </si>
+  <si>
+    <t>CHANGWAN_UV</t>
+  </si>
+  <si>
+    <t>0元畅玩页UV</t>
+  </si>
+  <si>
+    <t>首页配置信息和流量统计</t>
+  </si>
+  <si>
+    <t>新版流量统计</t>
+  </si>
+  <si>
+    <t>新版流量统计（STATISTICS)</t>
+  </si>
+  <si>
+    <t>表名（物理）：STATISTICS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -2343,61 +2468,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2427,43 +2519,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2482,6 +2553,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2520,38 +2633,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2559,8 +2684,8 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2585,9 +2710,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -3002,16 +3127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5">
+    <row r="1" spans="1:21">
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3034,7 +3159,7 @@
       <c r="T1" s="25"/>
       <c r="U1" s="25"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5">
+    <row r="2" spans="1:21">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -3046,20 +3171,20 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
       <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:21" ht="13.5">
+    <row r="3" spans="1:21">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -3067,24 +3192,24 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-    </row>
-    <row r="4" spans="1:21" ht="13.5">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -3098,24 +3223,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="116" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3128,28 +3253,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="111">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-    </row>
-    <row r="6" spans="1:21" ht="13.5">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="26"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3160,23 +3285,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-    </row>
-    <row r="7" spans="1:21" ht="13.5">
+      <c r="I6" s="111"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="26"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3187,23 +3312,23 @@
       <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-    </row>
-    <row r="8" spans="1:21" ht="13.5">
+      <c r="I7" s="111"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="26"/>
-      <c r="B8" s="63"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
@@ -3214,23 +3339,23 @@
       <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
     </row>
     <row r="9" spans="1:21" ht="13.5" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -3243,28 +3368,28 @@
       <c r="H9" s="30">
         <v>2</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="111">
         <f>SUM(H9:H13)</f>
         <v>14</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-    </row>
-    <row r="10" spans="1:21" ht="13.5">
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="26"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="29" t="s">
         <v>13</v>
       </c>
@@ -3275,23 +3400,23 @@
       <c r="H10" s="30">
         <v>6</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-    </row>
-    <row r="11" spans="1:21" ht="13.5">
+      <c r="I10" s="111"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="26"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
@@ -3302,23 +3427,23 @@
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.5">
+      <c r="I11" s="111"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="26"/>
-      <c r="B12" s="65"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="29" t="s">
         <v>15</v>
       </c>
@@ -3329,23 +3454,23 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-    </row>
-    <row r="13" spans="1:21" ht="13.5">
+      <c r="I12" s="111"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="26"/>
-      <c r="B13" s="66"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="31" t="s">
         <v>16</v>
       </c>
@@ -3356,23 +3481,23 @@
       <c r="H13" s="30">
         <v>0</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-    </row>
-    <row r="14" spans="1:21" ht="13.5">
+      <c r="I13" s="111"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="26"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="117" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -3385,28 +3510,28 @@
       <c r="H14" s="30">
         <v>3</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="111">
         <f>SUM(H14:H17)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-    </row>
-    <row r="15" spans="1:21" ht="13.5">
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="26"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
       </c>
@@ -3417,23 +3542,23 @@
       <c r="H15" s="30">
         <v>1</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-    </row>
-    <row r="16" spans="1:21" ht="13.5">
+      <c r="I15" s="111"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="26"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
@@ -3444,23 +3569,23 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5">
+      <c r="I16" s="111"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="26"/>
-      <c r="B17" s="69"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
@@ -3471,21 +3596,21 @@
       <c r="H17" s="30">
         <v>1</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5">
+      <c r="I17" s="111"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="26"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -3508,7 +3633,7 @@
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
     </row>
-    <row r="19" spans="1:21" ht="13.5">
+    <row r="19" spans="1:21">
       <c r="A19" s="26"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -3531,7 +3656,7 @@
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
     </row>
-    <row r="20" spans="1:21" ht="13.5">
+    <row r="20" spans="1:21">
       <c r="A20" s="26"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3554,7 +3679,7 @@
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
     </row>
-    <row r="21" spans="1:21" ht="13.5">
+    <row r="21" spans="1:21">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3577,7 +3702,7 @@
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
     </row>
-    <row r="22" spans="1:21" ht="13.5">
+    <row r="22" spans="1:21">
       <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
@@ -3602,3105 +3727,3105 @@
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
     </row>
-    <row r="23" spans="1:21" ht="13.5">
+    <row r="23" spans="1:21">
       <c r="A23" s="26"/>
       <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="s">
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60" t="s">
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60" t="s">
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5">
+      <c r="R23" s="115"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="26"/>
-      <c r="B24" s="64">
+      <c r="B24" s="89">
         <v>1</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="73" t="s">
+      <c r="E24" s="97"/>
+      <c r="F24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="72" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72" t="s">
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5">
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="26"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5">
+      <c r="B25" s="90"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="26"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="73" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5">
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="26"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5">
+      <c r="B27" s="90"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="26"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="95" t="s">
+      <c r="B28" s="90"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="73" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="72" t="s">
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72" t="s">
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="26"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5">
+      <c r="B29" s="90"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="26"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5">
+      <c r="B30" s="90"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="26"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5">
+      <c r="B31" s="90"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="26"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-    </row>
-    <row r="33" spans="1:21" ht="13.5">
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="26"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="73" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-    </row>
-    <row r="34" spans="1:21" ht="13.5">
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="26"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-    </row>
-    <row r="35" spans="1:21" ht="13.5">
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="26"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="95" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="72" t="s">
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72" t="s">
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-    </row>
-    <row r="36" spans="1:21" ht="13.5">
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="26"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-    </row>
-    <row r="37" spans="1:21" ht="13.5">
+      <c r="B36" s="90"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="26"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="73" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-    </row>
-    <row r="38" spans="1:21" ht="13.5">
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="25"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-    </row>
-    <row r="39" spans="1:21" ht="13.5">
+      <c r="B38" s="90"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="25"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="94" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="73" t="s">
+      <c r="E39" s="83"/>
+      <c r="F39" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="72" t="s">
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72" t="s">
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-    </row>
-    <row r="40" spans="1:21" ht="13.5">
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="25"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-    </row>
-    <row r="41" spans="1:21" ht="13.5">
+      <c r="B40" s="90"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="25"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-    </row>
-    <row r="42" spans="1:21" ht="13.5">
+      <c r="B41" s="90"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="25"/>
-      <c r="B42" s="65">
+      <c r="B42" s="90">
         <v>2</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="72" t="s">
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72" t="s">
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-    </row>
-    <row r="43" spans="1:21" ht="13.5">
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="25"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-    </row>
-    <row r="44" spans="1:21" ht="13.5">
+      <c r="B43" s="90"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="25"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-    </row>
-    <row r="45" spans="1:21" ht="13.5">
+      <c r="B44" s="90"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="25"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-    </row>
-    <row r="46" spans="1:21" ht="13.5">
+      <c r="B45" s="90"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="25"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="73" t="s">
+      <c r="B46" s="90"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="72" t="s">
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="72" t="s">
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-    </row>
-    <row r="47" spans="1:21" ht="13.5">
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="25"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-    </row>
-    <row r="48" spans="1:21" ht="13.5">
+      <c r="B47" s="90"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="25"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-    </row>
-    <row r="49" spans="1:21" ht="13.5">
+      <c r="B48" s="90"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="25"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="95" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="73" t="s">
+      <c r="E49" s="78"/>
+      <c r="F49" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="72" t="s">
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72" t="s">
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-    </row>
-    <row r="50" spans="1:21" ht="13.5">
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="25"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-    </row>
-    <row r="51" spans="1:21" ht="13.5">
+      <c r="B50" s="90"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="25"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="73" t="s">
+      <c r="B51" s="90"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-    </row>
-    <row r="52" spans="1:21" ht="13.5">
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="25"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
-      <c r="R52" s="72"/>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-    </row>
-    <row r="53" spans="1:21" ht="13.5">
+      <c r="B52" s="90"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="25"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="73" t="s">
+      <c r="B53" s="90"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="73" t="s">
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="73" t="s">
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="75"/>
-    </row>
-    <row r="54" spans="1:21" ht="13.5">
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="64"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="25"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="78"/>
-    </row>
-    <row r="55" spans="1:21" ht="13.5">
+      <c r="B54" s="90"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="67"/>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="25"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="78"/>
-    </row>
-    <row r="56" spans="1:21" ht="13.5">
+      <c r="B55" s="90"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="67"/>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="25"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="77"/>
-      <c r="S56" s="77"/>
-      <c r="T56" s="77"/>
-      <c r="U56" s="78"/>
-    </row>
-    <row r="57" spans="1:21" ht="13.5">
+      <c r="B56" s="90"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="67"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="25"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="77"/>
-      <c r="S57" s="77"/>
-      <c r="T57" s="77"/>
-      <c r="U57" s="78"/>
-    </row>
-    <row r="58" spans="1:21" ht="13.5">
+      <c r="B57" s="90"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="67"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="25"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="73" t="s">
+      <c r="B58" s="90"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="78"/>
-    </row>
-    <row r="59" spans="1:21" ht="13.5">
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="67"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="25"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="77"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="78"/>
-    </row>
-    <row r="60" spans="1:21" ht="13.5">
+      <c r="B59" s="90"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="67"/>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="25"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="79"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="81"/>
-    </row>
-    <row r="61" spans="1:21" ht="13.5">
+      <c r="B60" s="90"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="70"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="25"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="73" t="s">
+      <c r="B61" s="90"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="72" t="s">
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72" t="s">
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-    </row>
-    <row r="62" spans="1:21" ht="13.5">
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="25"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-    </row>
-    <row r="63" spans="1:21" ht="13.5">
+      <c r="B62" s="90"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="25"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="72"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-    </row>
-    <row r="64" spans="1:21" ht="13.5">
+      <c r="B63" s="90"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="25"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="113" t="s">
+      <c r="B64" s="90"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="73" t="s">
+      <c r="E64" s="72"/>
+      <c r="F64" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="72" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="M64" s="72"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72" t="s">
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-    </row>
-    <row r="65" spans="1:21" ht="13.5">
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="25"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
-      <c r="P65" s="72"/>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-    </row>
-    <row r="66" spans="1:21" ht="13.5">
+      <c r="B65" s="90"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="25"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="72"/>
-      <c r="O66" s="72"/>
-      <c r="P66" s="72"/>
-      <c r="Q66" s="72"/>
-      <c r="R66" s="72"/>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="72"/>
-    </row>
-    <row r="67" spans="1:21" ht="13.5">
+      <c r="B66" s="90"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="25"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="73" t="s">
+      <c r="B67" s="90"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-    </row>
-    <row r="68" spans="1:21" ht="13.5">
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="25"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-    </row>
-    <row r="69" spans="1:21" ht="13.5">
+      <c r="B68" s="90"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="25"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="72"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="72"/>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
-    </row>
-    <row r="70" spans="1:21" ht="13.5">
+      <c r="B69" s="90"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="25"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="73" t="s">
+      <c r="B70" s="90"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-    </row>
-    <row r="71" spans="1:21" ht="13.5">
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="55"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="25"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="72"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="72"/>
-      <c r="O71" s="72"/>
-      <c r="P71" s="72"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-    </row>
-    <row r="72" spans="1:21" ht="13.5">
+      <c r="B71" s="90"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="25"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="73" t="s">
+      <c r="B72" s="90"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="72"/>
-      <c r="N72" s="72"/>
-      <c r="O72" s="72"/>
-      <c r="P72" s="72"/>
-      <c r="Q72" s="72"/>
-      <c r="R72" s="72"/>
-      <c r="S72" s="72"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
-    </row>
-    <row r="73" spans="1:21" ht="13.5">
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="25"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="72"/>
-      <c r="N73" s="72"/>
-      <c r="O73" s="72"/>
-      <c r="P73" s="72"/>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
-      <c r="U73" s="72"/>
-    </row>
-    <row r="74" spans="1:21" ht="13.5">
+      <c r="B73" s="90"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="25"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="72"/>
-      <c r="Q74" s="72"/>
-      <c r="R74" s="72"/>
-      <c r="S74" s="72"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="72"/>
-    </row>
-    <row r="75" spans="1:21" ht="13.5">
+      <c r="B74" s="90"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="55"/>
+      <c r="P74" s="55"/>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="25"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="73" t="s">
+      <c r="B75" s="90"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="72"/>
-      <c r="N75" s="72"/>
-      <c r="O75" s="72"/>
-      <c r="P75" s="72"/>
-      <c r="Q75" s="72"/>
-      <c r="R75" s="72"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="72"/>
-    </row>
-    <row r="76" spans="1:21" ht="13.5">
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="25"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="72"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="72"/>
-      <c r="P76" s="72"/>
-      <c r="Q76" s="72"/>
-      <c r="R76" s="72"/>
-      <c r="S76" s="72"/>
-      <c r="T76" s="72"/>
-      <c r="U76" s="72"/>
-    </row>
-    <row r="77" spans="1:21" ht="13.5">
+      <c r="B76" s="90"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="70"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="25"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="73" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="72"/>
-      <c r="N77" s="72"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="72"/>
-      <c r="Q77" s="72"/>
-      <c r="R77" s="72"/>
-      <c r="S77" s="72"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="72"/>
-    </row>
-    <row r="78" spans="1:21" ht="13.5">
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="64"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="25"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="72"/>
-      <c r="M78" s="72"/>
-      <c r="N78" s="72"/>
-      <c r="O78" s="72"/>
-      <c r="P78" s="72"/>
-      <c r="Q78" s="72"/>
-      <c r="R78" s="72"/>
-      <c r="S78" s="72"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="72"/>
-    </row>
-    <row r="79" spans="1:21" ht="13.5">
+      <c r="B78" s="90"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="25"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="73" t="s">
+      <c r="B79" s="90"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="73" t="s">
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="72" t="s">
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="R79" s="72"/>
-      <c r="S79" s="72"/>
-      <c r="T79" s="72"/>
-      <c r="U79" s="72"/>
-    </row>
-    <row r="80" spans="1:21" ht="13.5">
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="25"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="72"/>
-      <c r="R80" s="72"/>
-      <c r="S80" s="72"/>
-      <c r="T80" s="72"/>
-      <c r="U80" s="72"/>
-    </row>
-    <row r="81" spans="1:21" ht="13.5">
+      <c r="B80" s="90"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="25"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="72"/>
-    </row>
-    <row r="82" spans="1:21" ht="13.5">
+      <c r="B81" s="90"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="25"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="76"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-    </row>
-    <row r="83" spans="1:21" ht="13.5">
+      <c r="B82" s="90"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="67"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="25"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="80"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
-    </row>
-    <row r="84" spans="1:21" ht="13.5">
+      <c r="B83" s="90"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="70"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="25"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="95" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="73" t="s">
+      <c r="E84" s="78"/>
+      <c r="F84" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="72" t="s">
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="M84" s="72"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="72"/>
-      <c r="P84" s="72"/>
-      <c r="Q84" s="72" t="s">
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
-    </row>
-    <row r="85" spans="1:21" ht="13.5">
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="25"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
-    </row>
-    <row r="86" spans="1:21" ht="13.5">
+      <c r="B85" s="90"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="55"/>
+      <c r="R85" s="55"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="25"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="72"/>
-      <c r="M86" s="72"/>
-      <c r="N86" s="72"/>
-      <c r="O86" s="72"/>
-      <c r="P86" s="72"/>
-      <c r="Q86" s="72"/>
-      <c r="R86" s="72"/>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
-    </row>
-    <row r="87" spans="1:21" ht="13.5">
+      <c r="B86" s="90"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="55"/>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="25"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
-      <c r="N87" s="72"/>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-    </row>
-    <row r="88" spans="1:21" ht="13.5">
+      <c r="B87" s="90"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="25"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
-    </row>
-    <row r="89" spans="1:21" ht="13.5">
+      <c r="B88" s="90"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="25"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="107" t="s">
+      <c r="B89" s="90"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="108"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
-      <c r="U89" s="84"/>
-    </row>
-    <row r="90" spans="1:21" ht="13.5">
+      <c r="E89" s="104"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="57"/>
+      <c r="P89" s="58"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="57"/>
+      <c r="S89" s="57"/>
+      <c r="T89" s="57"/>
+      <c r="U89" s="58"/>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="25"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="110"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="88"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="89"/>
-      <c r="P90" s="90"/>
-      <c r="Q90" s="88"/>
-      <c r="R90" s="89"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="89"/>
-      <c r="U90" s="90"/>
-    </row>
-    <row r="91" spans="1:21" ht="13.5">
+      <c r="B90" s="90"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="86"/>
+      <c r="M90" s="87"/>
+      <c r="N90" s="87"/>
+      <c r="O90" s="87"/>
+      <c r="P90" s="88"/>
+      <c r="Q90" s="86"/>
+      <c r="R90" s="87"/>
+      <c r="S90" s="87"/>
+      <c r="T90" s="87"/>
+      <c r="U90" s="88"/>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="25"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="110"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="88"/>
-      <c r="M91" s="89"/>
-      <c r="N91" s="89"/>
-      <c r="O91" s="89"/>
-      <c r="P91" s="90"/>
-      <c r="Q91" s="88"/>
-      <c r="R91" s="89"/>
-      <c r="S91" s="89"/>
-      <c r="T91" s="89"/>
-      <c r="U91" s="90"/>
-    </row>
-    <row r="92" spans="1:21" ht="13.5">
+      <c r="B91" s="90"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="87"/>
+      <c r="N91" s="87"/>
+      <c r="O91" s="87"/>
+      <c r="P91" s="88"/>
+      <c r="Q91" s="86"/>
+      <c r="R91" s="87"/>
+      <c r="S91" s="87"/>
+      <c r="T91" s="87"/>
+      <c r="U91" s="88"/>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="25"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="110"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="87"/>
-      <c r="L92" s="88"/>
-      <c r="M92" s="89"/>
-      <c r="N92" s="89"/>
-      <c r="O92" s="89"/>
-      <c r="P92" s="90"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="89"/>
-      <c r="S92" s="89"/>
-      <c r="T92" s="89"/>
-      <c r="U92" s="90"/>
-    </row>
-    <row r="93" spans="1:21" ht="13.5">
+      <c r="B92" s="90"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="61"/>
+      <c r="L92" s="86"/>
+      <c r="M92" s="87"/>
+      <c r="N92" s="87"/>
+      <c r="O92" s="87"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="86"/>
+      <c r="R92" s="87"/>
+      <c r="S92" s="87"/>
+      <c r="T92" s="87"/>
+      <c r="U92" s="88"/>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="25"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="110"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="88"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="90"/>
-      <c r="Q93" s="88"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="90"/>
-    </row>
-    <row r="94" spans="1:21" ht="13.5">
+      <c r="B93" s="90"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="86"/>
+      <c r="M93" s="87"/>
+      <c r="N93" s="87"/>
+      <c r="O93" s="87"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="86"/>
+      <c r="R93" s="87"/>
+      <c r="S93" s="87"/>
+      <c r="T93" s="87"/>
+      <c r="U93" s="88"/>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="25"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86"/>
-      <c r="J94" s="86"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="85"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="86"/>
-      <c r="O94" s="86"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="85"/>
-      <c r="R94" s="86"/>
-      <c r="S94" s="86"/>
-      <c r="T94" s="86"/>
-      <c r="U94" s="87"/>
-    </row>
-    <row r="95" spans="1:21" ht="13.5">
+      <c r="B94" s="91"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="61"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="61"/>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="25"/>
-      <c r="B95" s="64">
+      <c r="B95" s="89">
         <v>3</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="106" t="s">
+      <c r="D95" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="106"/>
-      <c r="F95" s="72" t="s">
+      <c r="E95" s="102"/>
+      <c r="F95" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="72"/>
-      <c r="J95" s="72"/>
-      <c r="K95" s="72"/>
-      <c r="L95" s="72" t="s">
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="M95" s="72"/>
-      <c r="N95" s="72"/>
-      <c r="O95" s="72"/>
-      <c r="P95" s="72"/>
-      <c r="Q95" s="72" t="s">
+      <c r="M95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="R95" s="72"/>
-      <c r="S95" s="72"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="72"/>
-    </row>
-    <row r="96" spans="1:21" ht="13.5">
+      <c r="R95" s="55"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+      <c r="U95" s="55"/>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="25"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="72"/>
-      <c r="N96" s="72"/>
-      <c r="O96" s="72"/>
-      <c r="P96" s="72"/>
-      <c r="Q96" s="72"/>
-      <c r="R96" s="72"/>
-      <c r="S96" s="72"/>
-      <c r="T96" s="72"/>
-      <c r="U96" s="72"/>
-    </row>
-    <row r="97" spans="1:21" ht="13.5">
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="R96" s="55"/>
+      <c r="S96" s="55"/>
+      <c r="T96" s="55"/>
+      <c r="U96" s="55"/>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="25"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="72"/>
-      <c r="K97" s="72"/>
-      <c r="L97" s="72"/>
-      <c r="M97" s="72"/>
-      <c r="N97" s="72"/>
-      <c r="O97" s="72"/>
-      <c r="P97" s="72"/>
-      <c r="Q97" s="72"/>
-      <c r="R97" s="72"/>
-      <c r="S97" s="72"/>
-      <c r="T97" s="72"/>
-      <c r="U97" s="72"/>
-    </row>
-    <row r="98" spans="1:21" ht="13.5">
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="55"/>
+      <c r="R97" s="55"/>
+      <c r="S97" s="55"/>
+      <c r="T97" s="55"/>
+      <c r="U97" s="55"/>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="25"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="106"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="72" t="s">
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
-      <c r="N98" s="72"/>
-      <c r="O98" s="72"/>
-      <c r="P98" s="72"/>
-      <c r="Q98" s="72"/>
-      <c r="R98" s="72"/>
-      <c r="S98" s="72"/>
-      <c r="T98" s="72"/>
-      <c r="U98" s="72"/>
-    </row>
-    <row r="99" spans="1:21" ht="13.5">
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="55"/>
+      <c r="S98" s="55"/>
+      <c r="T98" s="55"/>
+      <c r="U98" s="55"/>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="25"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="106"/>
-      <c r="E99" s="106"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
-      <c r="N99" s="72"/>
-      <c r="O99" s="72"/>
-      <c r="P99" s="72"/>
-      <c r="Q99" s="72"/>
-      <c r="R99" s="72"/>
-      <c r="S99" s="72"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="72"/>
-    </row>
-    <row r="100" spans="1:21" ht="13.5">
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="55"/>
+      <c r="S99" s="55"/>
+      <c r="T99" s="55"/>
+      <c r="U99" s="55"/>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="25"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
-      <c r="N100" s="72"/>
-      <c r="O100" s="72"/>
-      <c r="P100" s="72"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
-    </row>
-    <row r="101" spans="1:21" ht="13.5">
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="55"/>
+      <c r="S100" s="55"/>
+      <c r="T100" s="55"/>
+      <c r="U100" s="55"/>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="25"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
-      <c r="N101" s="72"/>
-      <c r="O101" s="72"/>
-      <c r="P101" s="72"/>
-      <c r="Q101" s="72"/>
-      <c r="R101" s="72"/>
-      <c r="S101" s="72"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="72"/>
-    </row>
-    <row r="102" spans="1:21" ht="13.5">
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="55"/>
+      <c r="S101" s="55"/>
+      <c r="T101" s="55"/>
+      <c r="U101" s="55"/>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="25"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="72" t="s">
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="72"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
-    </row>
-    <row r="103" spans="1:21" ht="13.5">
+      <c r="G102" s="55"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="55"/>
+      <c r="P102" s="55"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="55"/>
+      <c r="S102" s="55"/>
+      <c r="T102" s="55"/>
+      <c r="U102" s="55"/>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="25"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="O103" s="72"/>
-      <c r="P103" s="72"/>
-      <c r="Q103" s="72"/>
-      <c r="R103" s="72"/>
-      <c r="S103" s="72"/>
-      <c r="T103" s="72"/>
-      <c r="U103" s="72"/>
-    </row>
-    <row r="104" spans="1:21" ht="13.5">
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="55"/>
+      <c r="S103" s="55"/>
+      <c r="T103" s="55"/>
+      <c r="U103" s="55"/>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="25"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="72"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="72"/>
-      <c r="L104" s="72"/>
-      <c r="M104" s="72"/>
-      <c r="N104" s="72"/>
-      <c r="O104" s="72"/>
-      <c r="P104" s="72"/>
-      <c r="Q104" s="72"/>
-      <c r="R104" s="72"/>
-      <c r="S104" s="72"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="72"/>
-    </row>
-    <row r="105" spans="1:21" ht="13.5">
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="55"/>
+      <c r="J104" s="55"/>
+      <c r="K104" s="55"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55"/>
+      <c r="P104" s="55"/>
+      <c r="Q104" s="55"/>
+      <c r="R104" s="55"/>
+      <c r="S104" s="55"/>
+      <c r="T104" s="55"/>
+      <c r="U104" s="55"/>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="25"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="72" t="s">
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="102"/>
+      <c r="E105" s="102"/>
+      <c r="F105" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72" t="s">
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="55"/>
+      <c r="L105" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="M105" s="72"/>
-      <c r="N105" s="72"/>
-      <c r="O105" s="72"/>
-      <c r="P105" s="72"/>
-      <c r="Q105" s="72" t="s">
+      <c r="M105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="R105" s="72"/>
-      <c r="S105" s="72"/>
-      <c r="T105" s="72"/>
-      <c r="U105" s="72"/>
-    </row>
-    <row r="106" spans="1:21" ht="13.5">
+      <c r="R105" s="55"/>
+      <c r="S105" s="55"/>
+      <c r="T105" s="55"/>
+      <c r="U105" s="55"/>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="25"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="106"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
-      <c r="M106" s="72"/>
-      <c r="N106" s="72"/>
-      <c r="O106" s="72"/>
-      <c r="P106" s="72"/>
-      <c r="Q106" s="72"/>
-      <c r="R106" s="72"/>
-      <c r="S106" s="72"/>
-      <c r="T106" s="72"/>
-      <c r="U106" s="72"/>
-    </row>
-    <row r="107" spans="1:21" ht="13.5">
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="55"/>
+      <c r="M106" s="55"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+      <c r="R106" s="55"/>
+      <c r="S106" s="55"/>
+      <c r="T106" s="55"/>
+      <c r="U106" s="55"/>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="25"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="106"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="72"/>
-      <c r="J107" s="72"/>
-      <c r="K107" s="72"/>
-      <c r="L107" s="72"/>
-      <c r="M107" s="72"/>
-      <c r="N107" s="72"/>
-      <c r="O107" s="72"/>
-      <c r="P107" s="72"/>
-      <c r="Q107" s="72"/>
-      <c r="R107" s="72"/>
-      <c r="S107" s="72"/>
-      <c r="T107" s="72"/>
-      <c r="U107" s="72"/>
-    </row>
-    <row r="108" spans="1:21" ht="13.5">
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
+      <c r="L107" s="55"/>
+      <c r="M107" s="55"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="55"/>
+      <c r="R107" s="55"/>
+      <c r="S107" s="55"/>
+      <c r="T107" s="55"/>
+      <c r="U107" s="55"/>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="25"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="72"/>
-      <c r="J108" s="72"/>
-      <c r="K108" s="72"/>
-      <c r="L108" s="72"/>
-      <c r="M108" s="72"/>
-      <c r="N108" s="72"/>
-      <c r="O108" s="72"/>
-      <c r="P108" s="72"/>
-      <c r="Q108" s="72"/>
-      <c r="R108" s="72"/>
-      <c r="S108" s="72"/>
-      <c r="T108" s="72"/>
-      <c r="U108" s="72"/>
-    </row>
-    <row r="109" spans="1:21" ht="13.5">
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="55"/>
+      <c r="M108" s="55"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="55"/>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="55"/>
+      <c r="R108" s="55"/>
+      <c r="S108" s="55"/>
+      <c r="T108" s="55"/>
+      <c r="U108" s="55"/>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="25"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="106"/>
-      <c r="E109" s="106"/>
-      <c r="F109" s="73" t="s">
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="102"/>
+      <c r="E109" s="102"/>
+      <c r="F109" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="73" t="s">
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="64"/>
+      <c r="L109" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="73" t="s">
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="64"/>
+      <c r="Q109" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="75"/>
-    </row>
-    <row r="110" spans="1:21" ht="13.5">
+      <c r="R109" s="63"/>
+      <c r="S109" s="63"/>
+      <c r="T109" s="63"/>
+      <c r="U109" s="64"/>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="25"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="78"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77"/>
-      <c r="O110" s="77"/>
-      <c r="P110" s="78"/>
-      <c r="Q110" s="76"/>
-      <c r="R110" s="77"/>
-      <c r="S110" s="77"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="78"/>
-    </row>
-    <row r="111" spans="1:21" ht="13.5">
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="65"/>
+      <c r="M110" s="66"/>
+      <c r="N110" s="66"/>
+      <c r="O110" s="66"/>
+      <c r="P110" s="67"/>
+      <c r="Q110" s="65"/>
+      <c r="R110" s="66"/>
+      <c r="S110" s="66"/>
+      <c r="T110" s="66"/>
+      <c r="U110" s="67"/>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="25"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="77"/>
-      <c r="N111" s="77"/>
-      <c r="O111" s="77"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="76"/>
-      <c r="R111" s="77"/>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="78"/>
-    </row>
-    <row r="112" spans="1:21" ht="13.5">
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="102"/>
+      <c r="E111" s="102"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="66"/>
+      <c r="N111" s="66"/>
+      <c r="O111" s="66"/>
+      <c r="P111" s="67"/>
+      <c r="Q111" s="65"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="66"/>
+      <c r="T111" s="66"/>
+      <c r="U111" s="67"/>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="25"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="106"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="77"/>
-      <c r="N112" s="77"/>
-      <c r="O112" s="77"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="76"/>
-      <c r="R112" s="77"/>
-      <c r="S112" s="77"/>
-      <c r="T112" s="77"/>
-      <c r="U112" s="78"/>
-    </row>
-    <row r="113" spans="1:21" ht="13.5">
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="102"/>
+      <c r="E112" s="102"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="67"/>
+      <c r="L112" s="65"/>
+      <c r="M112" s="66"/>
+      <c r="N112" s="66"/>
+      <c r="O112" s="66"/>
+      <c r="P112" s="67"/>
+      <c r="Q112" s="65"/>
+      <c r="R112" s="66"/>
+      <c r="S112" s="66"/>
+      <c r="T112" s="66"/>
+      <c r="U112" s="67"/>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="25"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="106"/>
-      <c r="E113" s="106"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="78"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="77"/>
-      <c r="N113" s="77"/>
-      <c r="O113" s="77"/>
-      <c r="P113" s="78"/>
-      <c r="Q113" s="76"/>
-      <c r="R113" s="77"/>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="78"/>
-    </row>
-    <row r="114" spans="1:21" ht="13.5">
+      <c r="B113" s="90"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="102"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="65"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="66"/>
+      <c r="T113" s="66"/>
+      <c r="U113" s="67"/>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="25"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="106"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="77"/>
-      <c r="N114" s="77"/>
-      <c r="O114" s="77"/>
-      <c r="P114" s="78"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="77"/>
-      <c r="S114" s="77"/>
-      <c r="T114" s="77"/>
-      <c r="U114" s="78"/>
-    </row>
-    <row r="115" spans="1:21" ht="13.5">
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="102"/>
+      <c r="E114" s="102"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="65"/>
+      <c r="M114" s="66"/>
+      <c r="N114" s="66"/>
+      <c r="O114" s="66"/>
+      <c r="P114" s="67"/>
+      <c r="Q114" s="65"/>
+      <c r="R114" s="66"/>
+      <c r="S114" s="66"/>
+      <c r="T114" s="66"/>
+      <c r="U114" s="67"/>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="25"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="80"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="79"/>
-      <c r="M115" s="80"/>
-      <c r="N115" s="80"/>
-      <c r="O115" s="80"/>
-      <c r="P115" s="81"/>
-      <c r="Q115" s="79"/>
-      <c r="R115" s="80"/>
-      <c r="S115" s="80"/>
-      <c r="T115" s="80"/>
-      <c r="U115" s="81"/>
-    </row>
-    <row r="116" spans="1:21" ht="13.5">
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="102"/>
+      <c r="E115" s="102"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="68"/>
+      <c r="M115" s="69"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="69"/>
+      <c r="P115" s="70"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="69"/>
+      <c r="S115" s="69"/>
+      <c r="T115" s="69"/>
+      <c r="U115" s="70"/>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="25"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="95" t="s">
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="96"/>
-      <c r="F116" s="72" t="s">
+      <c r="E116" s="78"/>
+      <c r="F116" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="72"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73" t="s">
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="M116" s="74"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="73" t="s">
+      <c r="M116" s="63"/>
+      <c r="N116" s="63"/>
+      <c r="O116" s="63"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="R116" s="74"/>
-      <c r="S116" s="74"/>
-      <c r="T116" s="74"/>
-      <c r="U116" s="75"/>
-    </row>
-    <row r="117" spans="1:21" ht="13.5">
+      <c r="R116" s="63"/>
+      <c r="S116" s="63"/>
+      <c r="T116" s="63"/>
+      <c r="U116" s="64"/>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="25"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="76"/>
-      <c r="M117" s="77"/>
-      <c r="N117" s="77"/>
-      <c r="O117" s="77"/>
-      <c r="P117" s="78"/>
-      <c r="Q117" s="76"/>
-      <c r="R117" s="77"/>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="78"/>
-    </row>
-    <row r="118" spans="1:21" ht="13.5">
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
+      <c r="D117" s="79"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="66"/>
+      <c r="N117" s="66"/>
+      <c r="O117" s="66"/>
+      <c r="P117" s="67"/>
+      <c r="Q117" s="65"/>
+      <c r="R117" s="66"/>
+      <c r="S117" s="66"/>
+      <c r="T117" s="66"/>
+      <c r="U117" s="67"/>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="25"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="76"/>
-      <c r="M118" s="77"/>
-      <c r="N118" s="77"/>
-      <c r="O118" s="77"/>
-      <c r="P118" s="78"/>
-      <c r="Q118" s="76"/>
-      <c r="R118" s="77"/>
-      <c r="S118" s="77"/>
-      <c r="T118" s="77"/>
-      <c r="U118" s="78"/>
-    </row>
-    <row r="119" spans="1:21" ht="13.5">
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="65"/>
+      <c r="M118" s="66"/>
+      <c r="N118" s="66"/>
+      <c r="O118" s="66"/>
+      <c r="P118" s="67"/>
+      <c r="Q118" s="65"/>
+      <c r="R118" s="66"/>
+      <c r="S118" s="66"/>
+      <c r="T118" s="66"/>
+      <c r="U118" s="67"/>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="25"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="72" t="s">
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-      <c r="J119" s="72"/>
-      <c r="K119" s="72"/>
-      <c r="L119" s="76"/>
-      <c r="M119" s="77"/>
-      <c r="N119" s="77"/>
-      <c r="O119" s="77"/>
-      <c r="P119" s="78"/>
-      <c r="Q119" s="76"/>
-      <c r="R119" s="77"/>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="78"/>
-    </row>
-    <row r="120" spans="1:21" ht="13.5">
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
+      <c r="J119" s="55"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="65"/>
+      <c r="M119" s="66"/>
+      <c r="N119" s="66"/>
+      <c r="O119" s="66"/>
+      <c r="P119" s="67"/>
+      <c r="Q119" s="65"/>
+      <c r="R119" s="66"/>
+      <c r="S119" s="66"/>
+      <c r="T119" s="66"/>
+      <c r="U119" s="67"/>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="25"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="76"/>
-      <c r="M120" s="77"/>
-      <c r="N120" s="77"/>
-      <c r="O120" s="77"/>
-      <c r="P120" s="78"/>
-      <c r="Q120" s="76"/>
-      <c r="R120" s="77"/>
-      <c r="S120" s="77"/>
-      <c r="T120" s="77"/>
-      <c r="U120" s="78"/>
-    </row>
-    <row r="121" spans="1:21" ht="13.5">
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="65"/>
+      <c r="M120" s="66"/>
+      <c r="N120" s="66"/>
+      <c r="O120" s="66"/>
+      <c r="P120" s="67"/>
+      <c r="Q120" s="65"/>
+      <c r="R120" s="66"/>
+      <c r="S120" s="66"/>
+      <c r="T120" s="66"/>
+      <c r="U120" s="67"/>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="25"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
-      <c r="I121" s="72"/>
-      <c r="J121" s="72"/>
-      <c r="K121" s="72"/>
-      <c r="L121" s="76"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="76"/>
-      <c r="R121" s="77"/>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="78"/>
-    </row>
-    <row r="122" spans="1:21" ht="13.5">
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="65"/>
+      <c r="M121" s="66"/>
+      <c r="N121" s="66"/>
+      <c r="O121" s="66"/>
+      <c r="P121" s="67"/>
+      <c r="Q121" s="65"/>
+      <c r="R121" s="66"/>
+      <c r="S121" s="66"/>
+      <c r="T121" s="66"/>
+      <c r="U121" s="67"/>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="25"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="72"/>
-      <c r="K122" s="72"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="78"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="77"/>
-      <c r="S122" s="77"/>
-      <c r="T122" s="77"/>
-      <c r="U122" s="78"/>
-    </row>
-    <row r="123" spans="1:21" ht="13.5">
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
+      <c r="L122" s="65"/>
+      <c r="M122" s="66"/>
+      <c r="N122" s="66"/>
+      <c r="O122" s="66"/>
+      <c r="P122" s="67"/>
+      <c r="Q122" s="65"/>
+      <c r="R122" s="66"/>
+      <c r="S122" s="66"/>
+      <c r="T122" s="66"/>
+      <c r="U122" s="67"/>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="25"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="79"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="81"/>
-      <c r="Q123" s="79"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="81"/>
-    </row>
-    <row r="124" spans="1:21" ht="13.5">
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
+      <c r="L123" s="68"/>
+      <c r="M123" s="69"/>
+      <c r="N123" s="69"/>
+      <c r="O123" s="69"/>
+      <c r="P123" s="70"/>
+      <c r="Q123" s="68"/>
+      <c r="R123" s="69"/>
+      <c r="S123" s="69"/>
+      <c r="T123" s="69"/>
+      <c r="U123" s="70"/>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="25"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="72" t="s">
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="73" t="s">
+      <c r="G124" s="55"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
+      <c r="L124" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="M124" s="74"/>
-      <c r="N124" s="74"/>
-      <c r="O124" s="74"/>
-      <c r="P124" s="75"/>
-      <c r="Q124" s="73" t="s">
+      <c r="M124" s="63"/>
+      <c r="N124" s="63"/>
+      <c r="O124" s="63"/>
+      <c r="P124" s="64"/>
+      <c r="Q124" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="R124" s="74"/>
-      <c r="S124" s="74"/>
-      <c r="T124" s="74"/>
-      <c r="U124" s="75"/>
-    </row>
-    <row r="125" spans="1:21" ht="13.5">
+      <c r="R124" s="63"/>
+      <c r="S124" s="63"/>
+      <c r="T124" s="63"/>
+      <c r="U124" s="64"/>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="25"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="98"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
-      <c r="I125" s="72"/>
-      <c r="J125" s="72"/>
-      <c r="K125" s="72"/>
-      <c r="L125" s="76"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
-      <c r="P125" s="78"/>
-      <c r="Q125" s="76"/>
-      <c r="R125" s="77"/>
-      <c r="S125" s="77"/>
-      <c r="T125" s="77"/>
-      <c r="U125" s="78"/>
-    </row>
-    <row r="126" spans="1:21" ht="13.5">
+      <c r="B125" s="90"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="80"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55"/>
+      <c r="L125" s="65"/>
+      <c r="M125" s="66"/>
+      <c r="N125" s="66"/>
+      <c r="O125" s="66"/>
+      <c r="P125" s="67"/>
+      <c r="Q125" s="65"/>
+      <c r="R125" s="66"/>
+      <c r="S125" s="66"/>
+      <c r="T125" s="66"/>
+      <c r="U125" s="67"/>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="25"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="98"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="76"/>
-      <c r="M126" s="77"/>
-      <c r="N126" s="77"/>
-      <c r="O126" s="77"/>
-      <c r="P126" s="78"/>
-      <c r="Q126" s="76"/>
-      <c r="R126" s="77"/>
-      <c r="S126" s="77"/>
-      <c r="T126" s="77"/>
-      <c r="U126" s="78"/>
-    </row>
-    <row r="127" spans="1:21" ht="13.5">
+      <c r="B126" s="90"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="79"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
+      <c r="L126" s="65"/>
+      <c r="M126" s="66"/>
+      <c r="N126" s="66"/>
+      <c r="O126" s="66"/>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="65"/>
+      <c r="R126" s="66"/>
+      <c r="S126" s="66"/>
+      <c r="T126" s="66"/>
+      <c r="U126" s="67"/>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="25"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="76"/>
-      <c r="M127" s="77"/>
-      <c r="N127" s="77"/>
-      <c r="O127" s="77"/>
-      <c r="P127" s="78"/>
-      <c r="Q127" s="76"/>
-      <c r="R127" s="77"/>
-      <c r="S127" s="77"/>
-      <c r="T127" s="77"/>
-      <c r="U127" s="78"/>
-    </row>
-    <row r="128" spans="1:21" ht="13.5">
+      <c r="B127" s="90"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
+      <c r="L127" s="65"/>
+      <c r="M127" s="66"/>
+      <c r="N127" s="66"/>
+      <c r="O127" s="66"/>
+      <c r="P127" s="67"/>
+      <c r="Q127" s="65"/>
+      <c r="R127" s="66"/>
+      <c r="S127" s="66"/>
+      <c r="T127" s="66"/>
+      <c r="U127" s="67"/>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="25"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="76"/>
-      <c r="M128" s="77"/>
-      <c r="N128" s="77"/>
-      <c r="O128" s="77"/>
-      <c r="P128" s="78"/>
-      <c r="Q128" s="76"/>
-      <c r="R128" s="77"/>
-      <c r="S128" s="77"/>
-      <c r="T128" s="77"/>
-      <c r="U128" s="78"/>
-    </row>
-    <row r="129" spans="1:21" ht="13.5">
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
+      <c r="L128" s="65"/>
+      <c r="M128" s="66"/>
+      <c r="N128" s="66"/>
+      <c r="O128" s="66"/>
+      <c r="P128" s="67"/>
+      <c r="Q128" s="65"/>
+      <c r="R128" s="66"/>
+      <c r="S128" s="66"/>
+      <c r="T128" s="66"/>
+      <c r="U128" s="67"/>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="25"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="98"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="81"/>
-      <c r="Q129" s="79"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="81"/>
-    </row>
-    <row r="130" spans="1:21" ht="13.5">
+      <c r="B129" s="90"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="55"/>
+      <c r="L129" s="68"/>
+      <c r="M129" s="69"/>
+      <c r="N129" s="69"/>
+      <c r="O129" s="69"/>
+      <c r="P129" s="70"/>
+      <c r="Q129" s="68"/>
+      <c r="R129" s="69"/>
+      <c r="S129" s="69"/>
+      <c r="T129" s="69"/>
+      <c r="U129" s="70"/>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="25"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="72" t="s">
+      <c r="B130" s="90"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="79"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
-      <c r="I130" s="72"/>
-      <c r="J130" s="72"/>
-      <c r="K130" s="72"/>
-      <c r="L130" s="73" t="s">
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="55"/>
+      <c r="L130" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="M130" s="74"/>
-      <c r="N130" s="74"/>
-      <c r="O130" s="74"/>
-      <c r="P130" s="75"/>
-      <c r="Q130" s="73" t="s">
+      <c r="M130" s="63"/>
+      <c r="N130" s="63"/>
+      <c r="O130" s="63"/>
+      <c r="P130" s="64"/>
+      <c r="Q130" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="R130" s="74"/>
-      <c r="S130" s="74"/>
-      <c r="T130" s="74"/>
-      <c r="U130" s="75"/>
-    </row>
-    <row r="131" spans="1:21" ht="13.5">
+      <c r="R130" s="63"/>
+      <c r="S130" s="63"/>
+      <c r="T130" s="63"/>
+      <c r="U130" s="64"/>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="25"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="76"/>
-      <c r="M131" s="77"/>
-      <c r="N131" s="77"/>
-      <c r="O131" s="77"/>
-      <c r="P131" s="78"/>
-      <c r="Q131" s="76"/>
-      <c r="R131" s="77"/>
-      <c r="S131" s="77"/>
-      <c r="T131" s="77"/>
-      <c r="U131" s="78"/>
-    </row>
-    <row r="132" spans="1:21" ht="13.5">
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="66"/>
+      <c r="N131" s="66"/>
+      <c r="O131" s="66"/>
+      <c r="P131" s="67"/>
+      <c r="Q131" s="65"/>
+      <c r="R131" s="66"/>
+      <c r="S131" s="66"/>
+      <c r="T131" s="66"/>
+      <c r="U131" s="67"/>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="25"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="72"/>
-      <c r="J132" s="72"/>
-      <c r="K132" s="72"/>
-      <c r="L132" s="76"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="77"/>
-      <c r="O132" s="77"/>
-      <c r="P132" s="78"/>
-      <c r="Q132" s="76"/>
-      <c r="R132" s="77"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="77"/>
-      <c r="U132" s="78"/>
-    </row>
-    <row r="133" spans="1:21" ht="13.5">
+      <c r="B132" s="90"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55"/>
+      <c r="L132" s="65"/>
+      <c r="M132" s="66"/>
+      <c r="N132" s="66"/>
+      <c r="O132" s="66"/>
+      <c r="P132" s="67"/>
+      <c r="Q132" s="65"/>
+      <c r="R132" s="66"/>
+      <c r="S132" s="66"/>
+      <c r="T132" s="66"/>
+      <c r="U132" s="67"/>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="25"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="72"/>
-      <c r="L133" s="76"/>
-      <c r="M133" s="77"/>
-      <c r="N133" s="77"/>
-      <c r="O133" s="77"/>
-      <c r="P133" s="78"/>
-      <c r="Q133" s="76"/>
-      <c r="R133" s="77"/>
-      <c r="S133" s="77"/>
-      <c r="T133" s="77"/>
-      <c r="U133" s="78"/>
-    </row>
-    <row r="134" spans="1:21" ht="13.5">
+      <c r="B133" s="90"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55"/>
+      <c r="L133" s="65"/>
+      <c r="M133" s="66"/>
+      <c r="N133" s="66"/>
+      <c r="O133" s="66"/>
+      <c r="P133" s="67"/>
+      <c r="Q133" s="65"/>
+      <c r="R133" s="66"/>
+      <c r="S133" s="66"/>
+      <c r="T133" s="66"/>
+      <c r="U133" s="67"/>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="25"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="98"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="72"/>
-      <c r="L134" s="76"/>
-      <c r="M134" s="77"/>
-      <c r="N134" s="77"/>
-      <c r="O134" s="77"/>
-      <c r="P134" s="78"/>
-      <c r="Q134" s="76"/>
-      <c r="R134" s="77"/>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77"/>
-      <c r="U134" s="78"/>
-    </row>
-    <row r="135" spans="1:21" ht="13.5">
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="79"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="55"/>
+      <c r="K134" s="55"/>
+      <c r="L134" s="65"/>
+      <c r="M134" s="66"/>
+      <c r="N134" s="66"/>
+      <c r="O134" s="66"/>
+      <c r="P134" s="67"/>
+      <c r="Q134" s="65"/>
+      <c r="R134" s="66"/>
+      <c r="S134" s="66"/>
+      <c r="T134" s="66"/>
+      <c r="U134" s="67"/>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="25"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="95" t="s">
+      <c r="B135" s="90"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="73" t="s">
+      <c r="E135" s="78"/>
+      <c r="F135" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="73" t="s">
+      <c r="G135" s="63"/>
+      <c r="H135" s="63"/>
+      <c r="I135" s="63"/>
+      <c r="J135" s="63"/>
+      <c r="K135" s="64"/>
+      <c r="L135" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="M135" s="74"/>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="75"/>
-      <c r="Q135" s="73" t="s">
+      <c r="M135" s="63"/>
+      <c r="N135" s="63"/>
+      <c r="O135" s="63"/>
+      <c r="P135" s="64"/>
+      <c r="Q135" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="R135" s="74"/>
-      <c r="S135" s="74"/>
-      <c r="T135" s="74"/>
-      <c r="U135" s="75"/>
-    </row>
-    <row r="136" spans="1:21" ht="13.5">
+      <c r="R135" s="63"/>
+      <c r="S135" s="63"/>
+      <c r="T135" s="63"/>
+      <c r="U135" s="64"/>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="25"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="98"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="78"/>
-      <c r="L136" s="76"/>
-      <c r="M136" s="77"/>
-      <c r="N136" s="77"/>
-      <c r="O136" s="77"/>
-      <c r="P136" s="78"/>
-      <c r="Q136" s="76"/>
-      <c r="R136" s="77"/>
-      <c r="S136" s="77"/>
-      <c r="T136" s="77"/>
-      <c r="U136" s="78"/>
-    </row>
-    <row r="137" spans="1:21" ht="13.5">
+      <c r="B136" s="90"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="80"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="67"/>
+      <c r="L136" s="65"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="66"/>
+      <c r="O136" s="66"/>
+      <c r="P136" s="67"/>
+      <c r="Q136" s="65"/>
+      <c r="R136" s="66"/>
+      <c r="S136" s="66"/>
+      <c r="T136" s="66"/>
+      <c r="U136" s="67"/>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="25"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="97"/>
-      <c r="E137" s="98"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="80"/>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="80"/>
-      <c r="K137" s="81"/>
-      <c r="L137" s="76"/>
-      <c r="M137" s="77"/>
-      <c r="N137" s="77"/>
-      <c r="O137" s="77"/>
-      <c r="P137" s="78"/>
-      <c r="Q137" s="79"/>
-      <c r="R137" s="80"/>
-      <c r="S137" s="80"/>
-      <c r="T137" s="80"/>
-      <c r="U137" s="81"/>
-    </row>
-    <row r="138" spans="1:21" ht="13.5">
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="80"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="69"/>
+      <c r="J137" s="69"/>
+      <c r="K137" s="70"/>
+      <c r="L137" s="65"/>
+      <c r="M137" s="66"/>
+      <c r="N137" s="66"/>
+      <c r="O137" s="66"/>
+      <c r="P137" s="67"/>
+      <c r="Q137" s="68"/>
+      <c r="R137" s="69"/>
+      <c r="S137" s="69"/>
+      <c r="T137" s="69"/>
+      <c r="U137" s="70"/>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="25"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="98"/>
-      <c r="F138" s="73" t="s">
+      <c r="B138" s="90"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="74"/>
-      <c r="K138" s="75"/>
-      <c r="L138" s="73" t="s">
+      <c r="G138" s="63"/>
+      <c r="H138" s="63"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+      <c r="K138" s="64"/>
+      <c r="L138" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="M138" s="74"/>
-      <c r="N138" s="74"/>
-      <c r="O138" s="74"/>
-      <c r="P138" s="75"/>
-      <c r="Q138" s="72" t="s">
+      <c r="M138" s="63"/>
+      <c r="N138" s="63"/>
+      <c r="O138" s="63"/>
+      <c r="P138" s="64"/>
+      <c r="Q138" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="R138" s="72"/>
-      <c r="S138" s="72"/>
-      <c r="T138" s="72"/>
-      <c r="U138" s="72"/>
-    </row>
-    <row r="139" spans="1:21" ht="13.5">
+      <c r="R138" s="55"/>
+      <c r="S138" s="55"/>
+      <c r="T138" s="55"/>
+      <c r="U138" s="55"/>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="25"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="98"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="78"/>
-      <c r="L139" s="76"/>
-      <c r="M139" s="77"/>
-      <c r="N139" s="77"/>
-      <c r="O139" s="77"/>
-      <c r="P139" s="78"/>
-      <c r="Q139" s="72"/>
-      <c r="R139" s="72"/>
-      <c r="S139" s="72"/>
-      <c r="T139" s="72"/>
-      <c r="U139" s="72"/>
-    </row>
-    <row r="140" spans="1:21" ht="13.5">
+      <c r="B139" s="90"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="67"/>
+      <c r="L139" s="65"/>
+      <c r="M139" s="66"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="66"/>
+      <c r="P139" s="67"/>
+      <c r="Q139" s="55"/>
+      <c r="R139" s="55"/>
+      <c r="S139" s="55"/>
+      <c r="T139" s="55"/>
+      <c r="U139" s="55"/>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="25"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="97"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="78"/>
-      <c r="L140" s="76"/>
-      <c r="M140" s="77"/>
-      <c r="N140" s="77"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="78"/>
-      <c r="Q140" s="72"/>
-      <c r="R140" s="72"/>
-      <c r="S140" s="72"/>
-      <c r="T140" s="72"/>
-      <c r="U140" s="72"/>
-    </row>
-    <row r="141" spans="1:21" ht="13.5">
+      <c r="B140" s="90"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="79"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="66"/>
+      <c r="I140" s="66"/>
+      <c r="J140" s="66"/>
+      <c r="K140" s="67"/>
+      <c r="L140" s="65"/>
+      <c r="M140" s="66"/>
+      <c r="N140" s="66"/>
+      <c r="O140" s="66"/>
+      <c r="P140" s="67"/>
+      <c r="Q140" s="55"/>
+      <c r="R140" s="55"/>
+      <c r="S140" s="55"/>
+      <c r="T140" s="55"/>
+      <c r="U140" s="55"/>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="25"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="78"/>
-      <c r="L141" s="76"/>
-      <c r="M141" s="77"/>
-      <c r="N141" s="77"/>
-      <c r="O141" s="77"/>
-      <c r="P141" s="78"/>
-      <c r="Q141" s="72"/>
-      <c r="R141" s="72"/>
-      <c r="S141" s="72"/>
-      <c r="T141" s="72"/>
-      <c r="U141" s="72"/>
-    </row>
-    <row r="142" spans="1:21" ht="13.5">
+      <c r="B141" s="90"/>
+      <c r="C141" s="90"/>
+      <c r="D141" s="79"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="67"/>
+      <c r="L141" s="65"/>
+      <c r="M141" s="66"/>
+      <c r="N141" s="66"/>
+      <c r="O141" s="66"/>
+      <c r="P141" s="67"/>
+      <c r="Q141" s="55"/>
+      <c r="R141" s="55"/>
+      <c r="S141" s="55"/>
+      <c r="T141" s="55"/>
+      <c r="U141" s="55"/>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="25"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="78"/>
-      <c r="L142" s="76"/>
-      <c r="M142" s="77"/>
-      <c r="N142" s="77"/>
-      <c r="O142" s="77"/>
-      <c r="P142" s="78"/>
-      <c r="Q142" s="72"/>
-      <c r="R142" s="72"/>
-      <c r="S142" s="72"/>
-      <c r="T142" s="72"/>
-      <c r="U142" s="72"/>
-    </row>
-    <row r="143" spans="1:21" ht="13.5">
+      <c r="B142" s="90"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="79"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
+      <c r="I142" s="66"/>
+      <c r="J142" s="66"/>
+      <c r="K142" s="67"/>
+      <c r="L142" s="65"/>
+      <c r="M142" s="66"/>
+      <c r="N142" s="66"/>
+      <c r="O142" s="66"/>
+      <c r="P142" s="67"/>
+      <c r="Q142" s="55"/>
+      <c r="R142" s="55"/>
+      <c r="S142" s="55"/>
+      <c r="T142" s="55"/>
+      <c r="U142" s="55"/>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="25"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="78"/>
-      <c r="L143" s="76"/>
-      <c r="M143" s="77"/>
-      <c r="N143" s="77"/>
-      <c r="O143" s="77"/>
-      <c r="P143" s="78"/>
-      <c r="Q143" s="72"/>
-      <c r="R143" s="72"/>
-      <c r="S143" s="72"/>
-      <c r="T143" s="72"/>
-      <c r="U143" s="72"/>
-    </row>
-    <row r="144" spans="1:21" ht="13.5">
+      <c r="B143" s="90"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+      <c r="J143" s="66"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="65"/>
+      <c r="M143" s="66"/>
+      <c r="N143" s="66"/>
+      <c r="O143" s="66"/>
+      <c r="P143" s="67"/>
+      <c r="Q143" s="55"/>
+      <c r="R143" s="55"/>
+      <c r="S143" s="55"/>
+      <c r="T143" s="55"/>
+      <c r="U143" s="55"/>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="25"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="99"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="81"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="80"/>
-      <c r="N144" s="80"/>
-      <c r="O144" s="80"/>
-      <c r="P144" s="81"/>
-      <c r="Q144" s="72"/>
-      <c r="R144" s="72"/>
-      <c r="S144" s="72"/>
-      <c r="T144" s="72"/>
-      <c r="U144" s="72"/>
-    </row>
-    <row r="145" spans="1:21" ht="13.5">
+      <c r="B144" s="90"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="68"/>
+      <c r="M144" s="69"/>
+      <c r="N144" s="69"/>
+      <c r="O144" s="69"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="55"/>
+      <c r="R144" s="55"/>
+      <c r="S144" s="55"/>
+      <c r="T144" s="55"/>
+      <c r="U144" s="55"/>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="25"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="119" t="s">
+      <c r="B145" s="90"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E145" s="119"/>
-      <c r="F145" s="72" t="s">
+      <c r="E145" s="84"/>
+      <c r="F145" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="72"/>
-      <c r="K145" s="72"/>
-      <c r="L145" s="72" t="s">
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="55"/>
+      <c r="L145" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="72"/>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72" t="s">
+      <c r="M145" s="55"/>
+      <c r="N145" s="55"/>
+      <c r="O145" s="55"/>
+      <c r="P145" s="55"/>
+      <c r="Q145" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="R145" s="72"/>
-      <c r="S145" s="72"/>
-      <c r="T145" s="72"/>
-      <c r="U145" s="72"/>
-    </row>
-    <row r="146" spans="1:21" ht="13.5">
+      <c r="R145" s="55"/>
+      <c r="S145" s="55"/>
+      <c r="T145" s="55"/>
+      <c r="U145" s="55"/>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="25"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="94"/>
-      <c r="M146" s="94"/>
-      <c r="N146" s="94"/>
-      <c r="O146" s="94"/>
-      <c r="P146" s="94"/>
-      <c r="Q146" s="94"/>
-      <c r="R146" s="94"/>
-      <c r="S146" s="94"/>
-      <c r="T146" s="94"/>
-      <c r="U146" s="94"/>
-    </row>
-    <row r="147" spans="1:21" ht="13.5">
+      <c r="B146" s="90"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="84"/>
+      <c r="E146" s="84"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="55"/>
+      <c r="L146" s="83"/>
+      <c r="M146" s="83"/>
+      <c r="N146" s="83"/>
+      <c r="O146" s="83"/>
+      <c r="P146" s="83"/>
+      <c r="Q146" s="83"/>
+      <c r="R146" s="83"/>
+      <c r="S146" s="83"/>
+      <c r="T146" s="83"/>
+      <c r="U146" s="83"/>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="25"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="119"/>
-      <c r="E147" s="119"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
-      <c r="H147" s="72"/>
-      <c r="I147" s="72"/>
-      <c r="J147" s="72"/>
-      <c r="K147" s="72"/>
-      <c r="L147" s="94"/>
-      <c r="M147" s="94"/>
-      <c r="N147" s="94"/>
-      <c r="O147" s="94"/>
-      <c r="P147" s="94"/>
-      <c r="Q147" s="94"/>
-      <c r="R147" s="94"/>
-      <c r="S147" s="94"/>
-      <c r="T147" s="94"/>
-      <c r="U147" s="94"/>
-    </row>
-    <row r="148" spans="1:21" ht="13.5">
+      <c r="B147" s="90"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="84"/>
+      <c r="E147" s="84"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="55"/>
+      <c r="L147" s="83"/>
+      <c r="M147" s="83"/>
+      <c r="N147" s="83"/>
+      <c r="O147" s="83"/>
+      <c r="P147" s="83"/>
+      <c r="Q147" s="83"/>
+      <c r="R147" s="83"/>
+      <c r="S147" s="83"/>
+      <c r="T147" s="83"/>
+      <c r="U147" s="83"/>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="25"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="119"/>
-      <c r="E148" s="119"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="72"/>
-      <c r="K148" s="72"/>
-      <c r="L148" s="94"/>
-      <c r="M148" s="94"/>
-      <c r="N148" s="94"/>
-      <c r="O148" s="94"/>
-      <c r="P148" s="94"/>
-      <c r="Q148" s="94"/>
-      <c r="R148" s="94"/>
-      <c r="S148" s="94"/>
-      <c r="T148" s="94"/>
-      <c r="U148" s="94"/>
-    </row>
-    <row r="149" spans="1:21" ht="13.5">
+      <c r="B148" s="91"/>
+      <c r="C148" s="91"/>
+      <c r="D148" s="84"/>
+      <c r="E148" s="84"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="55"/>
+      <c r="K148" s="55"/>
+      <c r="L148" s="83"/>
+      <c r="M148" s="83"/>
+      <c r="N148" s="83"/>
+      <c r="O148" s="83"/>
+      <c r="P148" s="83"/>
+      <c r="Q148" s="83"/>
+      <c r="R148" s="83"/>
+      <c r="S148" s="83"/>
+      <c r="T148" s="83"/>
+      <c r="U148" s="83"/>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="25"/>
       <c r="B149" s="26" t="s">
         <v>117</v>
@@ -6725,7 +6850,7 @@
       <c r="T149" s="26"/>
       <c r="U149" s="26"/>
     </row>
-    <row r="150" spans="1:21" ht="13.5">
+    <row r="150" spans="1:21">
       <c r="A150" s="25"/>
       <c r="B150" s="26" t="s">
         <v>118</v>
@@ -6752,18 +6877,86 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="Q79:U83"/>
-    <mergeCell ref="F95:K97"/>
-    <mergeCell ref="F98:K101"/>
-    <mergeCell ref="F93:K94"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:U48"/>
-    <mergeCell ref="L95:P104"/>
-    <mergeCell ref="Q95:U104"/>
-    <mergeCell ref="L53:P60"/>
-    <mergeCell ref="Q53:U60"/>
-    <mergeCell ref="L84:P88"/>
-    <mergeCell ref="Q84:U88"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="H3:U3"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J9:U13"/>
+    <mergeCell ref="J14:U17"/>
+    <mergeCell ref="J5:U8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="F105:K108"/>
+    <mergeCell ref="F135:K137"/>
+    <mergeCell ref="F102:K104"/>
+    <mergeCell ref="F138:K144"/>
+    <mergeCell ref="F64:K66"/>
+    <mergeCell ref="F53:K57"/>
+    <mergeCell ref="F67:K69"/>
+    <mergeCell ref="F89:K90"/>
+    <mergeCell ref="L105:P108"/>
+    <mergeCell ref="L138:P144"/>
+    <mergeCell ref="F77:K78"/>
+    <mergeCell ref="L79:P83"/>
+    <mergeCell ref="Q105:U108"/>
+    <mergeCell ref="L116:P123"/>
+    <mergeCell ref="Q116:U123"/>
+    <mergeCell ref="L64:P78"/>
+    <mergeCell ref="Q64:U78"/>
+    <mergeCell ref="L89:P94"/>
+    <mergeCell ref="Q89:U94"/>
+    <mergeCell ref="B24:B41"/>
+    <mergeCell ref="B42:B94"/>
+    <mergeCell ref="B95:B148"/>
+    <mergeCell ref="C24:C41"/>
+    <mergeCell ref="C42:C94"/>
+    <mergeCell ref="C95:C148"/>
+    <mergeCell ref="D39:E41"/>
+    <mergeCell ref="D35:E38"/>
+    <mergeCell ref="D24:E27"/>
+    <mergeCell ref="D135:E144"/>
+    <mergeCell ref="D95:E115"/>
+    <mergeCell ref="D89:E94"/>
+    <mergeCell ref="D84:E88"/>
+    <mergeCell ref="L28:P34"/>
+    <mergeCell ref="Q28:U34"/>
+    <mergeCell ref="L42:P45"/>
+    <mergeCell ref="Q42:U45"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="L24:P27"/>
+    <mergeCell ref="Q24:U27"/>
+    <mergeCell ref="F24:K25"/>
+    <mergeCell ref="L61:P63"/>
+    <mergeCell ref="Q61:U63"/>
+    <mergeCell ref="L49:P52"/>
+    <mergeCell ref="Q49:U52"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:U41"/>
+    <mergeCell ref="L35:P38"/>
+    <mergeCell ref="Q35:U38"/>
+    <mergeCell ref="Q138:U144"/>
+    <mergeCell ref="F145:K148"/>
+    <mergeCell ref="L145:P148"/>
+    <mergeCell ref="Q145:U148"/>
+    <mergeCell ref="F109:K115"/>
+    <mergeCell ref="L130:P134"/>
+    <mergeCell ref="Q130:U134"/>
+    <mergeCell ref="F124:K129"/>
+    <mergeCell ref="F116:K118"/>
+    <mergeCell ref="L109:P115"/>
+    <mergeCell ref="Q109:U115"/>
+    <mergeCell ref="F130:K134"/>
+    <mergeCell ref="L135:P137"/>
+    <mergeCell ref="Q135:U137"/>
+    <mergeCell ref="L124:P129"/>
+    <mergeCell ref="Q124:U129"/>
     <mergeCell ref="D64:E83"/>
     <mergeCell ref="D28:E34"/>
     <mergeCell ref="D42:E48"/>
@@ -6788,86 +6981,18 @@
     <mergeCell ref="F28:K32"/>
     <mergeCell ref="F33:K34"/>
     <mergeCell ref="F72:K74"/>
-    <mergeCell ref="Q138:U144"/>
-    <mergeCell ref="F145:K148"/>
-    <mergeCell ref="L145:P148"/>
-    <mergeCell ref="Q145:U148"/>
-    <mergeCell ref="F109:K115"/>
-    <mergeCell ref="L130:P134"/>
-    <mergeCell ref="Q130:U134"/>
-    <mergeCell ref="F124:K129"/>
-    <mergeCell ref="F116:K118"/>
-    <mergeCell ref="L109:P115"/>
-    <mergeCell ref="Q109:U115"/>
-    <mergeCell ref="F130:K134"/>
-    <mergeCell ref="L135:P137"/>
-    <mergeCell ref="Q135:U137"/>
-    <mergeCell ref="L124:P129"/>
-    <mergeCell ref="Q124:U129"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="L24:P27"/>
-    <mergeCell ref="Q24:U27"/>
-    <mergeCell ref="F24:K25"/>
-    <mergeCell ref="L61:P63"/>
-    <mergeCell ref="Q61:U63"/>
-    <mergeCell ref="L49:P52"/>
-    <mergeCell ref="Q49:U52"/>
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:U41"/>
-    <mergeCell ref="L35:P38"/>
-    <mergeCell ref="Q35:U38"/>
-    <mergeCell ref="Q105:U108"/>
-    <mergeCell ref="L116:P123"/>
-    <mergeCell ref="Q116:U123"/>
-    <mergeCell ref="L64:P78"/>
-    <mergeCell ref="Q64:U78"/>
-    <mergeCell ref="L89:P94"/>
-    <mergeCell ref="Q89:U94"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="B42:B94"/>
-    <mergeCell ref="B95:B148"/>
-    <mergeCell ref="C24:C41"/>
-    <mergeCell ref="C42:C94"/>
-    <mergeCell ref="C95:C148"/>
-    <mergeCell ref="D39:E41"/>
-    <mergeCell ref="D35:E38"/>
-    <mergeCell ref="D24:E27"/>
-    <mergeCell ref="D135:E144"/>
-    <mergeCell ref="D95:E115"/>
-    <mergeCell ref="D89:E94"/>
-    <mergeCell ref="D84:E88"/>
-    <mergeCell ref="L28:P34"/>
-    <mergeCell ref="Q28:U34"/>
-    <mergeCell ref="L42:P45"/>
-    <mergeCell ref="Q42:U45"/>
-    <mergeCell ref="F105:K108"/>
-    <mergeCell ref="F135:K137"/>
-    <mergeCell ref="F102:K104"/>
-    <mergeCell ref="F138:K144"/>
-    <mergeCell ref="F64:K66"/>
-    <mergeCell ref="F53:K57"/>
-    <mergeCell ref="F67:K69"/>
-    <mergeCell ref="F89:K90"/>
-    <mergeCell ref="L105:P108"/>
-    <mergeCell ref="L138:P144"/>
-    <mergeCell ref="F77:K78"/>
-    <mergeCell ref="L79:P83"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="H3:U3"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J9:U13"/>
-    <mergeCell ref="J14:U17"/>
-    <mergeCell ref="J5:U8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="Q79:U83"/>
+    <mergeCell ref="F95:K97"/>
+    <mergeCell ref="F98:K101"/>
+    <mergeCell ref="F93:K94"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:U48"/>
+    <mergeCell ref="L95:P104"/>
+    <mergeCell ref="Q95:U104"/>
+    <mergeCell ref="L53:P60"/>
+    <mergeCell ref="Q53:U60"/>
+    <mergeCell ref="L84:P88"/>
+    <mergeCell ref="Q84:U88"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.78680555555555598" right="0.78680555555555598" top="0.98333333333333295" bottom="0.98333333333333295" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6877,19 +7002,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>255</v>
@@ -7123,7 +7248,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15" ht="21.6">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" ref="B10:B26" si="1">ROW()-6</f>
@@ -7157,7 +7282,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="1"/>
@@ -7487,16 +7612,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -7509,6 +7624,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7516,19 +7641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>218</v>
@@ -7662,7 +7787,7 @@
       <c r="N6" s="130"/>
       <c r="O6" s="130"/>
     </row>
-    <row r="7" spans="1:15" ht="22.5">
+    <row r="7" spans="1:15" ht="21.6">
       <c r="A7" s="2"/>
       <c r="B7" s="42">
         <f>ROW()-6</f>
@@ -7698,7 +7823,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="22.5">
+    <row r="8" spans="1:15" ht="21.6">
       <c r="A8" s="2"/>
       <c r="B8" s="42">
         <f t="shared" ref="B8:B26" si="0">ROW()-6</f>
@@ -7762,7 +7887,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15" ht="21.6">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
@@ -7792,7 +7917,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -8124,16 +8249,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8146,6 +8261,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8153,19 +8278,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>213</v>
@@ -8427,7 +8552,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -8485,7 +8610,7 @@
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5">
+    <row r="13" spans="1:15" ht="21.6">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -8513,7 +8638,7 @@
       <c r="N13" s="128"/>
       <c r="O13" s="129"/>
     </row>
-    <row r="14" spans="1:15" ht="33.75">
+    <row r="14" spans="1:15" ht="32.4">
       <c r="A14" s="2"/>
       <c r="B14" s="42">
         <f t="shared" si="0"/>
@@ -8541,7 +8666,7 @@
       <c r="N14" s="128"/>
       <c r="O14" s="129"/>
     </row>
-    <row r="15" spans="1:15" ht="33.75">
+    <row r="15" spans="1:15" ht="32.4">
       <c r="A15" s="2"/>
       <c r="B15" s="42">
         <f t="shared" si="0"/>
@@ -8569,7 +8694,7 @@
       <c r="N15" s="128"/>
       <c r="O15" s="129"/>
     </row>
-    <row r="16" spans="1:15" ht="22.5">
+    <row r="16" spans="1:15" ht="21.6">
       <c r="A16" s="2"/>
       <c r="B16" s="42">
         <f t="shared" si="0"/>
@@ -8767,7 +8892,7 @@
       <c r="N22" s="128"/>
       <c r="O22" s="129"/>
     </row>
-    <row r="23" spans="1:15" ht="22.5">
+    <row r="23" spans="1:15" ht="21.6">
       <c r="A23" s="2"/>
       <c r="B23" s="42">
         <f t="shared" si="0"/>
@@ -8795,7 +8920,7 @@
       <c r="N23" s="128"/>
       <c r="O23" s="129"/>
     </row>
-    <row r="24" spans="1:15" ht="22.5">
+    <row r="24" spans="1:15" ht="21.6">
       <c r="A24" s="2"/>
       <c r="B24" s="42">
         <f t="shared" si="0"/>
@@ -8887,16 +9012,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -8909,6 +9024,16 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8916,19 +9041,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>365</v>
@@ -9250,7 +9375,7 @@
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5">
+    <row r="13" spans="1:15" ht="21.6">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -9580,6 +9705,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M12:O12"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
@@ -9596,14 +9729,6 @@
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M12:O12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9611,19 +9736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>366</v>
@@ -9853,7 +9978,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15" ht="21.6">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
@@ -9883,7 +10008,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -9915,7 +10040,7 @@
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5">
+    <row r="12" spans="1:15" ht="21.6">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -10225,16 +10350,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -10247,30 +10362,1526 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20.399999999999999">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="42">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="43">
+        <v>20</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="127" t="s">
+        <v>403</v>
+      </c>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129"/>
+    </row>
+    <row r="8" spans="1:15" ht="75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" s="43">
+        <v>8</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="127" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="42">
+        <f t="shared" ref="B9:B30" si="0">ROW()-6</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="43">
+        <v>1024</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="127" t="s">
+        <v>406</v>
+      </c>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="43">
+        <v>1024</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="127" t="s">
+        <v>408</v>
+      </c>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="43">
+        <v>1024</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="127" t="s">
+        <v>411</v>
+      </c>
+      <c r="N11" s="128"/>
+      <c r="O11" s="129"/>
+    </row>
+    <row r="12" spans="1:15" ht="21.6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="43">
+        <v>1024</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="127" t="s">
+        <v>413</v>
+      </c>
+      <c r="N12" s="128"/>
+      <c r="O12" s="129"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="127" t="s">
+        <v>415</v>
+      </c>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="42">
+        <v>8</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="43">
+        <v>8</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="127" t="s">
+        <v>421</v>
+      </c>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
+    </row>
+    <row r="15" spans="1:15" ht="21.6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
+    </row>
+    <row r="16" spans="1:15" ht="21.6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="127" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+    </row>
+    <row r="17" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
+    </row>
+    <row r="18" spans="1:15" ht="33" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="129"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="129"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="129"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="42">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="42">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="129"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="129"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="129"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="42">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="129"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="42">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20.399999999999999">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="130"/>
+      <c r="H6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="42">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="43">
+        <v>20</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129"/>
+    </row>
+    <row r="8" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="42">
+        <f t="shared" ref="B8:B28" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="43">
+        <v>20</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="127" t="s">
+        <v>244</v>
+      </c>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="43">
+        <v>20</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="42">
+        <v>0</v>
+      </c>
+      <c r="M9" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="43">
+        <v>20</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="42">
+        <v>0</v>
+      </c>
+      <c r="M10" s="127" t="s">
+        <v>425</v>
+      </c>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="43">
+        <v>20</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="42">
+        <v>0</v>
+      </c>
+      <c r="M11" s="127" t="s">
+        <v>426</v>
+      </c>
+      <c r="N11" s="128"/>
+      <c r="O11" s="129"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="43">
+        <v>20</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0</v>
+      </c>
+      <c r="M12" s="127" t="s">
+        <v>431</v>
+      </c>
+      <c r="N12" s="128"/>
+      <c r="O12" s="129"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="42">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="42">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="129"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="129"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="129"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="129"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="42">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="42">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="129"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="129"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="129"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="21" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="21" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="1.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="21" customWidth="1"/>
+    <col min="5" max="9" width="9.109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" style="21" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="19" customFormat="1" ht="19.5" customHeight="1">
@@ -10322,12 +11933,12 @@
       <c r="E7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="24">
@@ -10393,10 +12004,18 @@
       <c r="B11" s="24">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="24">
+        <v>20141014</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>432</v>
+      </c>
       <c r="G11" s="122"/>
       <c r="H11" s="122"/>
       <c r="I11" s="122"/>
@@ -10595,27 +12214,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
@@ -10628,22 +12247,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="13" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="1.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="13" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="11" customFormat="1" ht="19.5" customHeight="1">
@@ -10667,13 +12286,13 @@
       <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="18">
@@ -10808,20 +12427,28 @@
       <c r="G15" s="124"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="B16" s="18">
+        <v>12</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="18"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
+      <c r="B17" s="18">
+        <v>13</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="18"/>
@@ -10857,6 +12484,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C21:G21"/>
@@ -10865,16 +12502,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:C6 B8:C9 B7 B10:B12 B13:C21">
@@ -10927,6 +12554,8 @@
     <hyperlink ref="C12:G12" location="用户!A1" display="用户"/>
     <hyperlink ref="C14:G14" location="打包平台日志!A1" display="打包平台日志"/>
     <hyperlink ref="C15:G15" location="中兴取包日志!A1" display="中兴取包日志"/>
+    <hyperlink ref="C16:G16" location="首页配置!A1" display="首页配置"/>
+    <hyperlink ref="C17:G17" location="新版流量统计!A1" display="新版流量统计"/>
   </hyperlinks>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10938,19 +12567,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>217</v>
@@ -11084,7 +12713,7 @@
       <c r="N6" s="130"/>
       <c r="O6" s="130"/>
     </row>
-    <row r="7" spans="1:15" ht="22.5">
+    <row r="7" spans="1:15" ht="21.6">
       <c r="A7" s="2"/>
       <c r="B7" s="42">
         <f>ROW()-6</f>
@@ -11120,7 +12749,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="22.5">
+    <row r="8" spans="1:15" ht="21.6">
       <c r="A8" s="2"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42" t="s">
@@ -11151,7 +12780,7 @@
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:15" ht="22.5">
+    <row r="9" spans="1:15" ht="21.6">
       <c r="A9" s="2"/>
       <c r="B9" s="42">
         <f t="shared" ref="B9:B29" si="0">ROW()-6</f>
@@ -11245,7 +12874,7 @@
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5">
+    <row r="12" spans="1:15" ht="21.6">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -11307,7 +12936,7 @@
       <c r="N13" s="128"/>
       <c r="O13" s="129"/>
     </row>
-    <row r="14" spans="1:15" ht="22.5">
+    <row r="14" spans="1:15" ht="21.6">
       <c r="A14" s="2"/>
       <c r="B14" s="42">
         <f t="shared" si="0"/>
@@ -11337,7 +12966,7 @@
       <c r="N14" s="128"/>
       <c r="O14" s="129"/>
     </row>
-    <row r="15" spans="1:15" ht="22.5">
+    <row r="15" spans="1:15" ht="21.6">
       <c r="A15" s="2"/>
       <c r="B15" s="42">
         <f t="shared" si="0"/>
@@ -11673,16 +13302,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -11698,6 +13317,16 @@
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11705,19 +13334,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>223</v>
@@ -11887,7 +13516,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="22.5">
+    <row r="8" spans="1:15" ht="21.6">
       <c r="A8" s="2"/>
       <c r="B8" s="42">
         <f t="shared" ref="B8:B26" si="0">ROW()-6</f>
@@ -11919,7 +13548,7 @@
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:15" ht="22.5">
+    <row r="9" spans="1:15" ht="21.6">
       <c r="A9" s="2"/>
       <c r="B9" s="42">
         <f t="shared" si="0"/>
@@ -11949,7 +13578,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15" ht="21.6">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
@@ -12301,16 +13930,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12323,6 +13942,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12331,19 +13960,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>249</v>
@@ -12513,7 +14142,7 @@
       <c r="N7" s="128"/>
       <c r="O7" s="129"/>
     </row>
-    <row r="8" spans="1:15" ht="22.5">
+    <row r="8" spans="1:15" ht="21.6">
       <c r="A8" s="2"/>
       <c r="B8" s="42">
         <f t="shared" ref="B8:B26" si="0">ROW()-6</f>
@@ -12547,7 +14176,7 @@
       <c r="N8" s="128"/>
       <c r="O8" s="129"/>
     </row>
-    <row r="9" spans="1:15" ht="22.5">
+    <row r="9" spans="1:15" ht="21.6">
       <c r="A9" s="2"/>
       <c r="B9" s="42">
         <f t="shared" si="0"/>
@@ -12615,7 +14244,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -12945,16 +14574,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -12967,6 +14586,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12974,19 +14603,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>221</v>
@@ -13258,7 +14887,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -13326,7 +14955,7 @@
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5">
+    <row r="13" spans="1:15" ht="21.6">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -13656,16 +15285,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -13680,6 +15299,16 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13688,19 +15317,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="P7" sqref="P7:R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>342</v>
@@ -14000,7 +15629,7 @@
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5">
+    <row r="12" spans="1:15" ht="21.6">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -14034,7 +15663,7 @@
       <c r="N12" s="128"/>
       <c r="O12" s="129"/>
     </row>
-    <row r="13" spans="1:15" ht="22.5">
+    <row r="13" spans="1:15" ht="21.6">
       <c r="A13" s="2"/>
       <c r="B13" s="42">
         <f t="shared" si="0"/>
@@ -14364,16 +15993,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -14388,6 +16007,16 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14395,19 +16024,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25">
+    <row r="1" spans="1:15" ht="20.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>222</v>
@@ -14643,7 +16272,7 @@
       <c r="N9" s="128"/>
       <c r="O9" s="129"/>
     </row>
-    <row r="10" spans="1:15" ht="22.5">
+    <row r="10" spans="1:15" ht="21.6">
       <c r="A10" s="2"/>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
@@ -14673,7 +16302,7 @@
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
     </row>
-    <row r="11" spans="1:15" ht="22.5">
+    <row r="11" spans="1:15" ht="21.6">
       <c r="A11" s="2"/>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
@@ -14703,7 +16332,7 @@
       <c r="N11" s="128"/>
       <c r="O11" s="129"/>
     </row>
-    <row r="12" spans="1:15" ht="22.5">
+    <row r="12" spans="1:15" ht="21.6">
       <c r="A12" s="2"/>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
@@ -15019,16 +16648,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="M6:O6"/>
@@ -15041,6 +16660,16 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 Detail Design/数据库设计书.xlsx
+++ b/02 Detail Design/数据库设计书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="20472" windowHeight="7812" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="20472" windowHeight="7812" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Risk 分类和举例" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="438">
   <si>
     <t>风险分类</t>
   </si>
@@ -1952,6 +1952,13 @@
   </si>
   <si>
     <t>表名（物理）：STATISTICS</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>外键引用渠道编号表的主键
+为NULL时表示渠道为沃游戏</t>
   </si>
 </sst>
 </file>
@@ -2471,25 +2478,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,22 +2562,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2553,48 +2617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2633,59 +2655,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3171,13 +3178,13 @@
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
@@ -3192,22 +3199,22 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="26"/>
@@ -3223,24 +3230,24 @@
       <c r="I4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="62" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -3253,28 +3260,28 @@
       <c r="H5" s="30">
         <v>8</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="57">
         <f>SUM(H5:H8)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="26"/>
-      <c r="B6" s="95"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="29" t="s">
         <v>7</v>
       </c>
@@ -3285,23 +3292,23 @@
       <c r="H6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="